--- a/dumps/Stocks/Rites Ltd.xlsx
+++ b/dumps/Stocks/Rites Ltd.xlsx
@@ -16,10 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$₹]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="d-mmm-yyyy"/>
     <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -210,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -478,6 +479,7 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,7 +787,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1055"/>
+  <dimension ref="A1:AP1056"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1135,43 +1137,47 @@
       <c r="AP4" s="66" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="98" t="n">
-        <v>46057</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="A5" s="99" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>223.75</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>2253.41</v>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>227.09</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4574.07</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>13.66</v>
+      <c r="H5" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="I5" t="n">
+        <v>27.73</v>
+      </c>
+      <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="98" t="n">
-        <v>46049</v>
+        <v>46057</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1187,10 +1193,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>218.46</v>
+        <v>223.75</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2200.07</v>
+        <v>2253.41</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
@@ -1198,19 +1204,19 @@
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>13.29</v>
+        <v>13.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="98" t="n">
-        <v>46015</v>
+        <v>46049</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
@@ -1222,10 +1228,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>243.55</v>
+        <v>218.46</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2452.82</v>
+        <v>2200.07</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
@@ -1233,19 +1239,19 @@
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>2.43</v>
+        <v>2.18</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>14.89</v>
+        <v>13.29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="98" t="n">
-        <v>46008</v>
+        <v>46015</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
@@ -1257,10 +1263,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>224.2</v>
+        <v>243.55</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2257.89</v>
+        <v>2452.82</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1268,19 +1274,19 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>2.25</v>
+        <v>2.43</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>13.64</v>
+        <v>14.89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="98" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -1292,10 +1298,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>226.9</v>
+        <v>224.2</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2285.06</v>
+        <v>2257.89</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1303,19 +1309,19 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>13.8</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="98" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1327,10 +1333,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>224.95</v>
+        <v>226.9</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2265.39</v>
+        <v>2285.06</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1341,7 +1347,7 @@
         <v>2.26</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>13.63</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="11">
@@ -1350,7 +1356,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1362,10 +1368,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>225</v>
+        <v>224.95</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2266.03</v>
+        <v>2265.39</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1376,16 +1382,16 @@
         <v>2.26</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>13.77</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="98" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1394,13 +1400,13 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>228.26</v>
+        <v>225</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>13102.98</v>
+        <v>2266.03</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1408,10 +1414,10 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>12.97</v>
+        <v>2.26</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>79.19</v>
+        <v>13.77</v>
       </c>
     </row>
     <row r="13">
@@ -1429,13 +1435,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>228.25</v>
+        <v>228.26</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>689.6</v>
+        <v>13102.98</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1443,19 +1449,19 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.6899999999999999</v>
+        <v>12.97</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>4.16</v>
+        <v>79.19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="98" t="n">
-        <v>45982</v>
+        <v>45996</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1464,13 +1470,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>249.8</v>
+        <v>228.25</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>2515.74</v>
+        <v>689.6</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1478,19 +1484,19 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>2.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>15.24</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="98" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -1499,13 +1505,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>249.97</v>
+        <v>249.8</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2265.67</v>
+        <v>2515.74</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1513,10 +1519,10 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>13.7</v>
+        <v>15.24</v>
       </c>
     </row>
     <row r="16">
@@ -1534,13 +1540,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>249.93</v>
+        <v>249.97</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>251.7</v>
+        <v>2265.67</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1548,19 +1554,19 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.25</v>
+        <v>2.24</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>1.52</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="98" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -1572,10 +1578,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>249.6</v>
+        <v>249.93</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>251.37</v>
+        <v>251.7</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1604,13 +1610,13 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>249.7</v>
+        <v>249.6</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>2263.26</v>
+        <v>251.37</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1618,19 +1624,19 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>2.26</v>
+        <v>0.25</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>13.7</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="98" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -1639,13 +1645,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>248.38</v>
+        <v>249.7</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>5002.78</v>
+        <v>2263.26</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1653,19 +1659,19 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>4.99</v>
+        <v>2.26</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>30.19</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="98" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -1674,13 +1680,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>243.9</v>
+        <v>248.38</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>2456.31</v>
+        <v>5002.78</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1688,10 +1694,10 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>2.44</v>
+        <v>4.99</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>14.87</v>
+        <v>30.19</v>
       </c>
     </row>
     <row r="21">
@@ -1700,7 +1706,7 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1709,33 +1715,33 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>2</v>
+        <v>243.9</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>160</v>
+        <v>2456.31</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.2.0000/- per share on Ex-Date: 14-NOV-2025  Interim-Dividend of Rs.2.0000/- per share on Ex-Date: 14-NOV-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="98" t="n">
-        <v>45959</v>
+        <v>45975</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1744,29 +1750,29 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>244.95</v>
+        <v>2</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>2466.81</v>
+        <v>160</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.2.0000/- per share on Ex-Date: 14-NOV-2025  Interim-Dividend of Rs.2.0000/- per share on Ex-Date: 14-NOV-2025</t>
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>14.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="98" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
@@ -1779,13 +1785,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>245.88</v>
+        <v>244.95</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>247.63</v>
+        <v>2466.81</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1793,10 +1799,10 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.25</v>
+        <v>2.44</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>1.5</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="24">
@@ -1814,13 +1820,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>245.88</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>1981.01</v>
+        <v>247.63</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1828,10 +1834,10 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>1.97</v>
+        <v>0.25</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>12</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="25">
@@ -1849,13 +1855,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>245.88</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>247.63</v>
+        <v>1981.01</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1863,15 +1869,15 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.25</v>
+        <v>1.97</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>1.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="98" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
@@ -1884,13 +1890,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>247.5</v>
+        <v>245.88</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1744.82</v>
+        <v>247.63</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1898,10 +1904,10 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>1.74</v>
+        <v>0.25</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>10.58</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="27">
@@ -1919,13 +1925,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>247.5</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>747.75</v>
+        <v>1744.82</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1933,15 +1939,15 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.74</v>
+        <v>1.74</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>4.51</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="98" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
@@ -1954,13 +1960,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>247.99</v>
+        <v>247.5</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>2247.71</v>
+        <v>747.75</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1968,10 +1974,10 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>2.22</v>
+        <v>0.74</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>13.58</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="29">
@@ -1989,13 +1995,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>247.99</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>249.75</v>
+        <v>2247.71</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -2003,19 +2009,19 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.25</v>
+        <v>2.22</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>1.51</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="98" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C30" s="0" t="inlineStr">
@@ -2024,13 +2030,13 @@
         </is>
       </c>
       <c r="D30" s="0" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>247.05</v>
+        <v>247.99</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>4976.18</v>
+        <v>249.75</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -2038,19 +2044,19 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>4.94</v>
+        <v>0.25</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>30.24</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="98" t="n">
-        <v>45917</v>
+        <v>45950</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C31" s="0" t="inlineStr">
@@ -2062,30 +2068,30 @@
         <v>20</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>2.65</v>
+        <v>247.05</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>53</v>
+        <v>4976.18</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.2.6500/- per share on Ex-Date: 17-SEP-2025  Final-Dividend of Rs.2.6500/- per share on Ex-Date: 17-SEP-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0</v>
+        <v>4.94</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>0</v>
+        <v>30.24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="98" t="n">
-        <v>45897</v>
+        <v>45917</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
@@ -2094,131 +2100,68 @@
         </is>
       </c>
       <c r="D32" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="G32" s="0" t="inlineStr">
+        <is>
+          <t>Final-Dividend of Rs.2.6500/- per share on Ex-Date: 17-SEP-2025  Final-Dividend of Rs.2.6500/- per share on Ex-Date: 17-SEP-2025</t>
+        </is>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="98" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E33" s="0" t="n">
         <v>246.85</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F33" s="0" t="n">
         <v>2486</v>
       </c>
-      <c r="G32" s="0" t="inlineStr">
+      <c r="G33" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H33" s="0" t="n">
         <v>2.47</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="I33" s="0" t="n">
         <v>15.03</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="38" t="n">
+    <row r="34">
+      <c r="A34" s="38" t="n">
         <v>45950</v>
       </c>
-      <c r="B33" s="39" t="inlineStr">
+      <c r="B34" s="39" t="inlineStr">
         <is>
           <t>BSE</t>
-        </is>
-      </c>
-      <c r="C33" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D33" s="40" t="n">
-        <v>20</v>
-      </c>
-      <c r="E33" s="41" t="n">
-        <v>248.81</v>
-      </c>
-      <c r="F33" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G33" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H33" s="40" t="n"/>
-      <c r="I33" s="40" t="n"/>
-      <c r="J33" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K33" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L33" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M33" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N33" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O33" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P33" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q33" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R33" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S33" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T33" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U33" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V33" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W33" s="47" t="n"/>
-      <c r="X33" s="47" t="n"/>
-      <c r="Y33" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z33" s="47" t="n"/>
-      <c r="AA33" s="47" t="n"/>
-      <c r="AB33" s="48" t="n"/>
-      <c r="AC33" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD33" s="49" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="38" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B34" s="39" t="inlineStr">
-        <is>
-          <t>DIV</t>
         </is>
       </c>
       <c r="C34" s="39" t="inlineStr">
@@ -2227,16 +2170,20 @@
         </is>
       </c>
       <c r="D34" s="40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E34" s="41" t="n">
-        <v>2.65</v>
+        <v>248.81</v>
       </c>
       <c r="F34" s="41">
-        <f>(D6*E6)</f>
-        <v/>
-      </c>
-      <c r="G34" s="39" t="n"/>
+        <f>D5*E5</f>
+        <v/>
+      </c>
+      <c r="G34" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
       <c r="H34" s="40" t="n"/>
       <c r="I34" s="40" t="n"/>
       <c r="J34" s="42">
@@ -2244,64 +2191,64 @@
         <v/>
       </c>
       <c r="K34" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L34" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M34" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N34" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O34" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P34" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q34" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R34" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S34" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T34" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U34" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V34" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W34" s="47" t="n"/>
       <c r="X34" s="47" t="n"/>
       <c r="Y34" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z34" s="47" t="n"/>
       <c r="AA34" s="47" t="n"/>
       <c r="AB34" s="48" t="n"/>
       <c r="AC34" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD34" s="49" t="n"/>
@@ -2327,7 +2274,7 @@
         <v>2.65</v>
       </c>
       <c r="F35" s="41">
-        <f>(D7*E7)</f>
+        <f>(D6*E6)</f>
         <v/>
       </c>
       <c r="G35" s="39" t="n"/>
@@ -2338,75 +2285,75 @@
         <v/>
       </c>
       <c r="K35" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L35" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M35" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N35" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O35" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P35" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q35" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R35" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S35" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T35" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U35" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V35" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W35" s="47" t="n"/>
       <c r="X35" s="47" t="n"/>
       <c r="Y35" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z35" s="47" t="n"/>
       <c r="AA35" s="47" t="n"/>
       <c r="AB35" s="48" t="n"/>
       <c r="AC35" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD35" s="49" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="38" t="n">
-        <v>45897</v>
+        <v>45917</v>
       </c>
       <c r="B36" s="39" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C36" s="39" t="inlineStr">
@@ -2418,96 +2365,89 @@
         <v>10</v>
       </c>
       <c r="E36" s="41" t="n">
-        <v>248.6</v>
-      </c>
-      <c r="F36" s="41" t="n">
-        <v>2486</v>
-      </c>
-      <c r="G36" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H36" s="40" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="I36" s="40" t="n">
-        <v>15.03</v>
-      </c>
+        <v>2.65</v>
+      </c>
+      <c r="F36" s="41">
+        <f>(D7*E7)</f>
+        <v/>
+      </c>
+      <c r="G36" s="39" t="n"/>
+      <c r="H36" s="40" t="n"/>
+      <c r="I36" s="40" t="n"/>
       <c r="J36" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K36" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L36" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M36" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N36" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O36" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P36" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R36" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S36" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T36" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U36" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V36" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W36" s="47" t="n"/>
       <c r="X36" s="47" t="n"/>
       <c r="Y36" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z36" s="47" t="n"/>
       <c r="AA36" s="47" t="n"/>
       <c r="AB36" s="48" t="n"/>
       <c r="AC36" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD36" s="49" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="38" t="n">
-        <v>45881</v>
+        <v>45897</v>
       </c>
       <c r="B37" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C37" s="39" t="inlineStr">
@@ -2519,193 +2459,193 @@
         <v>10</v>
       </c>
       <c r="E37" s="41" t="n">
-        <v>1.3</v>
+        <v>248.6</v>
       </c>
       <c r="F37" s="41" t="n">
-        <v>13</v>
+        <v>2486</v>
       </c>
       <c r="G37" s="39" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.1.3000/- per share on Ex-Date: 12-AUG-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H37" s="40" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="I37" s="40" t="n">
-        <v>0</v>
+        <v>15.03</v>
       </c>
       <c r="J37" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L37" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M37" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N37" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O37" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P37" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R37" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S37" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T37" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U37" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V37" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W37" s="47" t="n"/>
       <c r="X37" s="47" t="n"/>
       <c r="Y37" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z37" s="47" t="n"/>
       <c r="AA37" s="47" t="n"/>
       <c r="AB37" s="48" t="n"/>
       <c r="AC37" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD37" s="49" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="38" t="n">
-        <v>45820</v>
+        <v>45881</v>
       </c>
       <c r="B38" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C38" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D38" s="40" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E38" s="41" t="n">
-        <v>301.79</v>
+        <v>1.3</v>
       </c>
       <c r="F38" s="41" t="n">
-        <v>30179.17</v>
+        <v>13</v>
       </c>
       <c r="G38" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.3000/- per share on Ex-Date: 12-AUG-2025</t>
         </is>
       </c>
       <c r="H38" s="40" t="n">
-        <v>30.34</v>
+        <v>0</v>
       </c>
       <c r="I38" s="40" t="n">
-        <v>180.49</v>
+        <v>0</v>
       </c>
       <c r="J38" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L38" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M38" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N38" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O38" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P38" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R38" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S38" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T38" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U38" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V38" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W38" s="47" t="n"/>
       <c r="X38" s="47" t="n"/>
       <c r="Y38" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z38" s="47" t="n"/>
       <c r="AA38" s="47" t="n"/>
       <c r="AB38" s="48" t="n"/>
       <c r="AC38" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD38" s="49" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="38" t="n">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="B39" s="39" t="inlineStr">
         <is>
@@ -2714,17 +2654,17 @@
       </c>
       <c r="C39" s="39" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D39" s="40" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E39" s="41" t="n">
-        <v>283.65</v>
+        <v>301.79</v>
       </c>
       <c r="F39" s="41" t="n">
-        <v>2836.5</v>
+        <v>30179.17</v>
       </c>
       <c r="G39" s="39" t="inlineStr">
         <is>
@@ -2732,195 +2672,178 @@
         </is>
       </c>
       <c r="H39" s="40" t="n">
-        <v>2.82</v>
+        <v>30.34</v>
       </c>
       <c r="I39" s="40" t="n">
-        <v>17.18</v>
+        <v>180.49</v>
       </c>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L39" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M39" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N39" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O39" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P39" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R39" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S39" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T39" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U39" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V39" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W39" s="47" t="n"/>
       <c r="X39" s="47" t="n"/>
       <c r="Y39" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z39" s="47" t="n"/>
       <c r="AA39" s="47" t="n"/>
       <c r="AB39" s="48" t="n"/>
       <c r="AC39" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD39" s="49" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="50" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B40" s="51" t="inlineStr">
+      <c r="A40" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B40" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C40" s="51" t="inlineStr">
+      <c r="C40" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D40" s="52" t="n">
-        <v>23</v>
-      </c>
-      <c r="E40" s="53" t="n">
-        <v>214.56</v>
-      </c>
-      <c r="F40" s="53" t="n">
-        <v>4934.98</v>
-      </c>
-      <c r="G40" s="51" t="inlineStr">
+      <c r="D40" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E40" s="41" t="n">
+        <v>283.65</v>
+      </c>
+      <c r="F40" s="41" t="n">
+        <v>2836.5</v>
+      </c>
+      <c r="G40" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H40" s="52" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="I40" s="52" t="n">
-        <v>29.94</v>
+      <c r="H40" s="40" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I40" s="40" t="n">
+        <v>17.18</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L40" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M40" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N40" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O40" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P40" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R40" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S40" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T40" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U40" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V40" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
-        <v/>
-      </c>
-      <c r="W40" s="41" t="n">
-        <v>301.79</v>
-      </c>
-      <c r="X40" s="38" t="n">
-        <v>45820</v>
-      </c>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="W40" s="47" t="n"/>
+      <c r="X40" s="47" t="n"/>
       <c r="Y40" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="Z40" s="54">
-        <f>(1-Index!$F$2*2)*((W12*D12)-(E12*D12))</f>
-        <v/>
-      </c>
-      <c r="AA40" s="54">
-        <f>((E12*D12)+Z12)</f>
-        <v/>
-      </c>
-      <c r="AB40" s="55">
-        <f>D12</f>
-        <v/>
-      </c>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="Z40" s="47" t="n"/>
+      <c r="AA40" s="47" t="n"/>
+      <c r="AB40" s="48" t="n"/>
       <c r="AC40" s="44">
-        <f>if(B12="DIV", F12,"")</f>
-        <v/>
-      </c>
-      <c r="AD40" s="56" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B11="DIV", F11,"")</f>
+        <v/>
+      </c>
+      <c r="AD40" s="49" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="50" t="n">
@@ -2937,13 +2860,13 @@
         </is>
       </c>
       <c r="D41" s="52" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E41" s="53" t="n">
         <v>214.56</v>
       </c>
       <c r="F41" s="53" t="n">
-        <v>1501.94</v>
+        <v>4934.98</v>
       </c>
       <c r="G41" s="51" t="inlineStr">
         <is>
@@ -2951,61 +2874,61 @@
         </is>
       </c>
       <c r="H41" s="52" t="n">
-        <v>1.49</v>
+        <v>4.89</v>
       </c>
       <c r="I41" s="52" t="n">
-        <v>9.1</v>
+        <v>29.94</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L41" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M41" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N41" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O41" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P41" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R41" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S41" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T41" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U41" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V41" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W41" s="41" t="n">
@@ -3015,23 +2938,23 @@
         <v>45820</v>
       </c>
       <c r="Y41" s="46">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z41" s="54">
-        <f>(1-Index!$F$2*2)*((W13*D13)-(E13*D13))</f>
+        <f>(1-Index!$F$2*2)*((W12*D12)-(E12*D12))</f>
         <v/>
       </c>
       <c r="AA41" s="54">
-        <f>((E13*D13)+Z13)</f>
+        <f>((E12*D12)+Z12)</f>
         <v/>
       </c>
       <c r="AB41" s="55">
-        <f>D13</f>
+        <f>D12</f>
         <v/>
       </c>
       <c r="AC41" s="44">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD41" s="56" t="inlineStr">
@@ -3042,7 +2965,7 @@
     </row>
     <row r="42">
       <c r="A42" s="50" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B42" s="51" t="inlineStr">
         <is>
@@ -3055,13 +2978,13 @@
         </is>
       </c>
       <c r="D42" s="52" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E42" s="53" t="n">
-        <v>202.73</v>
+        <v>214.56</v>
       </c>
       <c r="F42" s="53" t="n">
-        <v>2635.5</v>
+        <v>1501.94</v>
       </c>
       <c r="G42" s="51" t="inlineStr">
         <is>
@@ -3069,61 +2992,61 @@
         </is>
       </c>
       <c r="H42" s="52" t="n">
-        <v>2.62</v>
+        <v>1.49</v>
       </c>
       <c r="I42" s="52" t="n">
-        <v>15.98</v>
+        <v>9.1</v>
       </c>
       <c r="J42" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L42" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M42" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N42" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O42" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P42" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R42" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S42" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T42" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U42" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V42" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W42" s="41" t="n">
@@ -3133,23 +3056,23 @@
         <v>45820</v>
       </c>
       <c r="Y42" s="46">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z42" s="54">
-        <f>(1-Index!$F$2*2)*((W14*D14)-(E14*D14))</f>
+        <f>(1-Index!$F$2*2)*((W13*D13)-(E13*D13))</f>
         <v/>
       </c>
       <c r="AA42" s="54">
-        <f>((E14*D14)+Z14)</f>
+        <f>((E13*D13)+Z13)</f>
         <v/>
       </c>
       <c r="AB42" s="55">
-        <f>D14</f>
+        <f>D13</f>
         <v/>
       </c>
       <c r="AC42" s="44">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD42" s="56" t="inlineStr">
@@ -3197,51 +3120,51 @@
         <v/>
       </c>
       <c r="K43" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L43" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M43" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N43" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O43" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P43" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R43" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S43" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T43" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U43" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V43" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W43" s="41" t="n">
@@ -3251,23 +3174,23 @@
         <v>45820</v>
       </c>
       <c r="Y43" s="46">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z43" s="54">
-        <f>(1-Index!$F$2*2)*((W15*D15)-(E15*D15))</f>
+        <f>(1-Index!$F$2*2)*((W14*D14)-(E14*D14))</f>
         <v/>
       </c>
       <c r="AA43" s="54">
-        <f>((E15*D15)+Z15)</f>
+        <f>((E14*D14)+Z14)</f>
         <v/>
       </c>
       <c r="AB43" s="55">
-        <f>D15</f>
+        <f>D14</f>
         <v/>
       </c>
       <c r="AC43" s="44">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD43" s="56" t="inlineStr">
@@ -3291,13 +3214,13 @@
         </is>
       </c>
       <c r="D44" s="52" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E44" s="53" t="n">
         <v>202.73</v>
       </c>
       <c r="F44" s="53" t="n">
-        <v>608.1799999999999</v>
+        <v>2635.5</v>
       </c>
       <c r="G44" s="51" t="inlineStr">
         <is>
@@ -3305,61 +3228,61 @@
         </is>
       </c>
       <c r="H44" s="52" t="n">
-        <v>0.6</v>
+        <v>2.62</v>
       </c>
       <c r="I44" s="52" t="n">
-        <v>3.68</v>
+        <v>15.98</v>
       </c>
       <c r="J44" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L44" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M44" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N44" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O44" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P44" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R44" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S44" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T44" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U44" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V44" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W44" s="41" t="n">
@@ -3369,23 +3292,23 @@
         <v>45820</v>
       </c>
       <c r="Y44" s="46">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z44" s="54">
-        <f>(1-Index!$F$2*2)*((W16*D16)-(E16*D16))</f>
+        <f>(1-Index!$F$2*2)*((W15*D15)-(E15*D15))</f>
         <v/>
       </c>
       <c r="AA44" s="54">
-        <f>((E16*D16)+Z16)</f>
+        <f>((E15*D15)+Z15)</f>
         <v/>
       </c>
       <c r="AB44" s="55">
-        <f>D16</f>
+        <f>D15</f>
         <v/>
       </c>
       <c r="AC44" s="44">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD44" s="56" t="inlineStr">
@@ -3433,51 +3356,51 @@
         <v/>
       </c>
       <c r="K45" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L45" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M45" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N45" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O45" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P45" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R45" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S45" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T45" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U45" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V45" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W45" s="41" t="n">
@@ -3487,23 +3410,23 @@
         <v>45820</v>
       </c>
       <c r="Y45" s="46">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z45" s="54">
-        <f>(1-Index!$F$2*2)*((W17*D17)-(E17*D17))</f>
+        <f>(1-Index!$F$2*2)*((W16*D16)-(E16*D16))</f>
         <v/>
       </c>
       <c r="AA45" s="54">
-        <f>((E17*D17)+Z17)</f>
+        <f>((E16*D16)+Z16)</f>
         <v/>
       </c>
       <c r="AB45" s="55">
-        <f>D17</f>
+        <f>D16</f>
         <v/>
       </c>
       <c r="AC45" s="44">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD45" s="56" t="inlineStr">
@@ -3527,13 +3450,13 @@
         </is>
       </c>
       <c r="D46" s="52" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E46" s="53" t="n">
         <v>202.73</v>
       </c>
       <c r="F46" s="53" t="n">
-        <v>2635.5</v>
+        <v>608.1799999999999</v>
       </c>
       <c r="G46" s="51" t="inlineStr">
         <is>
@@ -3541,61 +3464,61 @@
         </is>
       </c>
       <c r="H46" s="52" t="n">
-        <v>2.62</v>
+        <v>0.6</v>
       </c>
       <c r="I46" s="52" t="n">
-        <v>15.98</v>
+        <v>3.68</v>
       </c>
       <c r="J46" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L46" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M46" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N46" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O46" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P46" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R46" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S46" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T46" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U46" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V46" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W46" s="41" t="n">
@@ -3605,23 +3528,23 @@
         <v>45820</v>
       </c>
       <c r="Y46" s="46">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z46" s="54">
-        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
+        <f>(1-Index!$F$2*2)*((W17*D17)-(E17*D17))</f>
         <v/>
       </c>
       <c r="AA46" s="54">
-        <f>((E18*D18)+Z18)</f>
+        <f>((E17*D17)+Z17)</f>
         <v/>
       </c>
       <c r="AB46" s="55">
-        <f>D18</f>
+        <f>D17</f>
         <v/>
       </c>
       <c r="AC46" s="44">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD46" s="56" t="inlineStr">
@@ -3632,7 +3555,7 @@
     </row>
     <row r="47">
       <c r="A47" s="50" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B47" s="51" t="inlineStr">
         <is>
@@ -3645,13 +3568,13 @@
         </is>
       </c>
       <c r="D47" s="52" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E47" s="53" t="n">
-        <v>223.07</v>
+        <v>202.73</v>
       </c>
       <c r="F47" s="53" t="n">
-        <v>4461.44</v>
+        <v>2635.5</v>
       </c>
       <c r="G47" s="51" t="inlineStr">
         <is>
@@ -3659,61 +3582,61 @@
         </is>
       </c>
       <c r="H47" s="52" t="n">
-        <v>4.43</v>
+        <v>2.62</v>
       </c>
       <c r="I47" s="52" t="n">
-        <v>27.01</v>
+        <v>15.98</v>
       </c>
       <c r="J47" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L47" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M47" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N47" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O47" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P47" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R47" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S47" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T47" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U47" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V47" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W47" s="41" t="n">
@@ -3723,23 +3646,23 @@
         <v>45820</v>
       </c>
       <c r="Y47" s="46">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z47" s="54">
-        <f>(1-Index!$F$2*2)*((W19*D19)-(E19*D19))</f>
+        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
         <v/>
       </c>
       <c r="AA47" s="54">
-        <f>((E19*D19)+Z19)</f>
+        <f>((E18*D18)+Z18)</f>
         <v/>
       </c>
       <c r="AB47" s="55">
-        <f>D19</f>
+        <f>D18</f>
         <v/>
       </c>
       <c r="AC47" s="44">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD47" s="56" t="inlineStr">
@@ -3750,7 +3673,7 @@
     </row>
     <row r="48">
       <c r="A48" s="50" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B48" s="51" t="inlineStr">
         <is>
@@ -3763,13 +3686,13 @@
         </is>
       </c>
       <c r="D48" s="52" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E48" s="53" t="n">
-        <v>237.07</v>
+        <v>223.07</v>
       </c>
       <c r="F48" s="53" t="n">
-        <v>1185.36</v>
+        <v>4461.44</v>
       </c>
       <c r="G48" s="51" t="inlineStr">
         <is>
@@ -3777,61 +3700,61 @@
         </is>
       </c>
       <c r="H48" s="52" t="n">
-        <v>1.18</v>
+        <v>4.43</v>
       </c>
       <c r="I48" s="52" t="n">
-        <v>7.18</v>
+        <v>27.01</v>
       </c>
       <c r="J48" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L48" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M48" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N48" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O48" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P48" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R48" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S48" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T48" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U48" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V48" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W48" s="41" t="n">
@@ -3841,23 +3764,23 @@
         <v>45820</v>
       </c>
       <c r="Y48" s="46">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z48" s="54">
-        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
+        <f>(1-Index!$F$2*2)*((W19*D19)-(E19*D19))</f>
         <v/>
       </c>
       <c r="AA48" s="54">
-        <f>((E20*D20)+Z20)</f>
+        <f>((E19*D19)+Z19)</f>
         <v/>
       </c>
       <c r="AB48" s="55">
-        <f>D20</f>
+        <f>D19</f>
         <v/>
       </c>
       <c r="AC48" s="44">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD48" s="56" t="inlineStr">
@@ -3868,7 +3791,7 @@
     </row>
     <row r="49">
       <c r="A49" s="50" t="n">
-        <v>45316</v>
+        <v>45694</v>
       </c>
       <c r="B49" s="51" t="inlineStr">
         <is>
@@ -3877,17 +3800,17 @@
       </c>
       <c r="C49" s="51" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D49" s="52" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E49" s="53" t="n">
-        <v>640.52</v>
+        <v>237.07</v>
       </c>
       <c r="F49" s="53" t="n">
-        <v>32025.84</v>
+        <v>1185.36</v>
       </c>
       <c r="G49" s="51" t="inlineStr">
         <is>
@@ -3895,190 +3818,203 @@
         </is>
       </c>
       <c r="H49" s="52" t="n">
-        <v>32.26</v>
+        <v>1.18</v>
       </c>
       <c r="I49" s="52" t="n">
-        <v>191.9</v>
+        <v>7.18</v>
       </c>
       <c r="J49" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L49" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M49" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N49" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O49" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P49" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R49" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S49" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T49" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U49" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V49" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
-        <v/>
-      </c>
-      <c r="W49" s="47" t="n"/>
-      <c r="X49" s="47" t="n"/>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <v/>
+      </c>
+      <c r="W49" s="41" t="n">
+        <v>301.79</v>
+      </c>
+      <c r="X49" s="38" t="n">
+        <v>45820</v>
+      </c>
       <c r="Y49" s="46">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
-        <v/>
-      </c>
-      <c r="Z49" s="47" t="n"/>
-      <c r="AA49" s="47" t="n"/>
-      <c r="AB49" s="48" t="n"/>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <v/>
+      </c>
+      <c r="Z49" s="54">
+        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
+        <v/>
+      </c>
+      <c r="AA49" s="54">
+        <f>((E20*D20)+Z20)</f>
+        <v/>
+      </c>
+      <c r="AB49" s="55">
+        <f>D20</f>
+        <v/>
+      </c>
       <c r="AC49" s="44">
-        <f>if(B21="DIV", F21,"")</f>
-        <v/>
-      </c>
-      <c r="AD49" s="49" t="n"/>
+        <f>if(B20="DIV", F20,"")</f>
+        <v/>
+      </c>
+      <c r="AD49" s="56" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="57" t="n">
-        <v>45238</v>
-      </c>
-      <c r="B50" s="58" t="inlineStr">
+      <c r="A50" s="50" t="n">
+        <v>45316</v>
+      </c>
+      <c r="B50" s="51" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
-      <c r="C50" s="58" t="inlineStr">
+      <c r="C50" s="51" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
-      <c r="D50" s="60" t="n">
+      <c r="D50" s="52" t="n">
         <v>50</v>
       </c>
-      <c r="E50" s="42" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F50" s="42" t="n">
-        <v>225</v>
-      </c>
-      <c r="G50" s="60" t="inlineStr">
+      <c r="E50" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="F50" s="53" t="n">
+        <v>32025.84</v>
+      </c>
+      <c r="G50" s="51" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.4.5000/- per share on Ex-Date: 08-NOV-2023</t>
+          <t>~</t>
         </is>
       </c>
-      <c r="H50" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" s="60" t="n">
-        <v>0</v>
+      <c r="H50" s="52" t="n">
+        <v>32.26</v>
+      </c>
+      <c r="I50" s="52" t="n">
+        <v>191.9</v>
       </c>
       <c r="J50" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L50" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M50" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N50" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O50" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P50" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R50" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S50" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T50" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U50" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V50" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W50" s="47" t="n"/>
       <c r="X50" s="47" t="n"/>
       <c r="Y50" s="46">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z50" s="47" t="n"/>
       <c r="AA50" s="47" t="n"/>
       <c r="AB50" s="48" t="n"/>
       <c r="AC50" s="44">
-        <f>if(B22="DIV", F22,"")</f>
-        <v/>
-      </c>
-      <c r="AD50" s="56" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B21="DIV", F21,"")</f>
+        <v/>
+      </c>
+      <c r="AD50" s="49" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="57" t="n">
-        <v>45225</v>
+        <v>45238</v>
       </c>
       <c r="B51" s="58" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C51" s="58" t="inlineStr">
@@ -4087,92 +4023,88 @@
         </is>
       </c>
       <c r="D51" s="60" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E51" s="42" t="n">
-        <v>434.402</v>
+        <v>4.5</v>
       </c>
       <c r="F51" s="42" t="n">
-        <v>2187.44</v>
+        <v>225</v>
       </c>
       <c r="G51" s="60" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.4.5000/- per share on Ex-Date: 08-NOV-2023</t>
         </is>
       </c>
       <c r="H51" s="60" t="n">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="I51" s="60" t="n">
-        <v>13.25</v>
+        <v>0</v>
       </c>
       <c r="J51" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K51" s="47" t="n"/>
-      <c r="L51" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
-        <v/>
-      </c>
-      <c r="M51" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
-        <v/>
-      </c>
-      <c r="N51" s="62">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
-        <v/>
-      </c>
-      <c r="O51" s="61" t="n"/>
-      <c r="P51" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
-        <v/>
-      </c>
-      <c r="Q51" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
-        <v/>
-      </c>
-      <c r="R51" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
-        <v/>
-      </c>
-      <c r="S51" s="61" t="n"/>
-      <c r="T51" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (J23*D23)-(E23*D23)-(2*sum(H23:I23)), "")</f>
-        <v/>
-      </c>
-      <c r="U51" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
-        <v/>
-      </c>
-      <c r="V51" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
-        <v/>
-      </c>
-      <c r="W51" s="53" t="n">
-        <v>640.52</v>
-      </c>
-      <c r="X51" s="50" t="n">
-        <v>45316</v>
-      </c>
+      <c r="K51" s="43">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="L51" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="M51" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <v/>
+      </c>
+      <c r="N51" s="45">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <v/>
+      </c>
+      <c r="O51" s="43">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="P51" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="Q51" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <v/>
+      </c>
+      <c r="R51" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="S51" s="46">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="T51" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="U51" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <v/>
+      </c>
+      <c r="V51" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="W51" s="47" t="n"/>
+      <c r="X51" s="47" t="n"/>
       <c r="Y51" s="46">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
-        <v/>
-      </c>
-      <c r="Z51" s="54">
-        <f>(1-Index!$F$2*2)*((W23*D23)-(E23*D23))</f>
-        <v/>
-      </c>
-      <c r="AA51" s="54">
-        <f>((E23*D23)+Z23)</f>
-        <v/>
-      </c>
-      <c r="AB51" s="55">
-        <f>D23</f>
-        <v/>
-      </c>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="Z51" s="47" t="n"/>
+      <c r="AA51" s="47" t="n"/>
+      <c r="AB51" s="48" t="n"/>
       <c r="AC51" s="44">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD51" s="56" t="inlineStr">
@@ -4183,7 +4115,7 @@
     </row>
     <row r="52">
       <c r="A52" s="57" t="n">
-        <v>45191</v>
+        <v>45225</v>
       </c>
       <c r="B52" s="58" t="inlineStr">
         <is>
@@ -4196,13 +4128,13 @@
         </is>
       </c>
       <c r="D52" s="60" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E52" s="42" t="n">
-        <v>485.448</v>
+        <v>434.402</v>
       </c>
       <c r="F52" s="42" t="n">
-        <v>4889.12</v>
+        <v>2187.44</v>
       </c>
       <c r="G52" s="60" t="inlineStr">
         <is>
@@ -4210,10 +4142,10 @@
         </is>
       </c>
       <c r="H52" s="60" t="n">
-        <v>4.94</v>
+        <v>2.19</v>
       </c>
       <c r="I52" s="60" t="n">
-        <v>29.68</v>
+        <v>13.25</v>
       </c>
       <c r="J52" s="42">
         <f>Index!$C$2</f>
@@ -4221,41 +4153,41 @@
       </c>
       <c r="K52" s="47" t="n"/>
       <c r="L52" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M52" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N52" s="62">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O52" s="61" t="n"/>
       <c r="P52" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R52" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S52" s="61" t="n"/>
       <c r="T52" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (J24*D24)-(E24*D24)-(2*sum(H24:I24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (J23*D23)-(E23*D23)-(2*sum(H23:I23)), "")</f>
         <v/>
       </c>
       <c r="U52" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V52" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W52" s="53" t="n">
@@ -4265,23 +4197,23 @@
         <v>45316</v>
       </c>
       <c r="Y52" s="46">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z52" s="54">
-        <f>(1-Index!$F$2*2)*((W24*D24)-(E24*D24))</f>
+        <f>(1-Index!$F$2*2)*((W23*D23)-(E23*D23))</f>
         <v/>
       </c>
       <c r="AA52" s="54">
-        <f>((E24*D24)+Z24)</f>
+        <f>((E23*D23)+Z23)</f>
         <v/>
       </c>
       <c r="AB52" s="55">
-        <f>D24</f>
+        <f>D23</f>
         <v/>
       </c>
       <c r="AC52" s="44">
-        <f>if(B24="DIV", F24,"")</f>
+        <f>if(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD52" s="56" t="inlineStr">
@@ -4292,7 +4224,7 @@
     </row>
     <row r="53">
       <c r="A53" s="57" t="n">
-        <v>45181</v>
+        <v>45191</v>
       </c>
       <c r="B53" s="58" t="inlineStr">
         <is>
@@ -4305,13 +4237,13 @@
         </is>
       </c>
       <c r="D53" s="60" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E53" s="42" t="n">
-        <v>528.498</v>
+        <v>485.448</v>
       </c>
       <c r="F53" s="42" t="n">
-        <v>2661.21</v>
+        <v>4889.12</v>
       </c>
       <c r="G53" s="60" t="inlineStr">
         <is>
@@ -4319,10 +4251,10 @@
         </is>
       </c>
       <c r="H53" s="60" t="n">
-        <v>2.64</v>
+        <v>4.94</v>
       </c>
       <c r="I53" s="60" t="n">
-        <v>16.07</v>
+        <v>29.68</v>
       </c>
       <c r="J53" s="42">
         <f>Index!$C$2</f>
@@ -4330,41 +4262,41 @@
       </c>
       <c r="K53" s="47" t="n"/>
       <c r="L53" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M53" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N53" s="62">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O53" s="61" t="n"/>
       <c r="P53" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R53" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S53" s="61" t="n"/>
       <c r="T53" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (J25*D25)-(E25*D25)-(2*sum(H25:I25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (J24*D24)-(E24*D24)-(2*sum(H24:I24)), "")</f>
         <v/>
       </c>
       <c r="U53" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V53" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W53" s="53" t="n">
@@ -4374,23 +4306,23 @@
         <v>45316</v>
       </c>
       <c r="Y53" s="46">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z53" s="54">
-        <f>(1-Index!$F$2*2)*((W25*D25)-(E25*D25))</f>
+        <f>(1-Index!$F$2*2)*((W24*D24)-(E24*D24))</f>
         <v/>
       </c>
       <c r="AA53" s="54">
-        <f>((E25*D25)+Z25)</f>
+        <f>((E24*D24)+Z24)</f>
         <v/>
       </c>
       <c r="AB53" s="55">
-        <f>D25</f>
+        <f>D24</f>
         <v/>
       </c>
       <c r="AC53" s="44">
-        <f>if(B25="DIV", F25,"")</f>
+        <f>if(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD53" s="56" t="inlineStr">
@@ -4401,11 +4333,11 @@
     </row>
     <row r="54">
       <c r="A54" s="57" t="n">
-        <v>45177</v>
+        <v>45181</v>
       </c>
       <c r="B54" s="58" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C54" s="58" t="inlineStr">
@@ -4414,24 +4346,24 @@
         </is>
       </c>
       <c r="D54" s="60" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E54" s="42" t="n">
-        <v>6</v>
+        <v>528.498</v>
       </c>
       <c r="F54" s="42" t="n">
-        <v>180</v>
+        <v>2661.21</v>
       </c>
       <c r="G54" s="60" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.6.0000/- per share on Ex-Date: 08-SEP-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H54" s="60" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="I54" s="60" t="n">
-        <v>0</v>
+        <v>16.07</v>
       </c>
       <c r="J54" s="42">
         <f>Index!$C$2</f>
@@ -4439,54 +4371,67 @@
       </c>
       <c r="K54" s="47" t="n"/>
       <c r="L54" s="47">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M54" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N54" s="62">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O54" s="61" t="n"/>
       <c r="P54" s="47">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R54" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S54" s="61" t="n"/>
       <c r="T54" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*sum(H26:I26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (J25*D25)-(E25*D25)-(2*sum(H25:I25)), "")</f>
         <v/>
       </c>
       <c r="U54" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V54" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
-        <v/>
-      </c>
-      <c r="W54" s="47" t="n"/>
-      <c r="X54" s="47" t="n"/>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="W54" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="X54" s="50" t="n">
+        <v>45316</v>
+      </c>
       <c r="Y54" s="46">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
-        <v/>
-      </c>
-      <c r="Z54" s="47" t="n"/>
-      <c r="AA54" s="47" t="n"/>
-      <c r="AB54" s="48" t="n"/>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="Z54" s="54">
+        <f>(1-Index!$F$2*2)*((W25*D25)-(E25*D25))</f>
+        <v/>
+      </c>
+      <c r="AA54" s="54">
+        <f>((E25*D25)+Z25)</f>
+        <v/>
+      </c>
+      <c r="AB54" s="55">
+        <f>D25</f>
+        <v/>
+      </c>
       <c r="AC54" s="44">
-        <f>if(B26="DIV", F26,"")</f>
+        <f>if(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD54" s="56" t="inlineStr">
@@ -4497,11 +4442,11 @@
     </row>
     <row r="55">
       <c r="A55" s="57" t="n">
-        <v>45162</v>
+        <v>45177</v>
       </c>
       <c r="B55" s="58" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C55" s="58" t="inlineStr">
@@ -4510,24 +4455,24 @@
         </is>
       </c>
       <c r="D55" s="60" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E55" s="42" t="n">
-        <v>474.2</v>
+        <v>6</v>
       </c>
       <c r="F55" s="42" t="n">
-        <v>477.55</v>
+        <v>180</v>
       </c>
       <c r="G55" s="60" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.6.0000/- per share on Ex-Date: 08-SEP-2023</t>
         </is>
       </c>
       <c r="H55" s="60" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="I55" s="60" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="J55" s="42">
         <f>Index!$C$2</f>
@@ -4535,67 +4480,54 @@
       </c>
       <c r="K55" s="47" t="n"/>
       <c r="L55" s="47">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M55" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N55" s="62">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O55" s="61" t="n"/>
       <c r="P55" s="47">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R55" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S55" s="61" t="n"/>
       <c r="T55" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*sum(H27:I27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*sum(H26:I26)), "")</f>
         <v/>
       </c>
       <c r="U55" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V55" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
-        <v/>
-      </c>
-      <c r="W55" s="53" t="n">
-        <v>640.52</v>
-      </c>
-      <c r="X55" s="50" t="n">
-        <v>45316</v>
-      </c>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
+        <v/>
+      </c>
+      <c r="W55" s="47" t="n"/>
+      <c r="X55" s="47" t="n"/>
       <c r="Y55" s="46">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
-        <v/>
-      </c>
-      <c r="Z55" s="54">
-        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
-        <v/>
-      </c>
-      <c r="AA55" s="54">
-        <f>((E27*D27)+Z27)</f>
-        <v/>
-      </c>
-      <c r="AB55" s="55">
-        <f>D27</f>
-        <v/>
-      </c>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
+        <v/>
+      </c>
+      <c r="Z55" s="47" t="n"/>
+      <c r="AA55" s="47" t="n"/>
+      <c r="AB55" s="48" t="n"/>
       <c r="AC55" s="44">
-        <f>if(B27="DIV", F27,"")</f>
+        <f>if(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD55" s="56" t="inlineStr">
@@ -4619,13 +4551,13 @@
         </is>
       </c>
       <c r="D56" s="60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E56" s="42" t="n">
-        <v>474</v>
+        <v>474.2</v>
       </c>
       <c r="F56" s="42" t="n">
-        <v>1909.44</v>
+        <v>477.55</v>
       </c>
       <c r="G56" s="60" t="inlineStr">
         <is>
@@ -4633,10 +4565,10 @@
         </is>
       </c>
       <c r="H56" s="60" t="n">
-        <v>1.88</v>
+        <v>0.47</v>
       </c>
       <c r="I56" s="60" t="n">
-        <v>11.56</v>
+        <v>2.88</v>
       </c>
       <c r="J56" s="42">
         <f>Index!$C$2</f>
@@ -4644,41 +4576,41 @@
       </c>
       <c r="K56" s="47" t="n"/>
       <c r="L56" s="47">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M56" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N56" s="62">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O56" s="61" t="n"/>
       <c r="P56" s="47">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q56" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R56" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S56" s="61" t="n"/>
       <c r="T56" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*sum(H28:I28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*sum(H27:I27)), "")</f>
         <v/>
       </c>
       <c r="U56" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V56" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W56" s="53" t="n">
@@ -4688,23 +4620,23 @@
         <v>45316</v>
       </c>
       <c r="Y56" s="46">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="Z56" s="54">
-        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
+        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
         <v/>
       </c>
       <c r="AA56" s="54">
-        <f>((E28*D28)+Z28)</f>
+        <f>((E27*D27)+Z27)</f>
         <v/>
       </c>
       <c r="AB56" s="55">
-        <f>D28</f>
+        <f>D27</f>
         <v/>
       </c>
       <c r="AC56" s="44">
-        <f>if(B28="DIV", F28,"")</f>
+        <f>if(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD56" s="56" t="inlineStr">
@@ -4715,11 +4647,11 @@
     </row>
     <row r="57">
       <c r="A57" s="57" t="n">
-        <v>45145</v>
+        <v>45162</v>
       </c>
       <c r="B57" s="58" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C57" s="58" t="inlineStr">
@@ -4728,24 +4660,24 @@
         </is>
       </c>
       <c r="D57" s="60" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E57" s="42" t="n">
-        <v>3.75</v>
+        <v>474</v>
       </c>
       <c r="F57" s="42" t="n">
-        <v>93.75</v>
+        <v>1909.44</v>
       </c>
       <c r="G57" s="60" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.3.7500/- per share on Ex-Date: 07-AUG-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H57" s="60" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="I57" s="60" t="n">
-        <v>0</v>
+        <v>11.56</v>
       </c>
       <c r="J57" s="42">
         <f>Index!$C$2</f>
@@ -4753,54 +4685,67 @@
       </c>
       <c r="K57" s="47" t="n"/>
       <c r="L57" s="47">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M57" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N57" s="62">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O57" s="61" t="n"/>
       <c r="P57" s="47">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q57" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R57" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S57" s="61" t="n"/>
       <c r="T57" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*sum(H29:I29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*sum(H28:I28)), "")</f>
         <v/>
       </c>
       <c r="U57" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V57" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
-        <v/>
-      </c>
-      <c r="W57" s="47" t="n"/>
-      <c r="X57" s="47" t="n"/>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <v/>
+      </c>
+      <c r="W57" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="X57" s="50" t="n">
+        <v>45316</v>
+      </c>
       <c r="Y57" s="46">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
-        <v/>
-      </c>
-      <c r="Z57" s="47" t="n"/>
-      <c r="AA57" s="47" t="n"/>
-      <c r="AB57" s="48" t="n"/>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
+        <v/>
+      </c>
+      <c r="Z57" s="54">
+        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
+        <v/>
+      </c>
+      <c r="AA57" s="54">
+        <f>((E28*D28)+Z28)</f>
+        <v/>
+      </c>
+      <c r="AB57" s="55">
+        <f>D28</f>
+        <v/>
+      </c>
       <c r="AC57" s="44">
-        <f>if(B29="DIV", F29,"")</f>
+        <f>if(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD57" s="56" t="inlineStr">
@@ -4811,11 +4756,11 @@
     </row>
     <row r="58">
       <c r="A58" s="57" t="n">
-        <v>45034</v>
+        <v>45145</v>
       </c>
       <c r="B58" s="58" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C58" s="58" t="inlineStr">
@@ -4824,24 +4769,24 @@
         </is>
       </c>
       <c r="D58" s="60" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E58" s="42" t="n">
-        <v>347.95</v>
+        <v>3.75</v>
       </c>
       <c r="F58" s="42" t="n">
-        <v>1752.1</v>
+        <v>93.75</v>
       </c>
       <c r="G58" s="60" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.3.7500/- per share on Ex-Date: 07-AUG-2023</t>
         </is>
       </c>
       <c r="H58" s="60" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="I58" s="60" t="n">
-        <v>10.61</v>
+        <v>0</v>
       </c>
       <c r="J58" s="42">
         <f>Index!$C$2</f>
@@ -4849,67 +4794,54 @@
       </c>
       <c r="K58" s="47" t="n"/>
       <c r="L58" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M58" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N58" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O58" s="61" t="n"/>
       <c r="P58" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q58" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R58" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S58" s="61" t="n"/>
       <c r="T58" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*sum(H29:I29)), "")</f>
         <v/>
       </c>
       <c r="U58" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V58" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
-        <v/>
-      </c>
-      <c r="W58" s="53" t="n">
-        <v>640.52</v>
-      </c>
-      <c r="X58" s="50" t="n">
-        <v>45316</v>
-      </c>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <v/>
+      </c>
+      <c r="W58" s="47" t="n"/>
+      <c r="X58" s="47" t="n"/>
       <c r="Y58" s="46">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
-        <v/>
-      </c>
-      <c r="Z58" s="54">
-        <f>(1-Index!$F$2*2)*((W30*D30)-(E30*D30))</f>
-        <v/>
-      </c>
-      <c r="AA58" s="54">
-        <f>((E30*D30)+Z30)</f>
-        <v/>
-      </c>
-      <c r="AB58" s="55">
-        <f>D30</f>
-        <v/>
-      </c>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <v/>
+      </c>
+      <c r="Z58" s="47" t="n"/>
+      <c r="AA58" s="47" t="n"/>
+      <c r="AB58" s="48" t="n"/>
       <c r="AC58" s="44">
-        <f>if(B30="DIV", F30,"")</f>
+        <f>if(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD58" s="56" t="inlineStr">
@@ -4920,7 +4852,7 @@
     </row>
     <row r="59">
       <c r="A59" s="57" t="n">
-        <v>44981</v>
+        <v>45034</v>
       </c>
       <c r="B59" s="58" t="inlineStr">
         <is>
@@ -4933,13 +4865,13 @@
         </is>
       </c>
       <c r="D59" s="60" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E59" s="42" t="n">
-        <v>333.751</v>
+        <v>347.95</v>
       </c>
       <c r="F59" s="42" t="n">
-        <v>3361.19</v>
+        <v>1752.1</v>
       </c>
       <c r="G59" s="60" t="inlineStr">
         <is>
@@ -4947,10 +4879,10 @@
         </is>
       </c>
       <c r="H59" s="60" t="n">
-        <v>3.34</v>
+        <v>1.74</v>
       </c>
       <c r="I59" s="60" t="n">
-        <v>20.35</v>
+        <v>10.61</v>
       </c>
       <c r="J59" s="42">
         <f>Index!$C$2</f>
@@ -4958,41 +4890,41 @@
       </c>
       <c r="K59" s="47" t="n"/>
       <c r="L59" s="47">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M59" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N59" s="62">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O59" s="61" t="n"/>
       <c r="P59" s="47">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q59" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R59" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S59" s="61" t="n"/>
       <c r="T59" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*sum(H31:I31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
         <v/>
       </c>
       <c r="U59" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V59" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="W59" s="53" t="n">
@@ -5002,23 +4934,23 @@
         <v>45316</v>
       </c>
       <c r="Y59" s="46">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
         <v/>
       </c>
       <c r="Z59" s="54">
-        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
+        <f>(1-Index!$F$2*2)*((W30*D30)-(E30*D30))</f>
         <v/>
       </c>
       <c r="AA59" s="54">
-        <f>((E31*D31)+Z31)</f>
+        <f>((E30*D30)+Z30)</f>
         <v/>
       </c>
       <c r="AB59" s="55">
-        <f>D31</f>
+        <f>D30</f>
         <v/>
       </c>
       <c r="AC59" s="44">
-        <f>if(B31="DIV", F31,"")</f>
+        <f>if(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD59" s="56" t="inlineStr">
@@ -5029,11 +4961,11 @@
     </row>
     <row r="60">
       <c r="A60" s="57" t="n">
-        <v>44974</v>
+        <v>44981</v>
       </c>
       <c r="B60" s="58" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C60" s="58" t="inlineStr">
@@ -5045,21 +4977,21 @@
         <v>10</v>
       </c>
       <c r="E60" s="42" t="n">
-        <v>6</v>
+        <v>333.751</v>
       </c>
       <c r="F60" s="42" t="n">
-        <v>60</v>
+        <v>3361.19</v>
       </c>
       <c r="G60" s="60" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.6.0000/- per share on Ex-Date: 17-FEB-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H60" s="60" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="I60" s="60" t="n">
-        <v>0</v>
+        <v>20.35</v>
       </c>
       <c r="J60" s="42">
         <f>Index!$C$2</f>
@@ -5067,54 +4999,67 @@
       </c>
       <c r="K60" s="47" t="n"/>
       <c r="L60" s="47">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M60" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N60" s="62">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O60" s="61" t="n"/>
       <c r="P60" s="47">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q60" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R60" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S60" s="61" t="n"/>
       <c r="T60" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*sum(H32:I32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*sum(H31:I31)), "")</f>
         <v/>
       </c>
       <c r="U60" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V60" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
-        <v/>
-      </c>
-      <c r="W60" s="47" t="n"/>
-      <c r="X60" s="47" t="n"/>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <v/>
+      </c>
+      <c r="W60" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="X60" s="50" t="n">
+        <v>45316</v>
+      </c>
       <c r="Y60" s="46">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
-        <v/>
-      </c>
-      <c r="Z60" s="47" t="n"/>
-      <c r="AA60" s="47" t="n"/>
-      <c r="AB60" s="48" t="n"/>
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
+        <v/>
+      </c>
+      <c r="Z60" s="54">
+        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
+        <v/>
+      </c>
+      <c r="AA60" s="54">
+        <f>((E31*D31)+Z31)</f>
+        <v/>
+      </c>
+      <c r="AB60" s="55">
+        <f>D31</f>
+        <v/>
+      </c>
       <c r="AC60" s="44">
-        <f>if(B32="DIV", F32,"")</f>
+        <f>if(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD60" s="56" t="inlineStr">
@@ -5125,11 +5070,11 @@
     </row>
     <row r="61">
       <c r="A61" s="57" t="n">
-        <v>44953</v>
+        <v>44974</v>
       </c>
       <c r="B61" s="58" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C61" s="58" t="inlineStr">
@@ -5141,21 +5086,21 @@
         <v>10</v>
       </c>
       <c r="E61" s="42" t="n">
-        <v>332.597</v>
+        <v>6</v>
       </c>
       <c r="F61" s="42" t="n">
-        <v>3349.53</v>
+        <v>60</v>
       </c>
       <c r="G61" s="60" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.6.0000/- per share on Ex-Date: 17-FEB-2023</t>
         </is>
       </c>
       <c r="H61" s="60" t="n">
-        <v>3.29</v>
+        <v>0</v>
       </c>
       <c r="I61" s="60" t="n">
-        <v>20.24</v>
+        <v>0</v>
       </c>
       <c r="J61" s="42">
         <f>Index!$C$2</f>
@@ -5163,67 +5108,54 @@
       </c>
       <c r="K61" s="47" t="n"/>
       <c r="L61" s="47">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M61" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N61" s="62">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O61" s="61" t="n"/>
       <c r="P61" s="47">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q61" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R61" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S61" s="61" t="n"/>
       <c r="T61" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*sum(H33:I33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*sum(H32:I32)), "")</f>
         <v/>
       </c>
       <c r="U61" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V61" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
-        <v/>
-      </c>
-      <c r="W61" s="53" t="n">
-        <v>640.52</v>
-      </c>
-      <c r="X61" s="50" t="n">
-        <v>45316</v>
-      </c>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <v/>
+      </c>
+      <c r="W61" s="47" t="n"/>
+      <c r="X61" s="47" t="n"/>
       <c r="Y61" s="46">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
-        <v/>
-      </c>
-      <c r="Z61" s="54">
-        <f>(1-Index!$F$2*2)*((W33*D33)-(E33*D33))</f>
-        <v/>
-      </c>
-      <c r="AA61" s="54">
-        <f>((E33*D33)+Z33)</f>
-        <v/>
-      </c>
-      <c r="AB61" s="55">
-        <f>D33</f>
-        <v/>
-      </c>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
+        <v/>
+      </c>
+      <c r="Z61" s="47" t="n"/>
+      <c r="AA61" s="47" t="n"/>
+      <c r="AB61" s="48" t="n"/>
       <c r="AC61" s="44">
-        <f>if(B33="DIV", F33,"")</f>
+        <f>if(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD61" s="56" t="inlineStr">
@@ -5233,20 +5165,113 @@
       </c>
     </row>
     <row r="62">
-      <c r="E62" s="63" t="n"/>
-      <c r="F62" s="63" t="n"/>
-      <c r="G62" s="64" t="n"/>
-      <c r="J62" s="63" t="n"/>
-      <c r="K62" s="63" t="n"/>
-      <c r="L62" s="63" t="n"/>
-      <c r="M62" s="66" t="n"/>
-      <c r="W62" s="63" t="n"/>
-      <c r="X62" s="63" t="n"/>
-      <c r="Y62" s="63" t="n"/>
-      <c r="Z62" s="63" t="n"/>
-      <c r="AA62" s="63" t="n"/>
-      <c r="AB62" s="63" t="n"/>
-      <c r="AC62" s="63" t="n"/>
+      <c r="A62" s="57" t="n">
+        <v>44953</v>
+      </c>
+      <c r="B62" s="58" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C62" s="58" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D62" s="60" t="n">
+        <v>10</v>
+      </c>
+      <c r="E62" s="42" t="n">
+        <v>332.597</v>
+      </c>
+      <c r="F62" s="42" t="n">
+        <v>3349.53</v>
+      </c>
+      <c r="G62" s="60" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H62" s="60" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="I62" s="60" t="n">
+        <v>20.24</v>
+      </c>
+      <c r="J62" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K62" s="47" t="n"/>
+      <c r="L62" s="47">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <v/>
+      </c>
+      <c r="M62" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <v/>
+      </c>
+      <c r="N62" s="62">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <v/>
+      </c>
+      <c r="O62" s="61" t="n"/>
+      <c r="P62" s="47">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <v/>
+      </c>
+      <c r="Q62" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <v/>
+      </c>
+      <c r="R62" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <v/>
+      </c>
+      <c r="S62" s="61" t="n"/>
+      <c r="T62" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*sum(H33:I33)), "")</f>
+        <v/>
+      </c>
+      <c r="U62" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <v/>
+      </c>
+      <c r="V62" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <v/>
+      </c>
+      <c r="W62" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="X62" s="50" t="n">
+        <v>45316</v>
+      </c>
+      <c r="Y62" s="46">
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
+        <v/>
+      </c>
+      <c r="Z62" s="54">
+        <f>(1-Index!$F$2*2)*((W33*D33)-(E33*D33))</f>
+        <v/>
+      </c>
+      <c r="AA62" s="54">
+        <f>((E33*D33)+Z33)</f>
+        <v/>
+      </c>
+      <c r="AB62" s="55">
+        <f>D33</f>
+        <v/>
+      </c>
+      <c r="AC62" s="44">
+        <f>if(B33="DIV", F33,"")</f>
+        <v/>
+      </c>
+      <c r="AD62" s="56" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="E63" s="63" t="n"/>
@@ -20871,6 +20896,7 @@
       <c r="J1039" s="63" t="n"/>
       <c r="K1039" s="63" t="n"/>
       <c r="L1039" s="63" t="n"/>
+      <c r="M1039" s="66" t="n"/>
       <c r="W1039" s="63" t="n"/>
       <c r="X1039" s="63" t="n"/>
       <c r="Y1039" s="63" t="n"/>
@@ -21118,6 +21144,21 @@
       <c r="AA1055" s="63" t="n"/>
       <c r="AB1055" s="63" t="n"/>
       <c r="AC1055" s="63" t="n"/>
+    </row>
+    <row r="1056">
+      <c r="E1056" s="63" t="n"/>
+      <c r="F1056" s="63" t="n"/>
+      <c r="G1056" s="64" t="n"/>
+      <c r="J1056" s="63" t="n"/>
+      <c r="K1056" s="63" t="n"/>
+      <c r="L1056" s="63" t="n"/>
+      <c r="W1056" s="63" t="n"/>
+      <c r="X1056" s="63" t="n"/>
+      <c r="Y1056" s="63" t="n"/>
+      <c r="Z1056" s="63" t="n"/>
+      <c r="AA1056" s="63" t="n"/>
+      <c r="AB1056" s="63" t="n"/>
+      <c r="AC1056" s="63" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$104"/>

--- a/dumps/Stocks/Rites Ltd.xlsx
+++ b/dumps/Stocks/Rites Ltd.xlsx
@@ -787,7 +787,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1056"/>
+  <dimension ref="A1:AP1057"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="5">
       <c r="A5" s="99" t="n">
-        <v>46062</v>
+        <v>45957</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1151,24 +1151,21 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>227.09</v>
+        <v>245.88</v>
       </c>
       <c r="F5" t="n">
-        <v>4574.07</v>
+        <v>2471.1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>4.54</v>
-      </c>
       <c r="I5" t="n">
-        <v>27.73</v>
+        <v>12.3</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1176,8 +1173,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="98" t="n">
-        <v>46057</v>
+      <c r="A6" s="99" t="n">
+        <v>46062</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1190,29 +1187,33 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>223.75</v>
+        <v>227.09</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2253.41</v>
+        <v>4574.07</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>2.25</v>
+        <v>4.54</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>13.66</v>
+        <v>27.73</v>
+      </c>
+      <c r="J6" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="98" t="n">
-        <v>46049</v>
+        <v>46057</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1228,10 +1229,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>218.46</v>
+        <v>223.75</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2200.07</v>
+        <v>2253.41</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
@@ -1239,19 +1240,19 @@
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>13.29</v>
+        <v>13.66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="98" t="n">
-        <v>46015</v>
+        <v>46049</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
@@ -1263,10 +1264,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>243.55</v>
+        <v>218.46</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2452.82</v>
+        <v>2200.07</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1274,19 +1275,19 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>2.43</v>
+        <v>2.18</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>14.89</v>
+        <v>13.29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="98" t="n">
-        <v>46008</v>
+        <v>46015</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -1298,10 +1299,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>224.2</v>
+        <v>243.55</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2257.89</v>
+        <v>2452.82</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1309,19 +1310,19 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>2.25</v>
+        <v>2.43</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>13.64</v>
+        <v>14.89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="98" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1333,10 +1334,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>226.9</v>
+        <v>224.2</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2285.06</v>
+        <v>2257.89</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1344,19 +1345,19 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>13.8</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="98" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1368,10 +1369,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>224.95</v>
+        <v>226.9</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2265.39</v>
+        <v>2285.06</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1382,7 +1383,7 @@
         <v>2.26</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>13.63</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="12">
@@ -1391,7 +1392,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1403,10 +1404,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>225</v>
+        <v>224.95</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2266.03</v>
+        <v>2265.39</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1417,16 +1418,16 @@
         <v>2.26</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>13.77</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="98" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1435,13 +1436,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>228.26</v>
+        <v>225</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>13102.98</v>
+        <v>2266.03</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1449,10 +1450,10 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>12.97</v>
+        <v>2.26</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>79.19</v>
+        <v>13.77</v>
       </c>
     </row>
     <row r="14">
@@ -1470,13 +1471,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>228.25</v>
+        <v>228.26</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>689.6</v>
+        <v>13102.98</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1484,19 +1485,19 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.6899999999999999</v>
+        <v>12.97</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>4.16</v>
+        <v>79.19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="98" t="n">
-        <v>45982</v>
+        <v>45996</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -1505,13 +1506,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>249.8</v>
+        <v>228.25</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2515.74</v>
+        <v>689.6</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1519,19 +1520,19 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>2.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>15.24</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="98" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -1540,13 +1541,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>249.97</v>
+        <v>249.8</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>2265.67</v>
+        <v>2515.74</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1554,10 +1555,10 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>13.7</v>
+        <v>15.24</v>
       </c>
     </row>
     <row r="17">
@@ -1575,13 +1576,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>249.93</v>
+        <v>249.97</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>251.7</v>
+        <v>2265.67</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1589,19 +1590,19 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.25</v>
+        <v>2.24</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>1.52</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="98" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -1613,10 +1614,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>249.6</v>
+        <v>249.93</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>251.37</v>
+        <v>251.7</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1645,13 +1646,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>249.7</v>
+        <v>249.6</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>2263.26</v>
+        <v>251.37</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1659,19 +1660,19 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>2.26</v>
+        <v>0.25</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>13.7</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="98" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -1680,13 +1681,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>248.38</v>
+        <v>249.7</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>5002.78</v>
+        <v>2263.26</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1694,19 +1695,19 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>4.99</v>
+        <v>2.26</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>30.19</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="98" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1715,13 +1716,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>243.9</v>
+        <v>248.38</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>2456.31</v>
+        <v>5002.78</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1729,10 +1730,10 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>2.44</v>
+        <v>4.99</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>14.87</v>
+        <v>30.19</v>
       </c>
     </row>
     <row r="22">
@@ -1741,7 +1742,7 @@
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1750,33 +1751,33 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>2</v>
+        <v>243.9</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>160</v>
+        <v>2456.31</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.2.0000/- per share on Ex-Date: 14-NOV-2025  Interim-Dividend of Rs.2.0000/- per share on Ex-Date: 14-NOV-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>0</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="98" t="n">
-        <v>45959</v>
+        <v>45975</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -1785,29 +1786,29 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>244.95</v>
+        <v>2</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>2466.81</v>
+        <v>160</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.2.0000/- per share on Ex-Date: 14-NOV-2025  Interim-Dividend of Rs.2.0000/- per share on Ex-Date: 14-NOV-2025</t>
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>14.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="98" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
@@ -1820,13 +1821,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>245.88</v>
+        <v>244.95</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>247.63</v>
+        <v>2466.81</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1834,10 +1835,10 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.25</v>
+        <v>2.44</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>1.5</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="25">
@@ -1855,13 +1856,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>245.88</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>1981.01</v>
+        <v>247.63</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1869,10 +1870,10 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>1.97</v>
+        <v>0.25</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>12</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="26">
@@ -1890,13 +1891,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>245.88</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>247.63</v>
+        <v>1981.01</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1904,15 +1905,15 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.25</v>
+        <v>1.97</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>1.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="98" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
@@ -1925,13 +1926,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>247.5</v>
+        <v>245.88</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>1744.82</v>
+        <v>247.63</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1939,10 +1940,10 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>1.74</v>
+        <v>0.25</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>10.58</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="28">
@@ -1960,13 +1961,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>247.5</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>747.75</v>
+        <v>1744.82</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1974,15 +1975,15 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.74</v>
+        <v>1.74</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>4.51</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="98" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
@@ -1995,13 +1996,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>247.99</v>
+        <v>247.5</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>2247.71</v>
+        <v>747.75</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -2009,10 +2010,10 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>2.22</v>
+        <v>0.74</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>13.58</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="30">
@@ -2030,13 +2031,13 @@
         </is>
       </c>
       <c r="D30" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>247.99</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>249.75</v>
+        <v>2247.71</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -2044,19 +2045,19 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.25</v>
+        <v>2.22</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>1.51</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="98" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C31" s="0" t="inlineStr">
@@ -2065,13 +2066,13 @@
         </is>
       </c>
       <c r="D31" s="0" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>247.05</v>
+        <v>247.99</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>4976.18</v>
+        <v>249.75</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
@@ -2079,19 +2080,19 @@
         </is>
       </c>
       <c r="H31" s="0" t="n">
-        <v>4.94</v>
+        <v>0.25</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>30.24</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="98" t="n">
-        <v>45917</v>
+        <v>45950</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
@@ -2103,30 +2104,30 @@
         <v>20</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>2.65</v>
+        <v>247.05</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>53</v>
+        <v>4976.18</v>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.2.6500/- per share on Ex-Date: 17-SEP-2025  Final-Dividend of Rs.2.6500/- per share on Ex-Date: 17-SEP-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0</v>
+        <v>4.94</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>0</v>
+        <v>30.24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="98" t="n">
-        <v>45897</v>
+        <v>45917</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C33" s="0" t="inlineStr">
@@ -2135,131 +2136,68 @@
         </is>
       </c>
       <c r="D33" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="G33" s="0" t="inlineStr">
+        <is>
+          <t>Final-Dividend of Rs.2.6500/- per share on Ex-Date: 17-SEP-2025  Final-Dividend of Rs.2.6500/- per share on Ex-Date: 17-SEP-2025</t>
+        </is>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="98" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E34" s="0" t="n">
         <v>246.85</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F34" s="0" t="n">
         <v>2486</v>
       </c>
-      <c r="G33" s="0" t="inlineStr">
+      <c r="G34" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H34" s="0" t="n">
         <v>2.47</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="I34" s="0" t="n">
         <v>15.03</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="38" t="n">
+    <row r="35">
+      <c r="A35" s="38" t="n">
         <v>45950</v>
       </c>
-      <c r="B34" s="39" t="inlineStr">
+      <c r="B35" s="39" t="inlineStr">
         <is>
           <t>BSE</t>
-        </is>
-      </c>
-      <c r="C34" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D34" s="40" t="n">
-        <v>20</v>
-      </c>
-      <c r="E34" s="41" t="n">
-        <v>248.81</v>
-      </c>
-      <c r="F34" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G34" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H34" s="40" t="n"/>
-      <c r="I34" s="40" t="n"/>
-      <c r="J34" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K34" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L34" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M34" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N34" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O34" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P34" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q34" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R34" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S34" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T34" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U34" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V34" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W34" s="47" t="n"/>
-      <c r="X34" s="47" t="n"/>
-      <c r="Y34" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z34" s="47" t="n"/>
-      <c r="AA34" s="47" t="n"/>
-      <c r="AB34" s="48" t="n"/>
-      <c r="AC34" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD34" s="49" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="38" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B35" s="39" t="inlineStr">
-        <is>
-          <t>DIV</t>
         </is>
       </c>
       <c r="C35" s="39" t="inlineStr">
@@ -2268,16 +2206,20 @@
         </is>
       </c>
       <c r="D35" s="40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E35" s="41" t="n">
-        <v>2.65</v>
+        <v>248.81</v>
       </c>
       <c r="F35" s="41">
-        <f>(D6*E6)</f>
-        <v/>
-      </c>
-      <c r="G35" s="39" t="n"/>
+        <f>D5*E5</f>
+        <v/>
+      </c>
+      <c r="G35" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
       <c r="H35" s="40" t="n"/>
       <c r="I35" s="40" t="n"/>
       <c r="J35" s="42">
@@ -2285,64 +2227,64 @@
         <v/>
       </c>
       <c r="K35" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L35" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M35" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N35" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O35" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P35" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q35" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R35" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S35" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T35" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U35" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V35" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W35" s="47" t="n"/>
       <c r="X35" s="47" t="n"/>
       <c r="Y35" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z35" s="47" t="n"/>
       <c r="AA35" s="47" t="n"/>
       <c r="AB35" s="48" t="n"/>
       <c r="AC35" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD35" s="49" t="n"/>
@@ -2368,7 +2310,7 @@
         <v>2.65</v>
       </c>
       <c r="F36" s="41">
-        <f>(D7*E7)</f>
+        <f>(D6*E6)</f>
         <v/>
       </c>
       <c r="G36" s="39" t="n"/>
@@ -2379,75 +2321,75 @@
         <v/>
       </c>
       <c r="K36" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L36" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M36" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N36" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O36" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P36" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R36" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S36" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T36" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U36" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V36" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W36" s="47" t="n"/>
       <c r="X36" s="47" t="n"/>
       <c r="Y36" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z36" s="47" t="n"/>
       <c r="AA36" s="47" t="n"/>
       <c r="AB36" s="48" t="n"/>
       <c r="AC36" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD36" s="49" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="38" t="n">
-        <v>45897</v>
+        <v>45917</v>
       </c>
       <c r="B37" s="39" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C37" s="39" t="inlineStr">
@@ -2459,96 +2401,89 @@
         <v>10</v>
       </c>
       <c r="E37" s="41" t="n">
-        <v>248.6</v>
-      </c>
-      <c r="F37" s="41" t="n">
-        <v>2486</v>
-      </c>
-      <c r="G37" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H37" s="40" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="I37" s="40" t="n">
-        <v>15.03</v>
-      </c>
+        <v>2.65</v>
+      </c>
+      <c r="F37" s="41">
+        <f>(D7*E7)</f>
+        <v/>
+      </c>
+      <c r="G37" s="39" t="n"/>
+      <c r="H37" s="40" t="n"/>
+      <c r="I37" s="40" t="n"/>
       <c r="J37" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L37" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M37" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N37" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O37" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P37" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R37" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S37" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T37" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U37" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V37" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W37" s="47" t="n"/>
       <c r="X37" s="47" t="n"/>
       <c r="Y37" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z37" s="47" t="n"/>
       <c r="AA37" s="47" t="n"/>
       <c r="AB37" s="48" t="n"/>
       <c r="AC37" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD37" s="49" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="38" t="n">
-        <v>45881</v>
+        <v>45897</v>
       </c>
       <c r="B38" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C38" s="39" t="inlineStr">
@@ -2560,193 +2495,193 @@
         <v>10</v>
       </c>
       <c r="E38" s="41" t="n">
-        <v>1.3</v>
+        <v>248.6</v>
       </c>
       <c r="F38" s="41" t="n">
-        <v>13</v>
+        <v>2486</v>
       </c>
       <c r="G38" s="39" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.1.3000/- per share on Ex-Date: 12-AUG-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H38" s="40" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="I38" s="40" t="n">
-        <v>0</v>
+        <v>15.03</v>
       </c>
       <c r="J38" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L38" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M38" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N38" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O38" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P38" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R38" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S38" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T38" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U38" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V38" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W38" s="47" t="n"/>
       <c r="X38" s="47" t="n"/>
       <c r="Y38" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z38" s="47" t="n"/>
       <c r="AA38" s="47" t="n"/>
       <c r="AB38" s="48" t="n"/>
       <c r="AC38" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD38" s="49" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="38" t="n">
-        <v>45820</v>
+        <v>45881</v>
       </c>
       <c r="B39" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C39" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D39" s="40" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E39" s="41" t="n">
-        <v>301.79</v>
+        <v>1.3</v>
       </c>
       <c r="F39" s="41" t="n">
-        <v>30179.17</v>
+        <v>13</v>
       </c>
       <c r="G39" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.3000/- per share on Ex-Date: 12-AUG-2025</t>
         </is>
       </c>
       <c r="H39" s="40" t="n">
-        <v>30.34</v>
+        <v>0</v>
       </c>
       <c r="I39" s="40" t="n">
-        <v>180.49</v>
+        <v>0</v>
       </c>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L39" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M39" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N39" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O39" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P39" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R39" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S39" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T39" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U39" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V39" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W39" s="47" t="n"/>
       <c r="X39" s="47" t="n"/>
       <c r="Y39" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z39" s="47" t="n"/>
       <c r="AA39" s="47" t="n"/>
       <c r="AB39" s="48" t="n"/>
       <c r="AC39" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD39" s="49" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="38" t="n">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="B40" s="39" t="inlineStr">
         <is>
@@ -2755,17 +2690,17 @@
       </c>
       <c r="C40" s="39" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D40" s="40" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E40" s="41" t="n">
-        <v>283.65</v>
+        <v>301.79</v>
       </c>
       <c r="F40" s="41" t="n">
-        <v>2836.5</v>
+        <v>30179.17</v>
       </c>
       <c r="G40" s="39" t="inlineStr">
         <is>
@@ -2773,195 +2708,178 @@
         </is>
       </c>
       <c r="H40" s="40" t="n">
-        <v>2.82</v>
+        <v>30.34</v>
       </c>
       <c r="I40" s="40" t="n">
-        <v>17.18</v>
+        <v>180.49</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L40" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M40" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N40" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O40" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P40" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R40" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S40" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T40" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U40" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V40" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W40" s="47" t="n"/>
       <c r="X40" s="47" t="n"/>
       <c r="Y40" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z40" s="47" t="n"/>
       <c r="AA40" s="47" t="n"/>
       <c r="AB40" s="48" t="n"/>
       <c r="AC40" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD40" s="49" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="50" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B41" s="51" t="inlineStr">
+      <c r="A41" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B41" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C41" s="51" t="inlineStr">
+      <c r="C41" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D41" s="52" t="n">
-        <v>23</v>
-      </c>
-      <c r="E41" s="53" t="n">
-        <v>214.56</v>
-      </c>
-      <c r="F41" s="53" t="n">
-        <v>4934.98</v>
-      </c>
-      <c r="G41" s="51" t="inlineStr">
+      <c r="D41" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" s="41" t="n">
+        <v>283.65</v>
+      </c>
+      <c r="F41" s="41" t="n">
+        <v>2836.5</v>
+      </c>
+      <c r="G41" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H41" s="52" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="I41" s="52" t="n">
-        <v>29.94</v>
+      <c r="H41" s="40" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I41" s="40" t="n">
+        <v>17.18</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L41" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M41" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N41" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O41" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P41" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R41" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S41" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T41" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U41" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V41" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
-        <v/>
-      </c>
-      <c r="W41" s="41" t="n">
-        <v>301.79</v>
-      </c>
-      <c r="X41" s="38" t="n">
-        <v>45820</v>
-      </c>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="W41" s="47" t="n"/>
+      <c r="X41" s="47" t="n"/>
       <c r="Y41" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="Z41" s="54">
-        <f>(1-Index!$F$2*2)*((W12*D12)-(E12*D12))</f>
-        <v/>
-      </c>
-      <c r="AA41" s="54">
-        <f>((E12*D12)+Z12)</f>
-        <v/>
-      </c>
-      <c r="AB41" s="55">
-        <f>D12</f>
-        <v/>
-      </c>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="Z41" s="47" t="n"/>
+      <c r="AA41" s="47" t="n"/>
+      <c r="AB41" s="48" t="n"/>
       <c r="AC41" s="44">
-        <f>if(B12="DIV", F12,"")</f>
-        <v/>
-      </c>
-      <c r="AD41" s="56" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B11="DIV", F11,"")</f>
+        <v/>
+      </c>
+      <c r="AD41" s="49" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="50" t="n">
@@ -2978,13 +2896,13 @@
         </is>
       </c>
       <c r="D42" s="52" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E42" s="53" t="n">
         <v>214.56</v>
       </c>
       <c r="F42" s="53" t="n">
-        <v>1501.94</v>
+        <v>4934.98</v>
       </c>
       <c r="G42" s="51" t="inlineStr">
         <is>
@@ -2992,61 +2910,61 @@
         </is>
       </c>
       <c r="H42" s="52" t="n">
-        <v>1.49</v>
+        <v>4.89</v>
       </c>
       <c r="I42" s="52" t="n">
-        <v>9.1</v>
+        <v>29.94</v>
       </c>
       <c r="J42" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L42" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M42" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N42" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O42" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P42" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R42" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S42" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T42" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U42" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V42" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W42" s="41" t="n">
@@ -3056,23 +2974,23 @@
         <v>45820</v>
       </c>
       <c r="Y42" s="46">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z42" s="54">
-        <f>(1-Index!$F$2*2)*((W13*D13)-(E13*D13))</f>
+        <f>(1-Index!$F$2*2)*((W12*D12)-(E12*D12))</f>
         <v/>
       </c>
       <c r="AA42" s="54">
-        <f>((E13*D13)+Z13)</f>
+        <f>((E12*D12)+Z12)</f>
         <v/>
       </c>
       <c r="AB42" s="55">
-        <f>D13</f>
+        <f>D12</f>
         <v/>
       </c>
       <c r="AC42" s="44">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD42" s="56" t="inlineStr">
@@ -3083,7 +3001,7 @@
     </row>
     <row r="43">
       <c r="A43" s="50" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B43" s="51" t="inlineStr">
         <is>
@@ -3096,13 +3014,13 @@
         </is>
       </c>
       <c r="D43" s="52" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E43" s="53" t="n">
-        <v>202.73</v>
+        <v>214.56</v>
       </c>
       <c r="F43" s="53" t="n">
-        <v>2635.5</v>
+        <v>1501.94</v>
       </c>
       <c r="G43" s="51" t="inlineStr">
         <is>
@@ -3110,61 +3028,61 @@
         </is>
       </c>
       <c r="H43" s="52" t="n">
-        <v>2.62</v>
+        <v>1.49</v>
       </c>
       <c r="I43" s="52" t="n">
-        <v>15.98</v>
+        <v>9.1</v>
       </c>
       <c r="J43" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L43" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M43" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N43" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O43" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P43" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R43" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S43" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T43" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U43" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V43" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W43" s="41" t="n">
@@ -3174,23 +3092,23 @@
         <v>45820</v>
       </c>
       <c r="Y43" s="46">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z43" s="54">
-        <f>(1-Index!$F$2*2)*((W14*D14)-(E14*D14))</f>
+        <f>(1-Index!$F$2*2)*((W13*D13)-(E13*D13))</f>
         <v/>
       </c>
       <c r="AA43" s="54">
-        <f>((E14*D14)+Z14)</f>
+        <f>((E13*D13)+Z13)</f>
         <v/>
       </c>
       <c r="AB43" s="55">
-        <f>D14</f>
+        <f>D13</f>
         <v/>
       </c>
       <c r="AC43" s="44">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD43" s="56" t="inlineStr">
@@ -3238,51 +3156,51 @@
         <v/>
       </c>
       <c r="K44" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L44" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M44" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N44" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O44" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P44" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R44" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S44" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T44" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U44" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V44" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W44" s="41" t="n">
@@ -3292,23 +3210,23 @@
         <v>45820</v>
       </c>
       <c r="Y44" s="46">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z44" s="54">
-        <f>(1-Index!$F$2*2)*((W15*D15)-(E15*D15))</f>
+        <f>(1-Index!$F$2*2)*((W14*D14)-(E14*D14))</f>
         <v/>
       </c>
       <c r="AA44" s="54">
-        <f>((E15*D15)+Z15)</f>
+        <f>((E14*D14)+Z14)</f>
         <v/>
       </c>
       <c r="AB44" s="55">
-        <f>D15</f>
+        <f>D14</f>
         <v/>
       </c>
       <c r="AC44" s="44">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD44" s="56" t="inlineStr">
@@ -3332,13 +3250,13 @@
         </is>
       </c>
       <c r="D45" s="52" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E45" s="53" t="n">
         <v>202.73</v>
       </c>
       <c r="F45" s="53" t="n">
-        <v>608.1799999999999</v>
+        <v>2635.5</v>
       </c>
       <c r="G45" s="51" t="inlineStr">
         <is>
@@ -3346,61 +3264,61 @@
         </is>
       </c>
       <c r="H45" s="52" t="n">
-        <v>0.6</v>
+        <v>2.62</v>
       </c>
       <c r="I45" s="52" t="n">
-        <v>3.68</v>
+        <v>15.98</v>
       </c>
       <c r="J45" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L45" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M45" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N45" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O45" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P45" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R45" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S45" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T45" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U45" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V45" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W45" s="41" t="n">
@@ -3410,23 +3328,23 @@
         <v>45820</v>
       </c>
       <c r="Y45" s="46">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z45" s="54">
-        <f>(1-Index!$F$2*2)*((W16*D16)-(E16*D16))</f>
+        <f>(1-Index!$F$2*2)*((W15*D15)-(E15*D15))</f>
         <v/>
       </c>
       <c r="AA45" s="54">
-        <f>((E16*D16)+Z16)</f>
+        <f>((E15*D15)+Z15)</f>
         <v/>
       </c>
       <c r="AB45" s="55">
-        <f>D16</f>
+        <f>D15</f>
         <v/>
       </c>
       <c r="AC45" s="44">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD45" s="56" t="inlineStr">
@@ -3474,51 +3392,51 @@
         <v/>
       </c>
       <c r="K46" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L46" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M46" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N46" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O46" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P46" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R46" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S46" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T46" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U46" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V46" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W46" s="41" t="n">
@@ -3528,23 +3446,23 @@
         <v>45820</v>
       </c>
       <c r="Y46" s="46">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z46" s="54">
-        <f>(1-Index!$F$2*2)*((W17*D17)-(E17*D17))</f>
+        <f>(1-Index!$F$2*2)*((W16*D16)-(E16*D16))</f>
         <v/>
       </c>
       <c r="AA46" s="54">
-        <f>((E17*D17)+Z17)</f>
+        <f>((E16*D16)+Z16)</f>
         <v/>
       </c>
       <c r="AB46" s="55">
-        <f>D17</f>
+        <f>D16</f>
         <v/>
       </c>
       <c r="AC46" s="44">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD46" s="56" t="inlineStr">
@@ -3568,13 +3486,13 @@
         </is>
       </c>
       <c r="D47" s="52" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E47" s="53" t="n">
         <v>202.73</v>
       </c>
       <c r="F47" s="53" t="n">
-        <v>2635.5</v>
+        <v>608.1799999999999</v>
       </c>
       <c r="G47" s="51" t="inlineStr">
         <is>
@@ -3582,61 +3500,61 @@
         </is>
       </c>
       <c r="H47" s="52" t="n">
-        <v>2.62</v>
+        <v>0.6</v>
       </c>
       <c r="I47" s="52" t="n">
-        <v>15.98</v>
+        <v>3.68</v>
       </c>
       <c r="J47" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L47" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M47" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N47" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O47" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P47" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R47" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S47" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T47" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U47" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V47" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W47" s="41" t="n">
@@ -3646,23 +3564,23 @@
         <v>45820</v>
       </c>
       <c r="Y47" s="46">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z47" s="54">
-        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
+        <f>(1-Index!$F$2*2)*((W17*D17)-(E17*D17))</f>
         <v/>
       </c>
       <c r="AA47" s="54">
-        <f>((E18*D18)+Z18)</f>
+        <f>((E17*D17)+Z17)</f>
         <v/>
       </c>
       <c r="AB47" s="55">
-        <f>D18</f>
+        <f>D17</f>
         <v/>
       </c>
       <c r="AC47" s="44">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD47" s="56" t="inlineStr">
@@ -3673,7 +3591,7 @@
     </row>
     <row r="48">
       <c r="A48" s="50" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B48" s="51" t="inlineStr">
         <is>
@@ -3686,13 +3604,13 @@
         </is>
       </c>
       <c r="D48" s="52" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E48" s="53" t="n">
-        <v>223.07</v>
+        <v>202.73</v>
       </c>
       <c r="F48" s="53" t="n">
-        <v>4461.44</v>
+        <v>2635.5</v>
       </c>
       <c r="G48" s="51" t="inlineStr">
         <is>
@@ -3700,61 +3618,61 @@
         </is>
       </c>
       <c r="H48" s="52" t="n">
-        <v>4.43</v>
+        <v>2.62</v>
       </c>
       <c r="I48" s="52" t="n">
-        <v>27.01</v>
+        <v>15.98</v>
       </c>
       <c r="J48" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L48" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M48" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N48" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O48" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P48" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R48" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S48" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T48" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U48" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V48" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W48" s="41" t="n">
@@ -3764,23 +3682,23 @@
         <v>45820</v>
       </c>
       <c r="Y48" s="46">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z48" s="54">
-        <f>(1-Index!$F$2*2)*((W19*D19)-(E19*D19))</f>
+        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
         <v/>
       </c>
       <c r="AA48" s="54">
-        <f>((E19*D19)+Z19)</f>
+        <f>((E18*D18)+Z18)</f>
         <v/>
       </c>
       <c r="AB48" s="55">
-        <f>D19</f>
+        <f>D18</f>
         <v/>
       </c>
       <c r="AC48" s="44">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD48" s="56" t="inlineStr">
@@ -3791,7 +3709,7 @@
     </row>
     <row r="49">
       <c r="A49" s="50" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B49" s="51" t="inlineStr">
         <is>
@@ -3804,13 +3722,13 @@
         </is>
       </c>
       <c r="D49" s="52" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E49" s="53" t="n">
-        <v>237.07</v>
+        <v>223.07</v>
       </c>
       <c r="F49" s="53" t="n">
-        <v>1185.36</v>
+        <v>4461.44</v>
       </c>
       <c r="G49" s="51" t="inlineStr">
         <is>
@@ -3818,61 +3736,61 @@
         </is>
       </c>
       <c r="H49" s="52" t="n">
-        <v>1.18</v>
+        <v>4.43</v>
       </c>
       <c r="I49" s="52" t="n">
-        <v>7.18</v>
+        <v>27.01</v>
       </c>
       <c r="J49" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L49" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M49" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N49" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O49" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P49" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R49" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S49" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T49" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U49" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V49" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W49" s="41" t="n">
@@ -3882,23 +3800,23 @@
         <v>45820</v>
       </c>
       <c r="Y49" s="46">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z49" s="54">
-        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
+        <f>(1-Index!$F$2*2)*((W19*D19)-(E19*D19))</f>
         <v/>
       </c>
       <c r="AA49" s="54">
-        <f>((E20*D20)+Z20)</f>
+        <f>((E19*D19)+Z19)</f>
         <v/>
       </c>
       <c r="AB49" s="55">
-        <f>D20</f>
+        <f>D19</f>
         <v/>
       </c>
       <c r="AC49" s="44">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD49" s="56" t="inlineStr">
@@ -3909,7 +3827,7 @@
     </row>
     <row r="50">
       <c r="A50" s="50" t="n">
-        <v>45316</v>
+        <v>45694</v>
       </c>
       <c r="B50" s="51" t="inlineStr">
         <is>
@@ -3918,17 +3836,17 @@
       </c>
       <c r="C50" s="51" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D50" s="52" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E50" s="53" t="n">
-        <v>640.52</v>
+        <v>237.07</v>
       </c>
       <c r="F50" s="53" t="n">
-        <v>32025.84</v>
+        <v>1185.36</v>
       </c>
       <c r="G50" s="51" t="inlineStr">
         <is>
@@ -3936,190 +3854,203 @@
         </is>
       </c>
       <c r="H50" s="52" t="n">
-        <v>32.26</v>
+        <v>1.18</v>
       </c>
       <c r="I50" s="52" t="n">
-        <v>191.9</v>
+        <v>7.18</v>
       </c>
       <c r="J50" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L50" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M50" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N50" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O50" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P50" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R50" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S50" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T50" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U50" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V50" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
-        <v/>
-      </c>
-      <c r="W50" s="47" t="n"/>
-      <c r="X50" s="47" t="n"/>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <v/>
+      </c>
+      <c r="W50" s="41" t="n">
+        <v>301.79</v>
+      </c>
+      <c r="X50" s="38" t="n">
+        <v>45820</v>
+      </c>
       <c r="Y50" s="46">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
-        <v/>
-      </c>
-      <c r="Z50" s="47" t="n"/>
-      <c r="AA50" s="47" t="n"/>
-      <c r="AB50" s="48" t="n"/>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <v/>
+      </c>
+      <c r="Z50" s="54">
+        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
+        <v/>
+      </c>
+      <c r="AA50" s="54">
+        <f>((E20*D20)+Z20)</f>
+        <v/>
+      </c>
+      <c r="AB50" s="55">
+        <f>D20</f>
+        <v/>
+      </c>
       <c r="AC50" s="44">
-        <f>if(B21="DIV", F21,"")</f>
-        <v/>
-      </c>
-      <c r="AD50" s="49" t="n"/>
+        <f>if(B20="DIV", F20,"")</f>
+        <v/>
+      </c>
+      <c r="AD50" s="56" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="57" t="n">
-        <v>45238</v>
-      </c>
-      <c r="B51" s="58" t="inlineStr">
+      <c r="A51" s="50" t="n">
+        <v>45316</v>
+      </c>
+      <c r="B51" s="51" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
-      <c r="C51" s="58" t="inlineStr">
+      <c r="C51" s="51" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
-      <c r="D51" s="60" t="n">
+      <c r="D51" s="52" t="n">
         <v>50</v>
       </c>
-      <c r="E51" s="42" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F51" s="42" t="n">
-        <v>225</v>
-      </c>
-      <c r="G51" s="60" t="inlineStr">
+      <c r="E51" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="F51" s="53" t="n">
+        <v>32025.84</v>
+      </c>
+      <c r="G51" s="51" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.4.5000/- per share on Ex-Date: 08-NOV-2023</t>
+          <t>~</t>
         </is>
       </c>
-      <c r="H51" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" s="60" t="n">
-        <v>0</v>
+      <c r="H51" s="52" t="n">
+        <v>32.26</v>
+      </c>
+      <c r="I51" s="52" t="n">
+        <v>191.9</v>
       </c>
       <c r="J51" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L51" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M51" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N51" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O51" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P51" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R51" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S51" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T51" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U51" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V51" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W51" s="47" t="n"/>
       <c r="X51" s="47" t="n"/>
       <c r="Y51" s="46">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z51" s="47" t="n"/>
       <c r="AA51" s="47" t="n"/>
       <c r="AB51" s="48" t="n"/>
       <c r="AC51" s="44">
-        <f>if(B22="DIV", F22,"")</f>
-        <v/>
-      </c>
-      <c r="AD51" s="56" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B21="DIV", F21,"")</f>
+        <v/>
+      </c>
+      <c r="AD51" s="49" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="57" t="n">
-        <v>45225</v>
+        <v>45238</v>
       </c>
       <c r="B52" s="58" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C52" s="58" t="inlineStr">
@@ -4128,92 +4059,88 @@
         </is>
       </c>
       <c r="D52" s="60" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E52" s="42" t="n">
-        <v>434.402</v>
+        <v>4.5</v>
       </c>
       <c r="F52" s="42" t="n">
-        <v>2187.44</v>
+        <v>225</v>
       </c>
       <c r="G52" s="60" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.4.5000/- per share on Ex-Date: 08-NOV-2023</t>
         </is>
       </c>
       <c r="H52" s="60" t="n">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="I52" s="60" t="n">
-        <v>13.25</v>
+        <v>0</v>
       </c>
       <c r="J52" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K52" s="47" t="n"/>
-      <c r="L52" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
-        <v/>
-      </c>
-      <c r="M52" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
-        <v/>
-      </c>
-      <c r="N52" s="62">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
-        <v/>
-      </c>
-      <c r="O52" s="61" t="n"/>
-      <c r="P52" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
-        <v/>
-      </c>
-      <c r="Q52" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
-        <v/>
-      </c>
-      <c r="R52" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
-        <v/>
-      </c>
-      <c r="S52" s="61" t="n"/>
-      <c r="T52" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (J23*D23)-(E23*D23)-(2*sum(H23:I23)), "")</f>
-        <v/>
-      </c>
-      <c r="U52" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
-        <v/>
-      </c>
-      <c r="V52" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
-        <v/>
-      </c>
-      <c r="W52" s="53" t="n">
-        <v>640.52</v>
-      </c>
-      <c r="X52" s="50" t="n">
-        <v>45316</v>
-      </c>
+      <c r="K52" s="43">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="L52" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="M52" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <v/>
+      </c>
+      <c r="N52" s="45">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <v/>
+      </c>
+      <c r="O52" s="43">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="P52" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="Q52" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <v/>
+      </c>
+      <c r="R52" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="S52" s="46">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="T52" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="U52" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <v/>
+      </c>
+      <c r="V52" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="W52" s="47" t="n"/>
+      <c r="X52" s="47" t="n"/>
       <c r="Y52" s="46">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
-        <v/>
-      </c>
-      <c r="Z52" s="54">
-        <f>(1-Index!$F$2*2)*((W23*D23)-(E23*D23))</f>
-        <v/>
-      </c>
-      <c r="AA52" s="54">
-        <f>((E23*D23)+Z23)</f>
-        <v/>
-      </c>
-      <c r="AB52" s="55">
-        <f>D23</f>
-        <v/>
-      </c>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="Z52" s="47" t="n"/>
+      <c r="AA52" s="47" t="n"/>
+      <c r="AB52" s="48" t="n"/>
       <c r="AC52" s="44">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD52" s="56" t="inlineStr">
@@ -4224,7 +4151,7 @@
     </row>
     <row r="53">
       <c r="A53" s="57" t="n">
-        <v>45191</v>
+        <v>45225</v>
       </c>
       <c r="B53" s="58" t="inlineStr">
         <is>
@@ -4237,13 +4164,13 @@
         </is>
       </c>
       <c r="D53" s="60" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E53" s="42" t="n">
-        <v>485.448</v>
+        <v>434.402</v>
       </c>
       <c r="F53" s="42" t="n">
-        <v>4889.12</v>
+        <v>2187.44</v>
       </c>
       <c r="G53" s="60" t="inlineStr">
         <is>
@@ -4251,10 +4178,10 @@
         </is>
       </c>
       <c r="H53" s="60" t="n">
-        <v>4.94</v>
+        <v>2.19</v>
       </c>
       <c r="I53" s="60" t="n">
-        <v>29.68</v>
+        <v>13.25</v>
       </c>
       <c r="J53" s="42">
         <f>Index!$C$2</f>
@@ -4262,41 +4189,41 @@
       </c>
       <c r="K53" s="47" t="n"/>
       <c r="L53" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M53" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N53" s="62">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O53" s="61" t="n"/>
       <c r="P53" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R53" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S53" s="61" t="n"/>
       <c r="T53" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (J24*D24)-(E24*D24)-(2*sum(H24:I24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (J23*D23)-(E23*D23)-(2*sum(H23:I23)), "")</f>
         <v/>
       </c>
       <c r="U53" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V53" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W53" s="53" t="n">
@@ -4306,23 +4233,23 @@
         <v>45316</v>
       </c>
       <c r="Y53" s="46">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z53" s="54">
-        <f>(1-Index!$F$2*2)*((W24*D24)-(E24*D24))</f>
+        <f>(1-Index!$F$2*2)*((W23*D23)-(E23*D23))</f>
         <v/>
       </c>
       <c r="AA53" s="54">
-        <f>((E24*D24)+Z24)</f>
+        <f>((E23*D23)+Z23)</f>
         <v/>
       </c>
       <c r="AB53" s="55">
-        <f>D24</f>
+        <f>D23</f>
         <v/>
       </c>
       <c r="AC53" s="44">
-        <f>if(B24="DIV", F24,"")</f>
+        <f>if(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD53" s="56" t="inlineStr">
@@ -4333,7 +4260,7 @@
     </row>
     <row r="54">
       <c r="A54" s="57" t="n">
-        <v>45181</v>
+        <v>45191</v>
       </c>
       <c r="B54" s="58" t="inlineStr">
         <is>
@@ -4346,13 +4273,13 @@
         </is>
       </c>
       <c r="D54" s="60" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E54" s="42" t="n">
-        <v>528.498</v>
+        <v>485.448</v>
       </c>
       <c r="F54" s="42" t="n">
-        <v>2661.21</v>
+        <v>4889.12</v>
       </c>
       <c r="G54" s="60" t="inlineStr">
         <is>
@@ -4360,10 +4287,10 @@
         </is>
       </c>
       <c r="H54" s="60" t="n">
-        <v>2.64</v>
+        <v>4.94</v>
       </c>
       <c r="I54" s="60" t="n">
-        <v>16.07</v>
+        <v>29.68</v>
       </c>
       <c r="J54" s="42">
         <f>Index!$C$2</f>
@@ -4371,41 +4298,41 @@
       </c>
       <c r="K54" s="47" t="n"/>
       <c r="L54" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M54" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N54" s="62">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O54" s="61" t="n"/>
       <c r="P54" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R54" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S54" s="61" t="n"/>
       <c r="T54" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (J25*D25)-(E25*D25)-(2*sum(H25:I25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (J24*D24)-(E24*D24)-(2*sum(H24:I24)), "")</f>
         <v/>
       </c>
       <c r="U54" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V54" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W54" s="53" t="n">
@@ -4415,23 +4342,23 @@
         <v>45316</v>
       </c>
       <c r="Y54" s="46">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z54" s="54">
-        <f>(1-Index!$F$2*2)*((W25*D25)-(E25*D25))</f>
+        <f>(1-Index!$F$2*2)*((W24*D24)-(E24*D24))</f>
         <v/>
       </c>
       <c r="AA54" s="54">
-        <f>((E25*D25)+Z25)</f>
+        <f>((E24*D24)+Z24)</f>
         <v/>
       </c>
       <c r="AB54" s="55">
-        <f>D25</f>
+        <f>D24</f>
         <v/>
       </c>
       <c r="AC54" s="44">
-        <f>if(B25="DIV", F25,"")</f>
+        <f>if(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD54" s="56" t="inlineStr">
@@ -4442,11 +4369,11 @@
     </row>
     <row r="55">
       <c r="A55" s="57" t="n">
-        <v>45177</v>
+        <v>45181</v>
       </c>
       <c r="B55" s="58" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C55" s="58" t="inlineStr">
@@ -4455,24 +4382,24 @@
         </is>
       </c>
       <c r="D55" s="60" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E55" s="42" t="n">
-        <v>6</v>
+        <v>528.498</v>
       </c>
       <c r="F55" s="42" t="n">
-        <v>180</v>
+        <v>2661.21</v>
       </c>
       <c r="G55" s="60" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.6.0000/- per share on Ex-Date: 08-SEP-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H55" s="60" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="I55" s="60" t="n">
-        <v>0</v>
+        <v>16.07</v>
       </c>
       <c r="J55" s="42">
         <f>Index!$C$2</f>
@@ -4480,54 +4407,67 @@
       </c>
       <c r="K55" s="47" t="n"/>
       <c r="L55" s="47">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M55" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N55" s="62">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O55" s="61" t="n"/>
       <c r="P55" s="47">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R55" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S55" s="61" t="n"/>
       <c r="T55" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*sum(H26:I26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (J25*D25)-(E25*D25)-(2*sum(H25:I25)), "")</f>
         <v/>
       </c>
       <c r="U55" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V55" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
-        <v/>
-      </c>
-      <c r="W55" s="47" t="n"/>
-      <c r="X55" s="47" t="n"/>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="W55" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="X55" s="50" t="n">
+        <v>45316</v>
+      </c>
       <c r="Y55" s="46">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
-        <v/>
-      </c>
-      <c r="Z55" s="47" t="n"/>
-      <c r="AA55" s="47" t="n"/>
-      <c r="AB55" s="48" t="n"/>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="Z55" s="54">
+        <f>(1-Index!$F$2*2)*((W25*D25)-(E25*D25))</f>
+        <v/>
+      </c>
+      <c r="AA55" s="54">
+        <f>((E25*D25)+Z25)</f>
+        <v/>
+      </c>
+      <c r="AB55" s="55">
+        <f>D25</f>
+        <v/>
+      </c>
       <c r="AC55" s="44">
-        <f>if(B26="DIV", F26,"")</f>
+        <f>if(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD55" s="56" t="inlineStr">
@@ -4538,11 +4478,11 @@
     </row>
     <row r="56">
       <c r="A56" s="57" t="n">
-        <v>45162</v>
+        <v>45177</v>
       </c>
       <c r="B56" s="58" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C56" s="58" t="inlineStr">
@@ -4551,24 +4491,24 @@
         </is>
       </c>
       <c r="D56" s="60" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E56" s="42" t="n">
-        <v>474.2</v>
+        <v>6</v>
       </c>
       <c r="F56" s="42" t="n">
-        <v>477.55</v>
+        <v>180</v>
       </c>
       <c r="G56" s="60" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.6.0000/- per share on Ex-Date: 08-SEP-2023</t>
         </is>
       </c>
       <c r="H56" s="60" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="I56" s="60" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="J56" s="42">
         <f>Index!$C$2</f>
@@ -4576,67 +4516,54 @@
       </c>
       <c r="K56" s="47" t="n"/>
       <c r="L56" s="47">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M56" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N56" s="62">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O56" s="61" t="n"/>
       <c r="P56" s="47">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q56" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R56" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S56" s="61" t="n"/>
       <c r="T56" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*sum(H27:I27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*sum(H26:I26)), "")</f>
         <v/>
       </c>
       <c r="U56" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V56" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
-        <v/>
-      </c>
-      <c r="W56" s="53" t="n">
-        <v>640.52</v>
-      </c>
-      <c r="X56" s="50" t="n">
-        <v>45316</v>
-      </c>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
+        <v/>
+      </c>
+      <c r="W56" s="47" t="n"/>
+      <c r="X56" s="47" t="n"/>
       <c r="Y56" s="46">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
-        <v/>
-      </c>
-      <c r="Z56" s="54">
-        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
-        <v/>
-      </c>
-      <c r="AA56" s="54">
-        <f>((E27*D27)+Z27)</f>
-        <v/>
-      </c>
-      <c r="AB56" s="55">
-        <f>D27</f>
-        <v/>
-      </c>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
+        <v/>
+      </c>
+      <c r="Z56" s="47" t="n"/>
+      <c r="AA56" s="47" t="n"/>
+      <c r="AB56" s="48" t="n"/>
       <c r="AC56" s="44">
-        <f>if(B27="DIV", F27,"")</f>
+        <f>if(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD56" s="56" t="inlineStr">
@@ -4660,13 +4587,13 @@
         </is>
       </c>
       <c r="D57" s="60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E57" s="42" t="n">
-        <v>474</v>
+        <v>474.2</v>
       </c>
       <c r="F57" s="42" t="n">
-        <v>1909.44</v>
+        <v>477.55</v>
       </c>
       <c r="G57" s="60" t="inlineStr">
         <is>
@@ -4674,10 +4601,10 @@
         </is>
       </c>
       <c r="H57" s="60" t="n">
-        <v>1.88</v>
+        <v>0.47</v>
       </c>
       <c r="I57" s="60" t="n">
-        <v>11.56</v>
+        <v>2.88</v>
       </c>
       <c r="J57" s="42">
         <f>Index!$C$2</f>
@@ -4685,41 +4612,41 @@
       </c>
       <c r="K57" s="47" t="n"/>
       <c r="L57" s="47">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M57" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N57" s="62">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O57" s="61" t="n"/>
       <c r="P57" s="47">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q57" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R57" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S57" s="61" t="n"/>
       <c r="T57" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*sum(H28:I28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*sum(H27:I27)), "")</f>
         <v/>
       </c>
       <c r="U57" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V57" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W57" s="53" t="n">
@@ -4729,23 +4656,23 @@
         <v>45316</v>
       </c>
       <c r="Y57" s="46">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="Z57" s="54">
-        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
+        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
         <v/>
       </c>
       <c r="AA57" s="54">
-        <f>((E28*D28)+Z28)</f>
+        <f>((E27*D27)+Z27)</f>
         <v/>
       </c>
       <c r="AB57" s="55">
-        <f>D28</f>
+        <f>D27</f>
         <v/>
       </c>
       <c r="AC57" s="44">
-        <f>if(B28="DIV", F28,"")</f>
+        <f>if(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD57" s="56" t="inlineStr">
@@ -4756,11 +4683,11 @@
     </row>
     <row r="58">
       <c r="A58" s="57" t="n">
-        <v>45145</v>
+        <v>45162</v>
       </c>
       <c r="B58" s="58" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C58" s="58" t="inlineStr">
@@ -4769,24 +4696,24 @@
         </is>
       </c>
       <c r="D58" s="60" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E58" s="42" t="n">
-        <v>3.75</v>
+        <v>474</v>
       </c>
       <c r="F58" s="42" t="n">
-        <v>93.75</v>
+        <v>1909.44</v>
       </c>
       <c r="G58" s="60" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.3.7500/- per share on Ex-Date: 07-AUG-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H58" s="60" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="I58" s="60" t="n">
-        <v>0</v>
+        <v>11.56</v>
       </c>
       <c r="J58" s="42">
         <f>Index!$C$2</f>
@@ -4794,54 +4721,67 @@
       </c>
       <c r="K58" s="47" t="n"/>
       <c r="L58" s="47">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M58" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N58" s="62">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O58" s="61" t="n"/>
       <c r="P58" s="47">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q58" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R58" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S58" s="61" t="n"/>
       <c r="T58" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*sum(H29:I29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*sum(H28:I28)), "")</f>
         <v/>
       </c>
       <c r="U58" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V58" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
-        <v/>
-      </c>
-      <c r="W58" s="47" t="n"/>
-      <c r="X58" s="47" t="n"/>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <v/>
+      </c>
+      <c r="W58" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="X58" s="50" t="n">
+        <v>45316</v>
+      </c>
       <c r="Y58" s="46">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
-        <v/>
-      </c>
-      <c r="Z58" s="47" t="n"/>
-      <c r="AA58" s="47" t="n"/>
-      <c r="AB58" s="48" t="n"/>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
+        <v/>
+      </c>
+      <c r="Z58" s="54">
+        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
+        <v/>
+      </c>
+      <c r="AA58" s="54">
+        <f>((E28*D28)+Z28)</f>
+        <v/>
+      </c>
+      <c r="AB58" s="55">
+        <f>D28</f>
+        <v/>
+      </c>
       <c r="AC58" s="44">
-        <f>if(B29="DIV", F29,"")</f>
+        <f>if(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD58" s="56" t="inlineStr">
@@ -4852,11 +4792,11 @@
     </row>
     <row r="59">
       <c r="A59" s="57" t="n">
-        <v>45034</v>
+        <v>45145</v>
       </c>
       <c r="B59" s="58" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C59" s="58" t="inlineStr">
@@ -4865,24 +4805,24 @@
         </is>
       </c>
       <c r="D59" s="60" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E59" s="42" t="n">
-        <v>347.95</v>
+        <v>3.75</v>
       </c>
       <c r="F59" s="42" t="n">
-        <v>1752.1</v>
+        <v>93.75</v>
       </c>
       <c r="G59" s="60" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.3.7500/- per share on Ex-Date: 07-AUG-2023</t>
         </is>
       </c>
       <c r="H59" s="60" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="I59" s="60" t="n">
-        <v>10.61</v>
+        <v>0</v>
       </c>
       <c r="J59" s="42">
         <f>Index!$C$2</f>
@@ -4890,67 +4830,54 @@
       </c>
       <c r="K59" s="47" t="n"/>
       <c r="L59" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M59" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N59" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O59" s="61" t="n"/>
       <c r="P59" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q59" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R59" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S59" s="61" t="n"/>
       <c r="T59" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*sum(H29:I29)), "")</f>
         <v/>
       </c>
       <c r="U59" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V59" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
-        <v/>
-      </c>
-      <c r="W59" s="53" t="n">
-        <v>640.52</v>
-      </c>
-      <c r="X59" s="50" t="n">
-        <v>45316</v>
-      </c>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <v/>
+      </c>
+      <c r="W59" s="47" t="n"/>
+      <c r="X59" s="47" t="n"/>
       <c r="Y59" s="46">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
-        <v/>
-      </c>
-      <c r="Z59" s="54">
-        <f>(1-Index!$F$2*2)*((W30*D30)-(E30*D30))</f>
-        <v/>
-      </c>
-      <c r="AA59" s="54">
-        <f>((E30*D30)+Z30)</f>
-        <v/>
-      </c>
-      <c r="AB59" s="55">
-        <f>D30</f>
-        <v/>
-      </c>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <v/>
+      </c>
+      <c r="Z59" s="47" t="n"/>
+      <c r="AA59" s="47" t="n"/>
+      <c r="AB59" s="48" t="n"/>
       <c r="AC59" s="44">
-        <f>if(B30="DIV", F30,"")</f>
+        <f>if(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD59" s="56" t="inlineStr">
@@ -4961,7 +4888,7 @@
     </row>
     <row r="60">
       <c r="A60" s="57" t="n">
-        <v>44981</v>
+        <v>45034</v>
       </c>
       <c r="B60" s="58" t="inlineStr">
         <is>
@@ -4974,13 +4901,13 @@
         </is>
       </c>
       <c r="D60" s="60" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E60" s="42" t="n">
-        <v>333.751</v>
+        <v>347.95</v>
       </c>
       <c r="F60" s="42" t="n">
-        <v>3361.19</v>
+        <v>1752.1</v>
       </c>
       <c r="G60" s="60" t="inlineStr">
         <is>
@@ -4988,10 +4915,10 @@
         </is>
       </c>
       <c r="H60" s="60" t="n">
-        <v>3.34</v>
+        <v>1.74</v>
       </c>
       <c r="I60" s="60" t="n">
-        <v>20.35</v>
+        <v>10.61</v>
       </c>
       <c r="J60" s="42">
         <f>Index!$C$2</f>
@@ -4999,41 +4926,41 @@
       </c>
       <c r="K60" s="47" t="n"/>
       <c r="L60" s="47">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M60" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N60" s="62">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O60" s="61" t="n"/>
       <c r="P60" s="47">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q60" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R60" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S60" s="61" t="n"/>
       <c r="T60" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*sum(H31:I31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
         <v/>
       </c>
       <c r="U60" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V60" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="W60" s="53" t="n">
@@ -5043,23 +4970,23 @@
         <v>45316</v>
       </c>
       <c r="Y60" s="46">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
         <v/>
       </c>
       <c r="Z60" s="54">
-        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
+        <f>(1-Index!$F$2*2)*((W30*D30)-(E30*D30))</f>
         <v/>
       </c>
       <c r="AA60" s="54">
-        <f>((E31*D31)+Z31)</f>
+        <f>((E30*D30)+Z30)</f>
         <v/>
       </c>
       <c r="AB60" s="55">
-        <f>D31</f>
+        <f>D30</f>
         <v/>
       </c>
       <c r="AC60" s="44">
-        <f>if(B31="DIV", F31,"")</f>
+        <f>if(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD60" s="56" t="inlineStr">
@@ -5070,11 +4997,11 @@
     </row>
     <row r="61">
       <c r="A61" s="57" t="n">
-        <v>44974</v>
+        <v>44981</v>
       </c>
       <c r="B61" s="58" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C61" s="58" t="inlineStr">
@@ -5086,21 +5013,21 @@
         <v>10</v>
       </c>
       <c r="E61" s="42" t="n">
-        <v>6</v>
+        <v>333.751</v>
       </c>
       <c r="F61" s="42" t="n">
-        <v>60</v>
+        <v>3361.19</v>
       </c>
       <c r="G61" s="60" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.6.0000/- per share on Ex-Date: 17-FEB-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H61" s="60" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="I61" s="60" t="n">
-        <v>0</v>
+        <v>20.35</v>
       </c>
       <c r="J61" s="42">
         <f>Index!$C$2</f>
@@ -5108,54 +5035,67 @@
       </c>
       <c r="K61" s="47" t="n"/>
       <c r="L61" s="47">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M61" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N61" s="62">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O61" s="61" t="n"/>
       <c r="P61" s="47">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q61" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R61" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S61" s="61" t="n"/>
       <c r="T61" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*sum(H32:I32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*sum(H31:I31)), "")</f>
         <v/>
       </c>
       <c r="U61" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V61" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
-        <v/>
-      </c>
-      <c r="W61" s="47" t="n"/>
-      <c r="X61" s="47" t="n"/>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <v/>
+      </c>
+      <c r="W61" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="X61" s="50" t="n">
+        <v>45316</v>
+      </c>
       <c r="Y61" s="46">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
-        <v/>
-      </c>
-      <c r="Z61" s="47" t="n"/>
-      <c r="AA61" s="47" t="n"/>
-      <c r="AB61" s="48" t="n"/>
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
+        <v/>
+      </c>
+      <c r="Z61" s="54">
+        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
+        <v/>
+      </c>
+      <c r="AA61" s="54">
+        <f>((E31*D31)+Z31)</f>
+        <v/>
+      </c>
+      <c r="AB61" s="55">
+        <f>D31</f>
+        <v/>
+      </c>
       <c r="AC61" s="44">
-        <f>if(B32="DIV", F32,"")</f>
+        <f>if(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD61" s="56" t="inlineStr">
@@ -5166,11 +5106,11 @@
     </row>
     <row r="62">
       <c r="A62" s="57" t="n">
-        <v>44953</v>
+        <v>44974</v>
       </c>
       <c r="B62" s="58" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C62" s="58" t="inlineStr">
@@ -5182,21 +5122,21 @@
         <v>10</v>
       </c>
       <c r="E62" s="42" t="n">
-        <v>332.597</v>
+        <v>6</v>
       </c>
       <c r="F62" s="42" t="n">
-        <v>3349.53</v>
+        <v>60</v>
       </c>
       <c r="G62" s="60" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.6.0000/- per share on Ex-Date: 17-FEB-2023</t>
         </is>
       </c>
       <c r="H62" s="60" t="n">
-        <v>3.29</v>
+        <v>0</v>
       </c>
       <c r="I62" s="60" t="n">
-        <v>20.24</v>
+        <v>0</v>
       </c>
       <c r="J62" s="42">
         <f>Index!$C$2</f>
@@ -5204,67 +5144,54 @@
       </c>
       <c r="K62" s="47" t="n"/>
       <c r="L62" s="47">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M62" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N62" s="62">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O62" s="61" t="n"/>
       <c r="P62" s="47">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q62" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R62" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S62" s="61" t="n"/>
       <c r="T62" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*sum(H33:I33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*sum(H32:I32)), "")</f>
         <v/>
       </c>
       <c r="U62" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V62" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
-        <v/>
-      </c>
-      <c r="W62" s="53" t="n">
-        <v>640.52</v>
-      </c>
-      <c r="X62" s="50" t="n">
-        <v>45316</v>
-      </c>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <v/>
+      </c>
+      <c r="W62" s="47" t="n"/>
+      <c r="X62" s="47" t="n"/>
       <c r="Y62" s="46">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
-        <v/>
-      </c>
-      <c r="Z62" s="54">
-        <f>(1-Index!$F$2*2)*((W33*D33)-(E33*D33))</f>
-        <v/>
-      </c>
-      <c r="AA62" s="54">
-        <f>((E33*D33)+Z33)</f>
-        <v/>
-      </c>
-      <c r="AB62" s="55">
-        <f>D33</f>
-        <v/>
-      </c>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
+        <v/>
+      </c>
+      <c r="Z62" s="47" t="n"/>
+      <c r="AA62" s="47" t="n"/>
+      <c r="AB62" s="48" t="n"/>
       <c r="AC62" s="44">
-        <f>if(B33="DIV", F33,"")</f>
+        <f>if(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD62" s="56" t="inlineStr">
@@ -5274,20 +5201,113 @@
       </c>
     </row>
     <row r="63">
-      <c r="E63" s="63" t="n"/>
-      <c r="F63" s="63" t="n"/>
-      <c r="G63" s="64" t="n"/>
-      <c r="J63" s="63" t="n"/>
-      <c r="K63" s="63" t="n"/>
-      <c r="L63" s="63" t="n"/>
-      <c r="M63" s="66" t="n"/>
-      <c r="W63" s="63" t="n"/>
-      <c r="X63" s="63" t="n"/>
-      <c r="Y63" s="63" t="n"/>
-      <c r="Z63" s="63" t="n"/>
-      <c r="AA63" s="63" t="n"/>
-      <c r="AB63" s="63" t="n"/>
-      <c r="AC63" s="63" t="n"/>
+      <c r="A63" s="57" t="n">
+        <v>44953</v>
+      </c>
+      <c r="B63" s="58" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C63" s="58" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D63" s="60" t="n">
+        <v>10</v>
+      </c>
+      <c r="E63" s="42" t="n">
+        <v>332.597</v>
+      </c>
+      <c r="F63" s="42" t="n">
+        <v>3349.53</v>
+      </c>
+      <c r="G63" s="60" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H63" s="60" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="I63" s="60" t="n">
+        <v>20.24</v>
+      </c>
+      <c r="J63" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K63" s="47" t="n"/>
+      <c r="L63" s="47">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <v/>
+      </c>
+      <c r="M63" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <v/>
+      </c>
+      <c r="N63" s="62">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <v/>
+      </c>
+      <c r="O63" s="61" t="n"/>
+      <c r="P63" s="47">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <v/>
+      </c>
+      <c r="Q63" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <v/>
+      </c>
+      <c r="R63" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <v/>
+      </c>
+      <c r="S63" s="61" t="n"/>
+      <c r="T63" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*sum(H33:I33)), "")</f>
+        <v/>
+      </c>
+      <c r="U63" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <v/>
+      </c>
+      <c r="V63" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <v/>
+      </c>
+      <c r="W63" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="X63" s="50" t="n">
+        <v>45316</v>
+      </c>
+      <c r="Y63" s="46">
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
+        <v/>
+      </c>
+      <c r="Z63" s="54">
+        <f>(1-Index!$F$2*2)*((W33*D33)-(E33*D33))</f>
+        <v/>
+      </c>
+      <c r="AA63" s="54">
+        <f>((E33*D33)+Z33)</f>
+        <v/>
+      </c>
+      <c r="AB63" s="55">
+        <f>D33</f>
+        <v/>
+      </c>
+      <c r="AC63" s="44">
+        <f>if(B33="DIV", F33,"")</f>
+        <v/>
+      </c>
+      <c r="AD63" s="56" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="E64" s="63" t="n"/>
@@ -20912,6 +20932,7 @@
       <c r="J1040" s="63" t="n"/>
       <c r="K1040" s="63" t="n"/>
       <c r="L1040" s="63" t="n"/>
+      <c r="M1040" s="66" t="n"/>
       <c r="W1040" s="63" t="n"/>
       <c r="X1040" s="63" t="n"/>
       <c r="Y1040" s="63" t="n"/>
@@ -21159,6 +21180,21 @@
       <c r="AA1056" s="63" t="n"/>
       <c r="AB1056" s="63" t="n"/>
       <c r="AC1056" s="63" t="n"/>
+    </row>
+    <row r="1057">
+      <c r="E1057" s="63" t="n"/>
+      <c r="F1057" s="63" t="n"/>
+      <c r="G1057" s="64" t="n"/>
+      <c r="J1057" s="63" t="n"/>
+      <c r="K1057" s="63" t="n"/>
+      <c r="L1057" s="63" t="n"/>
+      <c r="W1057" s="63" t="n"/>
+      <c r="X1057" s="63" t="n"/>
+      <c r="Y1057" s="63" t="n"/>
+      <c r="Z1057" s="63" t="n"/>
+      <c r="AA1057" s="63" t="n"/>
+      <c r="AB1057" s="63" t="n"/>
+      <c r="AC1057" s="63" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$104"/>

--- a/dumps/Stocks/Rites Ltd.xlsx
+++ b/dumps/Stocks/Rites Ltd.xlsx
@@ -787,7 +787,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1057"/>
+  <dimension ref="A1:AP1059"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="5">
       <c r="A5" s="99" t="n">
-        <v>45957</v>
+        <v>45981</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1154,18 +1154,18 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>245.88</v>
+        <v>249.966</v>
       </c>
       <c r="F5" t="n">
-        <v>2471.1</v>
+        <v>2512.16</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252607382790</t>
+          <t>CN#252608441505</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1174,11 +1174,11 @@
     </row>
     <row r="6">
       <c r="A6" s="99" t="n">
-        <v>46062</v>
+        <v>45979</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -1187,24 +1187,21 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>227.09</v>
+        <v>249.69</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>4574.07</v>
+        <v>2509.4</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252608322011</t>
         </is>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>4.54</v>
-      </c>
       <c r="I6" s="0" t="n">
-        <v>27.73</v>
+        <v>12.5</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1212,8 +1209,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="98" t="n">
-        <v>46057</v>
+      <c r="A7" s="99" t="n">
+        <v>45957</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1229,26 +1226,27 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>223.75</v>
+        <v>245.88</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2253.41</v>
+        <v>2471.1</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="H7" s="0" t="n">
-        <v>2.25</v>
-      </c>
       <c r="I7" s="0" t="n">
-        <v>13.66</v>
+        <v>12.3</v>
+      </c>
+      <c r="J7" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="98" t="n">
-        <v>46049</v>
+      <c r="A8" s="99" t="n">
+        <v>46062</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1261,33 +1259,37 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>218.46</v>
+        <v>227.09</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2200.07</v>
+        <v>4574.07</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>2.18</v>
+        <v>4.54</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>13.29</v>
+        <v>27.73</v>
+      </c>
+      <c r="J8" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="98" t="n">
-        <v>46015</v>
+        <v>46057</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -1299,10 +1301,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>243.55</v>
+        <v>223.75</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2452.82</v>
+        <v>2253.41</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1310,15 +1312,15 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>14.89</v>
+        <v>13.66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="98" t="n">
-        <v>46008</v>
+        <v>46049</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1334,10 +1336,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>224.2</v>
+        <v>218.46</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2257.89</v>
+        <v>2200.07</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1345,15 +1347,15 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>13.64</v>
+        <v>13.29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="98" t="n">
-        <v>46007</v>
+        <v>46015</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1369,10 +1371,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>226.9</v>
+        <v>243.55</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2285.06</v>
+        <v>2452.82</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1380,15 +1382,15 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>2.26</v>
+        <v>2.43</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>13.8</v>
+        <v>14.89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="98" t="n">
-        <v>46002</v>
+        <v>46008</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1404,10 +1406,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>224.95</v>
+        <v>224.2</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2265.39</v>
+        <v>2257.89</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1415,15 +1417,15 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>13.63</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="98" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1439,10 +1441,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>225</v>
+        <v>226.9</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>2266.03</v>
+        <v>2285.06</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1453,12 +1455,12 @@
         <v>2.26</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>13.77</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="98" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1471,13 +1473,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>228.26</v>
+        <v>224.95</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>13102.98</v>
+        <v>2265.39</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1485,19 +1487,19 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>12.97</v>
+        <v>2.26</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>79.19</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="98" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -1506,13 +1508,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>228.25</v>
+        <v>225</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>689.6</v>
+        <v>2266.03</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1520,19 +1522,19 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.26</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>4.16</v>
+        <v>13.77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="98" t="n">
-        <v>45982</v>
+        <v>45996</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -1541,13 +1543,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>249.8</v>
+        <v>228.26</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>2515.74</v>
+        <v>13102.98</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1555,15 +1557,15 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>2.5</v>
+        <v>12.97</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>15.24</v>
+        <v>79.19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="98" t="n">
-        <v>45981</v>
+        <v>45996</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1576,13 +1578,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>249.97</v>
+        <v>228.25</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>2265.67</v>
+        <v>689.6</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1590,19 +1592,19 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>2.24</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>13.7</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="98" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -1611,13 +1613,13 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>249.93</v>
+        <v>249.8</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>251.7</v>
+        <v>2515.74</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1625,19 +1627,19 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>1.52</v>
+        <v>15.24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="98" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -1646,13 +1648,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>249.6</v>
+        <v>249.97</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>251.37</v>
+        <v>2265.67</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1660,19 +1662,19 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.25</v>
+        <v>2.24</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>1.52</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="98" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -1681,13 +1683,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>249.7</v>
+        <v>249.93</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>2263.26</v>
+        <v>251.7</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1695,19 +1697,19 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>2.26</v>
+        <v>0.25</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>13.7</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="98" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1716,13 +1718,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>248.38</v>
+        <v>249.6</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>5002.78</v>
+        <v>251.37</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1730,15 +1732,15 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>4.99</v>
+        <v>0.25</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>30.19</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="98" t="n">
-        <v>45975</v>
+        <v>45979</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
@@ -1751,13 +1753,13 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>243.9</v>
+        <v>249.7</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>2456.31</v>
+        <v>2263.26</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1765,19 +1767,19 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>2.44</v>
+        <v>2.26</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>14.87</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="98" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -1786,33 +1788,33 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>2</v>
+        <v>248.38</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>160</v>
+        <v>5002.78</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.2.0000/- per share on Ex-Date: 14-NOV-2025  Interim-Dividend of Rs.2.0000/- per share on Ex-Date: 14-NOV-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0</v>
+        <v>4.99</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>0</v>
+        <v>30.19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="98" t="n">
-        <v>45959</v>
+        <v>45975</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
@@ -1824,10 +1826,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>244.95</v>
+        <v>243.9</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>2466.81</v>
+        <v>2456.31</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1843,11 +1845,11 @@
     </row>
     <row r="25">
       <c r="A25" s="98" t="n">
-        <v>45957</v>
+        <v>45975</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
@@ -1856,29 +1858,29 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>245.88</v>
+        <v>2</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>247.63</v>
+        <v>160</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.2.0000/- per share on Ex-Date: 14-NOV-2025  Interim-Dividend of Rs.2.0000/- per share on Ex-Date: 14-NOV-2025</t>
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="98" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
@@ -1891,13 +1893,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>245.88</v>
+        <v>244.95</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1981.01</v>
+        <v>2466.81</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1905,10 +1907,10 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>1.97</v>
+        <v>2.44</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>12</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="27">
@@ -1948,7 +1950,7 @@
     </row>
     <row r="28">
       <c r="A28" s="98" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
@@ -1961,13 +1963,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>247.5</v>
+        <v>245.88</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1744.82</v>
+        <v>1981.01</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1975,15 +1977,15 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>1.74</v>
+        <v>1.97</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>10.58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="98" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
@@ -1996,13 +1998,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>247.5</v>
+        <v>245.88</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>747.75</v>
+        <v>247.63</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -2010,15 +2012,15 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.74</v>
+        <v>0.25</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>4.51</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="98" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
@@ -2031,13 +2033,13 @@
         </is>
       </c>
       <c r="D30" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>247.99</v>
+        <v>247.5</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>2247.71</v>
+        <v>1744.82</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -2045,15 +2047,15 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>2.22</v>
+        <v>1.74</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>13.58</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="98" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
@@ -2066,13 +2068,13 @@
         </is>
       </c>
       <c r="D31" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>247.99</v>
+        <v>247.5</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>249.75</v>
+        <v>747.75</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
@@ -2080,19 +2082,19 @@
         </is>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.25</v>
+        <v>0.74</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>1.51</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="98" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
@@ -2101,13 +2103,13 @@
         </is>
       </c>
       <c r="D32" s="0" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>247.05</v>
+        <v>247.99</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>4976.18</v>
+        <v>2247.71</v>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
@@ -2115,19 +2117,19 @@
         </is>
       </c>
       <c r="H32" s="0" t="n">
-        <v>4.94</v>
+        <v>2.22</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>30.24</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="98" t="n">
-        <v>45917</v>
+        <v>45953</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C33" s="0" t="inlineStr">
@@ -2136,29 +2138,29 @@
         </is>
       </c>
       <c r="D33" s="0" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>2.65</v>
+        <v>247.99</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>53</v>
+        <v>249.75</v>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.2.6500/- per share on Ex-Date: 17-SEP-2025  Final-Dividend of Rs.2.6500/- per share on Ex-Date: 17-SEP-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="98" t="n">
-        <v>45897</v>
+        <v>45950</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
@@ -2171,13 +2173,13 @@
         </is>
       </c>
       <c r="D34" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>246.85</v>
+        <v>247.05</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>2486</v>
+        <v>4976.18</v>
       </c>
       <c r="G34" s="0" t="inlineStr">
         <is>
@@ -2185,211 +2187,89 @@
         </is>
       </c>
       <c r="H34" s="0" t="n">
-        <v>2.47</v>
+        <v>4.94</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>15.03</v>
+        <v>30.24</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B35" s="39" t="inlineStr">
+      <c r="A35" s="98" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="G35" s="0" t="inlineStr">
+        <is>
+          <t>Final-Dividend of Rs.2.6500/- per share on Ex-Date: 17-SEP-2025  Final-Dividend of Rs.2.6500/- per share on Ex-Date: 17-SEP-2025</t>
+        </is>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="98" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C35" s="39" t="inlineStr">
+      <c r="C36" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D35" s="40" t="n">
-        <v>20</v>
-      </c>
-      <c r="E35" s="41" t="n">
-        <v>248.81</v>
-      </c>
-      <c r="F35" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G35" s="39" t="inlineStr">
+      <c r="D36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>246.85</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>2486</v>
+      </c>
+      <c r="G36" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H35" s="40" t="n"/>
-      <c r="I35" s="40" t="n"/>
-      <c r="J35" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K35" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L35" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M35" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N35" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O35" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P35" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q35" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R35" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S35" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T35" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U35" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V35" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W35" s="47" t="n"/>
-      <c r="X35" s="47" t="n"/>
-      <c r="Y35" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z35" s="47" t="n"/>
-      <c r="AA35" s="47" t="n"/>
-      <c r="AB35" s="48" t="n"/>
-      <c r="AC35" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD35" s="49" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="38" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B36" s="39" t="inlineStr">
-        <is>
-          <t>DIV</t>
-        </is>
-      </c>
-      <c r="C36" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D36" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E36" s="41" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F36" s="41">
-        <f>(D6*E6)</f>
-        <v/>
-      </c>
-      <c r="G36" s="39" t="n"/>
-      <c r="H36" s="40" t="n"/>
-      <c r="I36" s="40" t="n"/>
-      <c r="J36" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K36" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L36" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M36" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N36" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O36" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P36" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q36" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R36" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S36" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T36" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U36" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V36" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W36" s="47" t="n"/>
-      <c r="X36" s="47" t="n"/>
-      <c r="Y36" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z36" s="47" t="n"/>
-      <c r="AA36" s="47" t="n"/>
-      <c r="AB36" s="48" t="n"/>
-      <c r="AC36" s="44">
-        <f>if(B6="DIV", F6,"")</f>
-        <v/>
-      </c>
-      <c r="AD36" s="49" t="n"/>
+      <c r="H36" s="0" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>15.03</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="38" t="n">
-        <v>45917</v>
+        <v>45950</v>
       </c>
       <c r="B37" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C37" s="39" t="inlineStr">
@@ -2398,16 +2278,20 @@
         </is>
       </c>
       <c r="D37" s="40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E37" s="41" t="n">
-        <v>2.65</v>
+        <v>248.81</v>
       </c>
       <c r="F37" s="41">
-        <f>(D7*E7)</f>
-        <v/>
-      </c>
-      <c r="G37" s="39" t="n"/>
+        <f>D5*E5</f>
+        <v/>
+      </c>
+      <c r="G37" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
       <c r="H37" s="40" t="n"/>
       <c r="I37" s="40" t="n"/>
       <c r="J37" s="42">
@@ -2415,75 +2299,75 @@
         <v/>
       </c>
       <c r="K37" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L37" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M37" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N37" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O37" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P37" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R37" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S37" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T37" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U37" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V37" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W37" s="47" t="n"/>
       <c r="X37" s="47" t="n"/>
       <c r="Y37" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z37" s="47" t="n"/>
       <c r="AA37" s="47" t="n"/>
       <c r="AB37" s="48" t="n"/>
       <c r="AC37" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD37" s="49" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="38" t="n">
-        <v>45897</v>
+        <v>45917</v>
       </c>
       <c r="B38" s="39" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C38" s="39" t="inlineStr">
@@ -2495,92 +2379,85 @@
         <v>10</v>
       </c>
       <c r="E38" s="41" t="n">
-        <v>248.6</v>
-      </c>
-      <c r="F38" s="41" t="n">
-        <v>2486</v>
-      </c>
-      <c r="G38" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H38" s="40" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="I38" s="40" t="n">
-        <v>15.03</v>
-      </c>
+        <v>2.65</v>
+      </c>
+      <c r="F38" s="41">
+        <f>(D6*E6)</f>
+        <v/>
+      </c>
+      <c r="G38" s="39" t="n"/>
+      <c r="H38" s="40" t="n"/>
+      <c r="I38" s="40" t="n"/>
       <c r="J38" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L38" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M38" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N38" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O38" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P38" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R38" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S38" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T38" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U38" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V38" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W38" s="47" t="n"/>
       <c r="X38" s="47" t="n"/>
       <c r="Y38" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z38" s="47" t="n"/>
       <c r="AA38" s="47" t="n"/>
       <c r="AB38" s="48" t="n"/>
       <c r="AC38" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD38" s="49" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="38" t="n">
-        <v>45881</v>
+        <v>45917</v>
       </c>
       <c r="B39" s="39" t="inlineStr">
         <is>
@@ -2596,111 +2473,104 @@
         <v>10</v>
       </c>
       <c r="E39" s="41" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="F39" s="41" t="n">
-        <v>13</v>
-      </c>
-      <c r="G39" s="39" t="inlineStr">
-        <is>
-          <t>Interim-Dividend of Rs.1.3000/- per share on Ex-Date: 12-AUG-2025</t>
-        </is>
-      </c>
-      <c r="H39" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="40" t="n">
-        <v>0</v>
-      </c>
+        <v>2.65</v>
+      </c>
+      <c r="F39" s="41">
+        <f>(D7*E7)</f>
+        <v/>
+      </c>
+      <c r="G39" s="39" t="n"/>
+      <c r="H39" s="40" t="n"/>
+      <c r="I39" s="40" t="n"/>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L39" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M39" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N39" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O39" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P39" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R39" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S39" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T39" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U39" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V39" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W39" s="47" t="n"/>
       <c r="X39" s="47" t="n"/>
       <c r="Y39" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z39" s="47" t="n"/>
       <c r="AA39" s="47" t="n"/>
       <c r="AB39" s="48" t="n"/>
       <c r="AC39" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD39" s="49" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="38" t="n">
-        <v>45820</v>
+        <v>45897</v>
       </c>
       <c r="B40" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C40" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D40" s="40" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E40" s="41" t="n">
-        <v>301.79</v>
+        <v>248.6</v>
       </c>
       <c r="F40" s="41" t="n">
-        <v>30179.17</v>
+        <v>2486</v>
       </c>
       <c r="G40" s="39" t="inlineStr">
         <is>
@@ -2708,85 +2578,85 @@
         </is>
       </c>
       <c r="H40" s="40" t="n">
-        <v>30.34</v>
+        <v>2.47</v>
       </c>
       <c r="I40" s="40" t="n">
-        <v>180.49</v>
+        <v>15.03</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L40" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M40" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N40" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O40" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P40" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R40" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S40" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T40" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U40" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V40" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W40" s="47" t="n"/>
       <c r="X40" s="47" t="n"/>
       <c r="Y40" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z40" s="47" t="n"/>
       <c r="AA40" s="47" t="n"/>
       <c r="AB40" s="48" t="n"/>
       <c r="AC40" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD40" s="49" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="38" t="n">
-        <v>45811</v>
+        <v>45881</v>
       </c>
       <c r="B41" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C41" s="39" t="inlineStr">
@@ -2798,328 +2668,294 @@
         <v>10</v>
       </c>
       <c r="E41" s="41" t="n">
-        <v>283.65</v>
+        <v>1.3</v>
       </c>
       <c r="F41" s="41" t="n">
-        <v>2836.5</v>
+        <v>13</v>
       </c>
       <c r="G41" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.3000/- per share on Ex-Date: 12-AUG-2025</t>
         </is>
       </c>
       <c r="H41" s="40" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="I41" s="40" t="n">
-        <v>17.18</v>
+        <v>0</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L41" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M41" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N41" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O41" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P41" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R41" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S41" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T41" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U41" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V41" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W41" s="47" t="n"/>
       <c r="X41" s="47" t="n"/>
       <c r="Y41" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z41" s="47" t="n"/>
       <c r="AA41" s="47" t="n"/>
       <c r="AB41" s="48" t="n"/>
       <c r="AC41" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD41" s="49" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="50" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B42" s="51" t="inlineStr">
+      <c r="A42" s="38" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B42" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C42" s="51" t="inlineStr">
+      <c r="C42" s="39" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D42" s="40" t="n">
+        <v>100</v>
+      </c>
+      <c r="E42" s="41" t="n">
+        <v>301.79</v>
+      </c>
+      <c r="F42" s="41" t="n">
+        <v>30179.17</v>
+      </c>
+      <c r="G42" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H42" s="40" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="I42" s="40" t="n">
+        <v>180.49</v>
+      </c>
+      <c r="J42" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K42" s="43">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="L42" s="44">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <v/>
+      </c>
+      <c r="M42" s="44">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <v/>
+      </c>
+      <c r="N42" s="45">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <v/>
+      </c>
+      <c r="O42" s="43">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="P42" s="44">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <v/>
+      </c>
+      <c r="Q42" s="44">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <v/>
+      </c>
+      <c r="R42" s="44">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <v/>
+      </c>
+      <c r="S42" s="46">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="T42" s="47">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <v/>
+      </c>
+      <c r="U42" s="47">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <v/>
+      </c>
+      <c r="V42" s="47">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <v/>
+      </c>
+      <c r="W42" s="47" t="n"/>
+      <c r="X42" s="47" t="n"/>
+      <c r="Y42" s="46">
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="Z42" s="47" t="n"/>
+      <c r="AA42" s="47" t="n"/>
+      <c r="AB42" s="48" t="n"/>
+      <c r="AC42" s="44">
+        <f>if(B10="DIV", F10,"")</f>
+        <v/>
+      </c>
+      <c r="AD42" s="49" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B43" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C43" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D42" s="52" t="n">
-        <v>23</v>
-      </c>
-      <c r="E42" s="53" t="n">
-        <v>214.56</v>
-      </c>
-      <c r="F42" s="53" t="n">
-        <v>4934.98</v>
-      </c>
-      <c r="G42" s="51" t="inlineStr">
+      <c r="D43" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E43" s="41" t="n">
+        <v>283.65</v>
+      </c>
+      <c r="F43" s="41" t="n">
+        <v>2836.5</v>
+      </c>
+      <c r="G43" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H42" s="52" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="I42" s="52" t="n">
-        <v>29.94</v>
-      </c>
-      <c r="J42" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K42" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="L42" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v/>
-      </c>
-      <c r="M42" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
-        <v/>
-      </c>
-      <c r="N42" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
-        <v/>
-      </c>
-      <c r="O42" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="P42" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v/>
-      </c>
-      <c r="Q42" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
-        <v/>
-      </c>
-      <c r="R42" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
-        <v/>
-      </c>
-      <c r="S42" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="T42" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v/>
-      </c>
-      <c r="U42" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
-        <v/>
-      </c>
-      <c r="V42" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
-        <v/>
-      </c>
-      <c r="W42" s="41" t="n">
-        <v>301.79</v>
-      </c>
-      <c r="X42" s="38" t="n">
-        <v>45820</v>
-      </c>
-      <c r="Y42" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="Z42" s="54">
-        <f>(1-Index!$F$2*2)*((W12*D12)-(E12*D12))</f>
-        <v/>
-      </c>
-      <c r="AA42" s="54">
-        <f>((E12*D12)+Z12)</f>
-        <v/>
-      </c>
-      <c r="AB42" s="55">
-        <f>D12</f>
-        <v/>
-      </c>
-      <c r="AC42" s="44">
-        <f>if(B12="DIV", F12,"")</f>
-        <v/>
-      </c>
-      <c r="AD42" s="56" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="50" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B43" s="51" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C43" s="51" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D43" s="52" t="n">
-        <v>7</v>
-      </c>
-      <c r="E43" s="53" t="n">
-        <v>214.56</v>
-      </c>
-      <c r="F43" s="53" t="n">
-        <v>1501.94</v>
-      </c>
-      <c r="G43" s="51" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H43" s="52" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="I43" s="52" t="n">
-        <v>9.1</v>
+      <c r="H43" s="40" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I43" s="40" t="n">
+        <v>17.18</v>
       </c>
       <c r="J43" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L43" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M43" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N43" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O43" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P43" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R43" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S43" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T43" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U43" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V43" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
-        <v/>
-      </c>
-      <c r="W43" s="41" t="n">
-        <v>301.79</v>
-      </c>
-      <c r="X43" s="38" t="n">
-        <v>45820</v>
-      </c>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="W43" s="47" t="n"/>
+      <c r="X43" s="47" t="n"/>
       <c r="Y43" s="46">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
-        <v/>
-      </c>
-      <c r="Z43" s="54">
-        <f>(1-Index!$F$2*2)*((W13*D13)-(E13*D13))</f>
-        <v/>
-      </c>
-      <c r="AA43" s="54">
-        <f>((E13*D13)+Z13)</f>
-        <v/>
-      </c>
-      <c r="AB43" s="55">
-        <f>D13</f>
-        <v/>
-      </c>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="Z43" s="47" t="n"/>
+      <c r="AA43" s="47" t="n"/>
+      <c r="AB43" s="48" t="n"/>
       <c r="AC43" s="44">
-        <f>if(B13="DIV", F13,"")</f>
-        <v/>
-      </c>
-      <c r="AD43" s="56" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B11="DIV", F11,"")</f>
+        <v/>
+      </c>
+      <c r="AD43" s="49" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="50" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B44" s="51" t="inlineStr">
         <is>
@@ -3132,13 +2968,13 @@
         </is>
       </c>
       <c r="D44" s="52" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E44" s="53" t="n">
-        <v>202.73</v>
+        <v>214.56</v>
       </c>
       <c r="F44" s="53" t="n">
-        <v>2635.5</v>
+        <v>4934.98</v>
       </c>
       <c r="G44" s="51" t="inlineStr">
         <is>
@@ -3146,61 +2982,61 @@
         </is>
       </c>
       <c r="H44" s="52" t="n">
-        <v>2.62</v>
+        <v>4.89</v>
       </c>
       <c r="I44" s="52" t="n">
-        <v>15.98</v>
+        <v>29.94</v>
       </c>
       <c r="J44" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L44" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M44" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N44" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O44" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P44" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R44" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S44" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T44" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U44" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V44" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W44" s="41" t="n">
@@ -3210,23 +3046,23 @@
         <v>45820</v>
       </c>
       <c r="Y44" s="46">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z44" s="54">
-        <f>(1-Index!$F$2*2)*((W14*D14)-(E14*D14))</f>
+        <f>(1-Index!$F$2*2)*((W12*D12)-(E12*D12))</f>
         <v/>
       </c>
       <c r="AA44" s="54">
-        <f>((E14*D14)+Z14)</f>
+        <f>((E12*D12)+Z12)</f>
         <v/>
       </c>
       <c r="AB44" s="55">
-        <f>D14</f>
+        <f>D12</f>
         <v/>
       </c>
       <c r="AC44" s="44">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD44" s="56" t="inlineStr">
@@ -3237,7 +3073,7 @@
     </row>
     <row r="45">
       <c r="A45" s="50" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B45" s="51" t="inlineStr">
         <is>
@@ -3250,13 +3086,13 @@
         </is>
       </c>
       <c r="D45" s="52" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E45" s="53" t="n">
-        <v>202.73</v>
+        <v>214.56</v>
       </c>
       <c r="F45" s="53" t="n">
-        <v>2635.5</v>
+        <v>1501.94</v>
       </c>
       <c r="G45" s="51" t="inlineStr">
         <is>
@@ -3264,61 +3100,61 @@
         </is>
       </c>
       <c r="H45" s="52" t="n">
-        <v>2.62</v>
+        <v>1.49</v>
       </c>
       <c r="I45" s="52" t="n">
-        <v>15.98</v>
+        <v>9.1</v>
       </c>
       <c r="J45" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L45" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M45" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N45" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O45" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P45" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R45" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S45" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T45" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U45" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V45" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W45" s="41" t="n">
@@ -3328,23 +3164,23 @@
         <v>45820</v>
       </c>
       <c r="Y45" s="46">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z45" s="54">
-        <f>(1-Index!$F$2*2)*((W15*D15)-(E15*D15))</f>
+        <f>(1-Index!$F$2*2)*((W13*D13)-(E13*D13))</f>
         <v/>
       </c>
       <c r="AA45" s="54">
-        <f>((E15*D15)+Z15)</f>
+        <f>((E13*D13)+Z13)</f>
         <v/>
       </c>
       <c r="AB45" s="55">
-        <f>D15</f>
+        <f>D13</f>
         <v/>
       </c>
       <c r="AC45" s="44">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD45" s="56" t="inlineStr">
@@ -3368,13 +3204,13 @@
         </is>
       </c>
       <c r="D46" s="52" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E46" s="53" t="n">
         <v>202.73</v>
       </c>
       <c r="F46" s="53" t="n">
-        <v>608.1799999999999</v>
+        <v>2635.5</v>
       </c>
       <c r="G46" s="51" t="inlineStr">
         <is>
@@ -3382,61 +3218,61 @@
         </is>
       </c>
       <c r="H46" s="52" t="n">
-        <v>0.6</v>
+        <v>2.62</v>
       </c>
       <c r="I46" s="52" t="n">
-        <v>3.68</v>
+        <v>15.98</v>
       </c>
       <c r="J46" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L46" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M46" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N46" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O46" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P46" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R46" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S46" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T46" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U46" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V46" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W46" s="41" t="n">
@@ -3446,23 +3282,23 @@
         <v>45820</v>
       </c>
       <c r="Y46" s="46">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z46" s="54">
-        <f>(1-Index!$F$2*2)*((W16*D16)-(E16*D16))</f>
+        <f>(1-Index!$F$2*2)*((W14*D14)-(E14*D14))</f>
         <v/>
       </c>
       <c r="AA46" s="54">
-        <f>((E16*D16)+Z16)</f>
+        <f>((E14*D14)+Z14)</f>
         <v/>
       </c>
       <c r="AB46" s="55">
-        <f>D16</f>
+        <f>D14</f>
         <v/>
       </c>
       <c r="AC46" s="44">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD46" s="56" t="inlineStr">
@@ -3486,13 +3322,13 @@
         </is>
       </c>
       <c r="D47" s="52" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E47" s="53" t="n">
         <v>202.73</v>
       </c>
       <c r="F47" s="53" t="n">
-        <v>608.1799999999999</v>
+        <v>2635.5</v>
       </c>
       <c r="G47" s="51" t="inlineStr">
         <is>
@@ -3500,61 +3336,61 @@
         </is>
       </c>
       <c r="H47" s="52" t="n">
-        <v>0.6</v>
+        <v>2.62</v>
       </c>
       <c r="I47" s="52" t="n">
-        <v>3.68</v>
+        <v>15.98</v>
       </c>
       <c r="J47" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L47" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M47" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N47" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O47" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P47" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R47" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S47" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T47" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U47" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V47" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W47" s="41" t="n">
@@ -3564,23 +3400,23 @@
         <v>45820</v>
       </c>
       <c r="Y47" s="46">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z47" s="54">
-        <f>(1-Index!$F$2*2)*((W17*D17)-(E17*D17))</f>
+        <f>(1-Index!$F$2*2)*((W15*D15)-(E15*D15))</f>
         <v/>
       </c>
       <c r="AA47" s="54">
-        <f>((E17*D17)+Z17)</f>
+        <f>((E15*D15)+Z15)</f>
         <v/>
       </c>
       <c r="AB47" s="55">
-        <f>D17</f>
+        <f>D15</f>
         <v/>
       </c>
       <c r="AC47" s="44">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD47" s="56" t="inlineStr">
@@ -3604,13 +3440,13 @@
         </is>
       </c>
       <c r="D48" s="52" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E48" s="53" t="n">
         <v>202.73</v>
       </c>
       <c r="F48" s="53" t="n">
-        <v>2635.5</v>
+        <v>608.1799999999999</v>
       </c>
       <c r="G48" s="51" t="inlineStr">
         <is>
@@ -3618,61 +3454,61 @@
         </is>
       </c>
       <c r="H48" s="52" t="n">
-        <v>2.62</v>
+        <v>0.6</v>
       </c>
       <c r="I48" s="52" t="n">
-        <v>15.98</v>
+        <v>3.68</v>
       </c>
       <c r="J48" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L48" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M48" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N48" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O48" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P48" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R48" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S48" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T48" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U48" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V48" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W48" s="41" t="n">
@@ -3682,23 +3518,23 @@
         <v>45820</v>
       </c>
       <c r="Y48" s="46">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z48" s="54">
-        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
+        <f>(1-Index!$F$2*2)*((W16*D16)-(E16*D16))</f>
         <v/>
       </c>
       <c r="AA48" s="54">
-        <f>((E18*D18)+Z18)</f>
+        <f>((E16*D16)+Z16)</f>
         <v/>
       </c>
       <c r="AB48" s="55">
-        <f>D18</f>
+        <f>D16</f>
         <v/>
       </c>
       <c r="AC48" s="44">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD48" s="56" t="inlineStr">
@@ -3709,7 +3545,7 @@
     </row>
     <row r="49">
       <c r="A49" s="50" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B49" s="51" t="inlineStr">
         <is>
@@ -3722,13 +3558,13 @@
         </is>
       </c>
       <c r="D49" s="52" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E49" s="53" t="n">
-        <v>223.07</v>
+        <v>202.73</v>
       </c>
       <c r="F49" s="53" t="n">
-        <v>4461.44</v>
+        <v>608.1799999999999</v>
       </c>
       <c r="G49" s="51" t="inlineStr">
         <is>
@@ -3736,61 +3572,61 @@
         </is>
       </c>
       <c r="H49" s="52" t="n">
-        <v>4.43</v>
+        <v>0.6</v>
       </c>
       <c r="I49" s="52" t="n">
-        <v>27.01</v>
+        <v>3.68</v>
       </c>
       <c r="J49" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L49" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M49" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N49" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O49" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P49" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R49" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S49" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T49" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U49" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V49" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W49" s="41" t="n">
@@ -3800,23 +3636,23 @@
         <v>45820</v>
       </c>
       <c r="Y49" s="46">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z49" s="54">
-        <f>(1-Index!$F$2*2)*((W19*D19)-(E19*D19))</f>
+        <f>(1-Index!$F$2*2)*((W17*D17)-(E17*D17))</f>
         <v/>
       </c>
       <c r="AA49" s="54">
-        <f>((E19*D19)+Z19)</f>
+        <f>((E17*D17)+Z17)</f>
         <v/>
       </c>
       <c r="AB49" s="55">
-        <f>D19</f>
+        <f>D17</f>
         <v/>
       </c>
       <c r="AC49" s="44">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD49" s="56" t="inlineStr">
@@ -3827,7 +3663,7 @@
     </row>
     <row r="50">
       <c r="A50" s="50" t="n">
-        <v>45694</v>
+        <v>45705</v>
       </c>
       <c r="B50" s="51" t="inlineStr">
         <is>
@@ -3840,13 +3676,13 @@
         </is>
       </c>
       <c r="D50" s="52" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E50" s="53" t="n">
-        <v>237.07</v>
+        <v>202.73</v>
       </c>
       <c r="F50" s="53" t="n">
-        <v>1185.36</v>
+        <v>2635.5</v>
       </c>
       <c r="G50" s="51" t="inlineStr">
         <is>
@@ -3854,61 +3690,61 @@
         </is>
       </c>
       <c r="H50" s="52" t="n">
-        <v>1.18</v>
+        <v>2.62</v>
       </c>
       <c r="I50" s="52" t="n">
-        <v>7.18</v>
+        <v>15.98</v>
       </c>
       <c r="J50" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L50" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M50" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N50" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O50" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P50" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R50" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S50" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T50" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U50" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V50" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W50" s="41" t="n">
@@ -3918,23 +3754,23 @@
         <v>45820</v>
       </c>
       <c r="Y50" s="46">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z50" s="54">
-        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
+        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
         <v/>
       </c>
       <c r="AA50" s="54">
-        <f>((E20*D20)+Z20)</f>
+        <f>((E18*D18)+Z18)</f>
         <v/>
       </c>
       <c r="AB50" s="55">
-        <f>D20</f>
+        <f>D18</f>
         <v/>
       </c>
       <c r="AC50" s="44">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD50" s="56" t="inlineStr">
@@ -3945,7 +3781,7 @@
     </row>
     <row r="51">
       <c r="A51" s="50" t="n">
-        <v>45316</v>
+        <v>45699</v>
       </c>
       <c r="B51" s="51" t="inlineStr">
         <is>
@@ -3954,17 +3790,17 @@
       </c>
       <c r="C51" s="51" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D51" s="52" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E51" s="53" t="n">
-        <v>640.52</v>
+        <v>223.07</v>
       </c>
       <c r="F51" s="53" t="n">
-        <v>32025.84</v>
+        <v>4461.44</v>
       </c>
       <c r="G51" s="51" t="inlineStr">
         <is>
@@ -3972,175 +3808,205 @@
         </is>
       </c>
       <c r="H51" s="52" t="n">
-        <v>32.26</v>
+        <v>4.43</v>
       </c>
       <c r="I51" s="52" t="n">
-        <v>191.9</v>
+        <v>27.01</v>
       </c>
       <c r="J51" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L51" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M51" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N51" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O51" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P51" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R51" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S51" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T51" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U51" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V51" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
-        <v/>
-      </c>
-      <c r="W51" s="47" t="n"/>
-      <c r="X51" s="47" t="n"/>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <v/>
+      </c>
+      <c r="W51" s="41" t="n">
+        <v>301.79</v>
+      </c>
+      <c r="X51" s="38" t="n">
+        <v>45820</v>
+      </c>
       <c r="Y51" s="46">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
-        <v/>
-      </c>
-      <c r="Z51" s="47" t="n"/>
-      <c r="AA51" s="47" t="n"/>
-      <c r="AB51" s="48" t="n"/>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="Z51" s="54">
+        <f>(1-Index!$F$2*2)*((W19*D19)-(E19*D19))</f>
+        <v/>
+      </c>
+      <c r="AA51" s="54">
+        <f>((E19*D19)+Z19)</f>
+        <v/>
+      </c>
+      <c r="AB51" s="55">
+        <f>D19</f>
+        <v/>
+      </c>
       <c r="AC51" s="44">
-        <f>if(B21="DIV", F21,"")</f>
-        <v/>
-      </c>
-      <c r="AD51" s="49" t="n"/>
+        <f>if(B19="DIV", F19,"")</f>
+        <v/>
+      </c>
+      <c r="AD51" s="56" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="57" t="n">
-        <v>45238</v>
-      </c>
-      <c r="B52" s="58" t="inlineStr">
+      <c r="A52" s="50" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B52" s="51" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
-      <c r="C52" s="58" t="inlineStr">
+      <c r="C52" s="51" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D52" s="60" t="n">
-        <v>50</v>
-      </c>
-      <c r="E52" s="42" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F52" s="42" t="n">
-        <v>225</v>
-      </c>
-      <c r="G52" s="60" t="inlineStr">
+      <c r="D52" s="52" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" s="53" t="n">
+        <v>237.07</v>
+      </c>
+      <c r="F52" s="53" t="n">
+        <v>1185.36</v>
+      </c>
+      <c r="G52" s="51" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.4.5000/- per share on Ex-Date: 08-NOV-2023</t>
+          <t>~</t>
         </is>
       </c>
-      <c r="H52" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" s="60" t="n">
-        <v>0</v>
+      <c r="H52" s="52" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I52" s="52" t="n">
+        <v>7.18</v>
       </c>
       <c r="J52" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L52" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M52" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N52" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O52" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P52" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R52" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S52" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T52" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U52" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V52" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
-        <v/>
-      </c>
-      <c r="W52" s="47" t="n"/>
-      <c r="X52" s="47" t="n"/>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <v/>
+      </c>
+      <c r="W52" s="41" t="n">
+        <v>301.79</v>
+      </c>
+      <c r="X52" s="38" t="n">
+        <v>45820</v>
+      </c>
       <c r="Y52" s="46">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
-        <v/>
-      </c>
-      <c r="Z52" s="47" t="n"/>
-      <c r="AA52" s="47" t="n"/>
-      <c r="AB52" s="48" t="n"/>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <v/>
+      </c>
+      <c r="Z52" s="54">
+        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
+        <v/>
+      </c>
+      <c r="AA52" s="54">
+        <f>((E20*D20)+Z20)</f>
+        <v/>
+      </c>
+      <c r="AB52" s="55">
+        <f>D20</f>
+        <v/>
+      </c>
       <c r="AC52" s="44">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD52" s="56" t="inlineStr">
@@ -4150,121 +4016,113 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="57" t="n">
-        <v>45225</v>
-      </c>
-      <c r="B53" s="58" t="inlineStr">
+      <c r="A53" s="50" t="n">
+        <v>45316</v>
+      </c>
+      <c r="B53" s="51" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C53" s="58" t="inlineStr">
+      <c r="C53" s="51" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
-      <c r="D53" s="60" t="n">
-        <v>5</v>
-      </c>
-      <c r="E53" s="42" t="n">
-        <v>434.402</v>
-      </c>
-      <c r="F53" s="42" t="n">
-        <v>2187.44</v>
-      </c>
-      <c r="G53" s="60" t="inlineStr">
+      <c r="D53" s="52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E53" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="F53" s="53" t="n">
+        <v>32025.84</v>
+      </c>
+      <c r="G53" s="51" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H53" s="60" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="I53" s="60" t="n">
-        <v>13.25</v>
+      <c r="H53" s="52" t="n">
+        <v>32.26</v>
+      </c>
+      <c r="I53" s="52" t="n">
+        <v>191.9</v>
       </c>
       <c r="J53" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K53" s="47" t="n"/>
-      <c r="L53" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
-        <v/>
-      </c>
-      <c r="M53" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
-        <v/>
-      </c>
-      <c r="N53" s="62">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
-        <v/>
-      </c>
-      <c r="O53" s="61" t="n"/>
-      <c r="P53" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
-        <v/>
-      </c>
-      <c r="Q53" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
-        <v/>
-      </c>
-      <c r="R53" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
-        <v/>
-      </c>
-      <c r="S53" s="61" t="n"/>
-      <c r="T53" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (J23*D23)-(E23*D23)-(2*sum(H23:I23)), "")</f>
-        <v/>
-      </c>
-      <c r="U53" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
-        <v/>
-      </c>
-      <c r="V53" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
-        <v/>
-      </c>
-      <c r="W53" s="53" t="n">
-        <v>640.52</v>
-      </c>
-      <c r="X53" s="50" t="n">
-        <v>45316</v>
-      </c>
+      <c r="K53" s="43">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="L53" s="44">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <v/>
+      </c>
+      <c r="M53" s="44">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <v/>
+      </c>
+      <c r="N53" s="45">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <v/>
+      </c>
+      <c r="O53" s="43">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="P53" s="44">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <v/>
+      </c>
+      <c r="Q53" s="44">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <v/>
+      </c>
+      <c r="R53" s="44">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <v/>
+      </c>
+      <c r="S53" s="46">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="T53" s="47">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <v/>
+      </c>
+      <c r="U53" s="47">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <v/>
+      </c>
+      <c r="V53" s="47">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <v/>
+      </c>
+      <c r="W53" s="47" t="n"/>
+      <c r="X53" s="47" t="n"/>
       <c r="Y53" s="46">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
-        <v/>
-      </c>
-      <c r="Z53" s="54">
-        <f>(1-Index!$F$2*2)*((W23*D23)-(E23*D23))</f>
-        <v/>
-      </c>
-      <c r="AA53" s="54">
-        <f>((E23*D23)+Z23)</f>
-        <v/>
-      </c>
-      <c r="AB53" s="55">
-        <f>D23</f>
-        <v/>
-      </c>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="Z53" s="47" t="n"/>
+      <c r="AA53" s="47" t="n"/>
+      <c r="AB53" s="48" t="n"/>
       <c r="AC53" s="44">
-        <f>if(B23="DIV", F23,"")</f>
-        <v/>
-      </c>
-      <c r="AD53" s="56" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B21="DIV", F21,"")</f>
+        <v/>
+      </c>
+      <c r="AD53" s="49" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="57" t="n">
-        <v>45191</v>
+        <v>45238</v>
       </c>
       <c r="B54" s="58" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C54" s="58" t="inlineStr">
@@ -4273,92 +4131,88 @@
         </is>
       </c>
       <c r="D54" s="60" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E54" s="42" t="n">
-        <v>485.448</v>
+        <v>4.5</v>
       </c>
       <c r="F54" s="42" t="n">
-        <v>4889.12</v>
+        <v>225</v>
       </c>
       <c r="G54" s="60" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.4.5000/- per share on Ex-Date: 08-NOV-2023</t>
         </is>
       </c>
       <c r="H54" s="60" t="n">
-        <v>4.94</v>
+        <v>0</v>
       </c>
       <c r="I54" s="60" t="n">
-        <v>29.68</v>
+        <v>0</v>
       </c>
       <c r="J54" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K54" s="47" t="n"/>
-      <c r="L54" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
-        <v/>
-      </c>
-      <c r="M54" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
-        <v/>
-      </c>
-      <c r="N54" s="62">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
-        <v/>
-      </c>
-      <c r="O54" s="61" t="n"/>
-      <c r="P54" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
-        <v/>
-      </c>
-      <c r="Q54" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
-        <v/>
-      </c>
-      <c r="R54" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
-        <v/>
-      </c>
-      <c r="S54" s="61" t="n"/>
-      <c r="T54" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (J24*D24)-(E24*D24)-(2*sum(H24:I24)), "")</f>
-        <v/>
-      </c>
-      <c r="U54" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
-        <v/>
-      </c>
-      <c r="V54" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
-        <v/>
-      </c>
-      <c r="W54" s="53" t="n">
-        <v>640.52</v>
-      </c>
-      <c r="X54" s="50" t="n">
-        <v>45316</v>
-      </c>
+      <c r="K54" s="43">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="L54" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="M54" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <v/>
+      </c>
+      <c r="N54" s="45">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <v/>
+      </c>
+      <c r="O54" s="43">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="P54" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="Q54" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <v/>
+      </c>
+      <c r="R54" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="S54" s="46">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="T54" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="U54" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <v/>
+      </c>
+      <c r="V54" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="W54" s="47" t="n"/>
+      <c r="X54" s="47" t="n"/>
       <c r="Y54" s="46">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
-        <v/>
-      </c>
-      <c r="Z54" s="54">
-        <f>(1-Index!$F$2*2)*((W24*D24)-(E24*D24))</f>
-        <v/>
-      </c>
-      <c r="AA54" s="54">
-        <f>((E24*D24)+Z24)</f>
-        <v/>
-      </c>
-      <c r="AB54" s="55">
-        <f>D24</f>
-        <v/>
-      </c>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="Z54" s="47" t="n"/>
+      <c r="AA54" s="47" t="n"/>
+      <c r="AB54" s="48" t="n"/>
       <c r="AC54" s="44">
-        <f>if(B24="DIV", F24,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD54" s="56" t="inlineStr">
@@ -4369,7 +4223,7 @@
     </row>
     <row r="55">
       <c r="A55" s="57" t="n">
-        <v>45181</v>
+        <v>45225</v>
       </c>
       <c r="B55" s="58" t="inlineStr">
         <is>
@@ -4385,10 +4239,10 @@
         <v>5</v>
       </c>
       <c r="E55" s="42" t="n">
-        <v>528.498</v>
+        <v>434.402</v>
       </c>
       <c r="F55" s="42" t="n">
-        <v>2661.21</v>
+        <v>2187.44</v>
       </c>
       <c r="G55" s="60" t="inlineStr">
         <is>
@@ -4396,10 +4250,10 @@
         </is>
       </c>
       <c r="H55" s="60" t="n">
-        <v>2.64</v>
+        <v>2.19</v>
       </c>
       <c r="I55" s="60" t="n">
-        <v>16.07</v>
+        <v>13.25</v>
       </c>
       <c r="J55" s="42">
         <f>Index!$C$2</f>
@@ -4407,41 +4261,41 @@
       </c>
       <c r="K55" s="47" t="n"/>
       <c r="L55" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M55" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N55" s="62">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O55" s="61" t="n"/>
       <c r="P55" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R55" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S55" s="61" t="n"/>
       <c r="T55" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (J25*D25)-(E25*D25)-(2*sum(H25:I25)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (J23*D23)-(E23*D23)-(2*sum(H23:I23)), "")</f>
         <v/>
       </c>
       <c r="U55" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V55" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W55" s="53" t="n">
@@ -4451,23 +4305,23 @@
         <v>45316</v>
       </c>
       <c r="Y55" s="46">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z55" s="54">
-        <f>(1-Index!$F$2*2)*((W25*D25)-(E25*D25))</f>
+        <f>(1-Index!$F$2*2)*((W23*D23)-(E23*D23))</f>
         <v/>
       </c>
       <c r="AA55" s="54">
-        <f>((E25*D25)+Z25)</f>
+        <f>((E23*D23)+Z23)</f>
         <v/>
       </c>
       <c r="AB55" s="55">
-        <f>D25</f>
+        <f>D23</f>
         <v/>
       </c>
       <c r="AC55" s="44">
-        <f>if(B25="DIV", F25,"")</f>
+        <f>if(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD55" s="56" t="inlineStr">
@@ -4478,11 +4332,11 @@
     </row>
     <row r="56">
       <c r="A56" s="57" t="n">
-        <v>45177</v>
+        <v>45191</v>
       </c>
       <c r="B56" s="58" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C56" s="58" t="inlineStr">
@@ -4491,24 +4345,24 @@
         </is>
       </c>
       <c r="D56" s="60" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E56" s="42" t="n">
-        <v>6</v>
+        <v>485.448</v>
       </c>
       <c r="F56" s="42" t="n">
-        <v>180</v>
+        <v>4889.12</v>
       </c>
       <c r="G56" s="60" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.6.0000/- per share on Ex-Date: 08-SEP-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H56" s="60" t="n">
-        <v>0</v>
+        <v>4.94</v>
       </c>
       <c r="I56" s="60" t="n">
-        <v>0</v>
+        <v>29.68</v>
       </c>
       <c r="J56" s="42">
         <f>Index!$C$2</f>
@@ -4516,54 +4370,67 @@
       </c>
       <c r="K56" s="47" t="n"/>
       <c r="L56" s="47">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M56" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N56" s="62">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O56" s="61" t="n"/>
       <c r="P56" s="47">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q56" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R56" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S56" s="61" t="n"/>
       <c r="T56" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*sum(H26:I26)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (J24*D24)-(E24*D24)-(2*sum(H24:I24)), "")</f>
         <v/>
       </c>
       <c r="U56" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V56" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
-        <v/>
-      </c>
-      <c r="W56" s="47" t="n"/>
-      <c r="X56" s="47" t="n"/>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="W56" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="X56" s="50" t="n">
+        <v>45316</v>
+      </c>
       <c r="Y56" s="46">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
-        <v/>
-      </c>
-      <c r="Z56" s="47" t="n"/>
-      <c r="AA56" s="47" t="n"/>
-      <c r="AB56" s="48" t="n"/>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="Z56" s="54">
+        <f>(1-Index!$F$2*2)*((W24*D24)-(E24*D24))</f>
+        <v/>
+      </c>
+      <c r="AA56" s="54">
+        <f>((E24*D24)+Z24)</f>
+        <v/>
+      </c>
+      <c r="AB56" s="55">
+        <f>D24</f>
+        <v/>
+      </c>
       <c r="AC56" s="44">
-        <f>if(B26="DIV", F26,"")</f>
+        <f>if(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD56" s="56" t="inlineStr">
@@ -4574,7 +4441,7 @@
     </row>
     <row r="57">
       <c r="A57" s="57" t="n">
-        <v>45162</v>
+        <v>45181</v>
       </c>
       <c r="B57" s="58" t="inlineStr">
         <is>
@@ -4587,13 +4454,13 @@
         </is>
       </c>
       <c r="D57" s="60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E57" s="42" t="n">
-        <v>474.2</v>
+        <v>528.498</v>
       </c>
       <c r="F57" s="42" t="n">
-        <v>477.55</v>
+        <v>2661.21</v>
       </c>
       <c r="G57" s="60" t="inlineStr">
         <is>
@@ -4601,10 +4468,10 @@
         </is>
       </c>
       <c r="H57" s="60" t="n">
-        <v>0.47</v>
+        <v>2.64</v>
       </c>
       <c r="I57" s="60" t="n">
-        <v>2.88</v>
+        <v>16.07</v>
       </c>
       <c r="J57" s="42">
         <f>Index!$C$2</f>
@@ -4612,41 +4479,41 @@
       </c>
       <c r="K57" s="47" t="n"/>
       <c r="L57" s="47">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M57" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N57" s="62">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O57" s="61" t="n"/>
       <c r="P57" s="47">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q57" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R57" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S57" s="61" t="n"/>
       <c r="T57" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*sum(H27:I27)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (J25*D25)-(E25*D25)-(2*sum(H25:I25)), "")</f>
         <v/>
       </c>
       <c r="U57" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V57" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="W57" s="53" t="n">
@@ -4656,23 +4523,23 @@
         <v>45316</v>
       </c>
       <c r="Y57" s="46">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="Z57" s="54">
-        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
+        <f>(1-Index!$F$2*2)*((W25*D25)-(E25*D25))</f>
         <v/>
       </c>
       <c r="AA57" s="54">
-        <f>((E27*D27)+Z27)</f>
+        <f>((E25*D25)+Z25)</f>
         <v/>
       </c>
       <c r="AB57" s="55">
-        <f>D27</f>
+        <f>D25</f>
         <v/>
       </c>
       <c r="AC57" s="44">
-        <f>if(B27="DIV", F27,"")</f>
+        <f>if(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD57" s="56" t="inlineStr">
@@ -4683,11 +4550,11 @@
     </row>
     <row r="58">
       <c r="A58" s="57" t="n">
-        <v>45162</v>
+        <v>45177</v>
       </c>
       <c r="B58" s="58" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C58" s="58" t="inlineStr">
@@ -4696,24 +4563,24 @@
         </is>
       </c>
       <c r="D58" s="60" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E58" s="42" t="n">
-        <v>474</v>
+        <v>6</v>
       </c>
       <c r="F58" s="42" t="n">
-        <v>1909.44</v>
+        <v>180</v>
       </c>
       <c r="G58" s="60" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.6.0000/- per share on Ex-Date: 08-SEP-2023</t>
         </is>
       </c>
       <c r="H58" s="60" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="I58" s="60" t="n">
-        <v>11.56</v>
+        <v>0</v>
       </c>
       <c r="J58" s="42">
         <f>Index!$C$2</f>
@@ -4721,67 +4588,54 @@
       </c>
       <c r="K58" s="47" t="n"/>
       <c r="L58" s="47">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M58" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N58" s="62">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O58" s="61" t="n"/>
       <c r="P58" s="47">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q58" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R58" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S58" s="61" t="n"/>
       <c r="T58" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*sum(H28:I28)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*sum(H26:I26)), "")</f>
         <v/>
       </c>
       <c r="U58" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V58" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
-        <v/>
-      </c>
-      <c r="W58" s="53" t="n">
-        <v>640.52</v>
-      </c>
-      <c r="X58" s="50" t="n">
-        <v>45316</v>
-      </c>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
+        <v/>
+      </c>
+      <c r="W58" s="47" t="n"/>
+      <c r="X58" s="47" t="n"/>
       <c r="Y58" s="46">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
-        <v/>
-      </c>
-      <c r="Z58" s="54">
-        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
-        <v/>
-      </c>
-      <c r="AA58" s="54">
-        <f>((E28*D28)+Z28)</f>
-        <v/>
-      </c>
-      <c r="AB58" s="55">
-        <f>D28</f>
-        <v/>
-      </c>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
+        <v/>
+      </c>
+      <c r="Z58" s="47" t="n"/>
+      <c r="AA58" s="47" t="n"/>
+      <c r="AB58" s="48" t="n"/>
       <c r="AC58" s="44">
-        <f>if(B28="DIV", F28,"")</f>
+        <f>if(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD58" s="56" t="inlineStr">
@@ -4792,11 +4646,11 @@
     </row>
     <row r="59">
       <c r="A59" s="57" t="n">
-        <v>45145</v>
+        <v>45162</v>
       </c>
       <c r="B59" s="58" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C59" s="58" t="inlineStr">
@@ -4805,24 +4659,24 @@
         </is>
       </c>
       <c r="D59" s="60" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E59" s="42" t="n">
-        <v>3.75</v>
+        <v>474.2</v>
       </c>
       <c r="F59" s="42" t="n">
-        <v>93.75</v>
+        <v>477.55</v>
       </c>
       <c r="G59" s="60" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.3.7500/- per share on Ex-Date: 07-AUG-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H59" s="60" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="I59" s="60" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="J59" s="42">
         <f>Index!$C$2</f>
@@ -4830,54 +4684,67 @@
       </c>
       <c r="K59" s="47" t="n"/>
       <c r="L59" s="47">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M59" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N59" s="62">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O59" s="61" t="n"/>
       <c r="P59" s="47">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q59" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R59" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S59" s="61" t="n"/>
       <c r="T59" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*sum(H29:I29)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*sum(H27:I27)), "")</f>
         <v/>
       </c>
       <c r="U59" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V59" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
-        <v/>
-      </c>
-      <c r="W59" s="47" t="n"/>
-      <c r="X59" s="47" t="n"/>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <v/>
+      </c>
+      <c r="W59" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="X59" s="50" t="n">
+        <v>45316</v>
+      </c>
       <c r="Y59" s="46">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
-        <v/>
-      </c>
-      <c r="Z59" s="47" t="n"/>
-      <c r="AA59" s="47" t="n"/>
-      <c r="AB59" s="48" t="n"/>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
+        <v/>
+      </c>
+      <c r="Z59" s="54">
+        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
+        <v/>
+      </c>
+      <c r="AA59" s="54">
+        <f>((E27*D27)+Z27)</f>
+        <v/>
+      </c>
+      <c r="AB59" s="55">
+        <f>D27</f>
+        <v/>
+      </c>
       <c r="AC59" s="44">
-        <f>if(B29="DIV", F29,"")</f>
+        <f>if(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD59" s="56" t="inlineStr">
@@ -4888,7 +4755,7 @@
     </row>
     <row r="60">
       <c r="A60" s="57" t="n">
-        <v>45034</v>
+        <v>45162</v>
       </c>
       <c r="B60" s="58" t="inlineStr">
         <is>
@@ -4901,13 +4768,13 @@
         </is>
       </c>
       <c r="D60" s="60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E60" s="42" t="n">
-        <v>347.95</v>
+        <v>474</v>
       </c>
       <c r="F60" s="42" t="n">
-        <v>1752.1</v>
+        <v>1909.44</v>
       </c>
       <c r="G60" s="60" t="inlineStr">
         <is>
@@ -4915,10 +4782,10 @@
         </is>
       </c>
       <c r="H60" s="60" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="I60" s="60" t="n">
-        <v>10.61</v>
+        <v>11.56</v>
       </c>
       <c r="J60" s="42">
         <f>Index!$C$2</f>
@@ -4926,41 +4793,41 @@
       </c>
       <c r="K60" s="47" t="n"/>
       <c r="L60" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M60" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N60" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O60" s="61" t="n"/>
       <c r="P60" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q60" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R60" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S60" s="61" t="n"/>
       <c r="T60" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*sum(H28:I28)), "")</f>
         <v/>
       </c>
       <c r="U60" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V60" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="W60" s="53" t="n">
@@ -4970,23 +4837,23 @@
         <v>45316</v>
       </c>
       <c r="Y60" s="46">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="Z60" s="54">
-        <f>(1-Index!$F$2*2)*((W30*D30)-(E30*D30))</f>
+        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
         <v/>
       </c>
       <c r="AA60" s="54">
-        <f>((E30*D30)+Z30)</f>
+        <f>((E28*D28)+Z28)</f>
         <v/>
       </c>
       <c r="AB60" s="55">
-        <f>D30</f>
+        <f>D28</f>
         <v/>
       </c>
       <c r="AC60" s="44">
-        <f>if(B30="DIV", F30,"")</f>
+        <f>if(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD60" s="56" t="inlineStr">
@@ -4997,11 +4864,11 @@
     </row>
     <row r="61">
       <c r="A61" s="57" t="n">
-        <v>44981</v>
+        <v>45145</v>
       </c>
       <c r="B61" s="58" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C61" s="58" t="inlineStr">
@@ -5010,24 +4877,24 @@
         </is>
       </c>
       <c r="D61" s="60" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E61" s="42" t="n">
-        <v>333.751</v>
+        <v>3.75</v>
       </c>
       <c r="F61" s="42" t="n">
-        <v>3361.19</v>
+        <v>93.75</v>
       </c>
       <c r="G61" s="60" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.3.7500/- per share on Ex-Date: 07-AUG-2023</t>
         </is>
       </c>
       <c r="H61" s="60" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="I61" s="60" t="n">
-        <v>20.35</v>
+        <v>0</v>
       </c>
       <c r="J61" s="42">
         <f>Index!$C$2</f>
@@ -5035,67 +4902,54 @@
       </c>
       <c r="K61" s="47" t="n"/>
       <c r="L61" s="47">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M61" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N61" s="62">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O61" s="61" t="n"/>
       <c r="P61" s="47">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q61" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R61" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S61" s="61" t="n"/>
       <c r="T61" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*sum(H31:I31)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*sum(H29:I29)), "")</f>
         <v/>
       </c>
       <c r="U61" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V61" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
-        <v/>
-      </c>
-      <c r="W61" s="53" t="n">
-        <v>640.52</v>
-      </c>
-      <c r="X61" s="50" t="n">
-        <v>45316</v>
-      </c>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <v/>
+      </c>
+      <c r="W61" s="47" t="n"/>
+      <c r="X61" s="47" t="n"/>
       <c r="Y61" s="46">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
-        <v/>
-      </c>
-      <c r="Z61" s="54">
-        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
-        <v/>
-      </c>
-      <c r="AA61" s="54">
-        <f>((E31*D31)+Z31)</f>
-        <v/>
-      </c>
-      <c r="AB61" s="55">
-        <f>D31</f>
-        <v/>
-      </c>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <v/>
+      </c>
+      <c r="Z61" s="47" t="n"/>
+      <c r="AA61" s="47" t="n"/>
+      <c r="AB61" s="48" t="n"/>
       <c r="AC61" s="44">
-        <f>if(B31="DIV", F31,"")</f>
+        <f>if(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD61" s="56" t="inlineStr">
@@ -5106,11 +4960,11 @@
     </row>
     <row r="62">
       <c r="A62" s="57" t="n">
-        <v>44974</v>
+        <v>45034</v>
       </c>
       <c r="B62" s="58" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C62" s="58" t="inlineStr">
@@ -5119,24 +4973,24 @@
         </is>
       </c>
       <c r="D62" s="60" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E62" s="42" t="n">
-        <v>6</v>
+        <v>347.95</v>
       </c>
       <c r="F62" s="42" t="n">
-        <v>60</v>
+        <v>1752.1</v>
       </c>
       <c r="G62" s="60" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.6.0000/- per share on Ex-Date: 17-FEB-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H62" s="60" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="I62" s="60" t="n">
-        <v>0</v>
+        <v>10.61</v>
       </c>
       <c r="J62" s="42">
         <f>Index!$C$2</f>
@@ -5144,54 +4998,67 @@
       </c>
       <c r="K62" s="47" t="n"/>
       <c r="L62" s="47">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M62" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N62" s="62">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O62" s="61" t="n"/>
       <c r="P62" s="47">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q62" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R62" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S62" s="61" t="n"/>
       <c r="T62" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*sum(H32:I32)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
         <v/>
       </c>
       <c r="U62" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V62" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
-        <v/>
-      </c>
-      <c r="W62" s="47" t="n"/>
-      <c r="X62" s="47" t="n"/>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="W62" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="X62" s="50" t="n">
+        <v>45316</v>
+      </c>
       <c r="Y62" s="46">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
-        <v/>
-      </c>
-      <c r="Z62" s="47" t="n"/>
-      <c r="AA62" s="47" t="n"/>
-      <c r="AB62" s="48" t="n"/>
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <v/>
+      </c>
+      <c r="Z62" s="54">
+        <f>(1-Index!$F$2*2)*((W30*D30)-(E30*D30))</f>
+        <v/>
+      </c>
+      <c r="AA62" s="54">
+        <f>((E30*D30)+Z30)</f>
+        <v/>
+      </c>
+      <c r="AB62" s="55">
+        <f>D30</f>
+        <v/>
+      </c>
       <c r="AC62" s="44">
-        <f>if(B32="DIV", F32,"")</f>
+        <f>if(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD62" s="56" t="inlineStr">
@@ -5202,7 +5069,7 @@
     </row>
     <row r="63">
       <c r="A63" s="57" t="n">
-        <v>44953</v>
+        <v>44981</v>
       </c>
       <c r="B63" s="58" t="inlineStr">
         <is>
@@ -5218,10 +5085,10 @@
         <v>10</v>
       </c>
       <c r="E63" s="42" t="n">
-        <v>332.597</v>
+        <v>333.751</v>
       </c>
       <c r="F63" s="42" t="n">
-        <v>3349.53</v>
+        <v>3361.19</v>
       </c>
       <c r="G63" s="60" t="inlineStr">
         <is>
@@ -5229,10 +5096,10 @@
         </is>
       </c>
       <c r="H63" s="60" t="n">
-        <v>3.29</v>
+        <v>3.34</v>
       </c>
       <c r="I63" s="60" t="n">
-        <v>20.24</v>
+        <v>20.35</v>
       </c>
       <c r="J63" s="42">
         <f>Index!$C$2</f>
@@ -5240,41 +5107,41 @@
       </c>
       <c r="K63" s="47" t="n"/>
       <c r="L63" s="47">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M63" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N63" s="62">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O63" s="61" t="n"/>
       <c r="P63" s="47">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q63" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R63" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S63" s="61" t="n"/>
       <c r="T63" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*sum(H33:I33)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*sum(H31:I31)), "")</f>
         <v/>
       </c>
       <c r="U63" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V63" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="W63" s="53" t="n">
@@ -5284,23 +5151,23 @@
         <v>45316</v>
       </c>
       <c r="Y63" s="46">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
         <v/>
       </c>
       <c r="Z63" s="54">
-        <f>(1-Index!$F$2*2)*((W33*D33)-(E33*D33))</f>
+        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
         <v/>
       </c>
       <c r="AA63" s="54">
-        <f>((E33*D33)+Z33)</f>
+        <f>((E31*D31)+Z31)</f>
         <v/>
       </c>
       <c r="AB63" s="55">
-        <f>D33</f>
+        <f>D31</f>
         <v/>
       </c>
       <c r="AC63" s="44">
-        <f>if(B33="DIV", F33,"")</f>
+        <f>if(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD63" s="56" t="inlineStr">
@@ -5310,36 +5177,209 @@
       </c>
     </row>
     <row r="64">
-      <c r="E64" s="63" t="n"/>
-      <c r="F64" s="63" t="n"/>
-      <c r="G64" s="64" t="n"/>
-      <c r="J64" s="63" t="n"/>
-      <c r="K64" s="63" t="n"/>
-      <c r="L64" s="63" t="n"/>
-      <c r="M64" s="66" t="n"/>
-      <c r="W64" s="63" t="n"/>
-      <c r="X64" s="63" t="n"/>
-      <c r="Y64" s="63" t="n"/>
-      <c r="Z64" s="63" t="n"/>
-      <c r="AA64" s="63" t="n"/>
-      <c r="AB64" s="63" t="n"/>
-      <c r="AC64" s="63" t="n"/>
+      <c r="A64" s="57" t="n">
+        <v>44974</v>
+      </c>
+      <c r="B64" s="58" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C64" s="58" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D64" s="60" t="n">
+        <v>10</v>
+      </c>
+      <c r="E64" s="42" t="n">
+        <v>6</v>
+      </c>
+      <c r="F64" s="42" t="n">
+        <v>60</v>
+      </c>
+      <c r="G64" s="60" t="inlineStr">
+        <is>
+          <t>Interim-Dividend of Rs.6.0000/- per share on Ex-Date: 17-FEB-2023</t>
+        </is>
+      </c>
+      <c r="H64" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K64" s="47" t="n"/>
+      <c r="L64" s="47">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <v/>
+      </c>
+      <c r="M64" s="61">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <v/>
+      </c>
+      <c r="N64" s="62">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <v/>
+      </c>
+      <c r="O64" s="61" t="n"/>
+      <c r="P64" s="47">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <v/>
+      </c>
+      <c r="Q64" s="61">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <v/>
+      </c>
+      <c r="R64" s="61">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <v/>
+      </c>
+      <c r="S64" s="61" t="n"/>
+      <c r="T64" s="61">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*sum(H32:I32)), "")</f>
+        <v/>
+      </c>
+      <c r="U64" s="61">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <v/>
+      </c>
+      <c r="V64" s="61">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <v/>
+      </c>
+      <c r="W64" s="47" t="n"/>
+      <c r="X64" s="47" t="n"/>
+      <c r="Y64" s="46">
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
+        <v/>
+      </c>
+      <c r="Z64" s="47" t="n"/>
+      <c r="AA64" s="47" t="n"/>
+      <c r="AB64" s="48" t="n"/>
+      <c r="AC64" s="44">
+        <f>if(B32="DIV", F32,"")</f>
+        <v/>
+      </c>
+      <c r="AD64" s="56" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="E65" s="63" t="n"/>
-      <c r="F65" s="63" t="n"/>
-      <c r="G65" s="64" t="n"/>
-      <c r="J65" s="63" t="n"/>
-      <c r="K65" s="63" t="n"/>
-      <c r="L65" s="63" t="n"/>
-      <c r="M65" s="66" t="n"/>
-      <c r="W65" s="63" t="n"/>
-      <c r="X65" s="63" t="n"/>
-      <c r="Y65" s="63" t="n"/>
-      <c r="Z65" s="63" t="n"/>
-      <c r="AA65" s="63" t="n"/>
-      <c r="AB65" s="63" t="n"/>
-      <c r="AC65" s="63" t="n"/>
+      <c r="A65" s="57" t="n">
+        <v>44953</v>
+      </c>
+      <c r="B65" s="58" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C65" s="58" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D65" s="60" t="n">
+        <v>10</v>
+      </c>
+      <c r="E65" s="42" t="n">
+        <v>332.597</v>
+      </c>
+      <c r="F65" s="42" t="n">
+        <v>3349.53</v>
+      </c>
+      <c r="G65" s="60" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H65" s="60" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="I65" s="60" t="n">
+        <v>20.24</v>
+      </c>
+      <c r="J65" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K65" s="47" t="n"/>
+      <c r="L65" s="47">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <v/>
+      </c>
+      <c r="M65" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <v/>
+      </c>
+      <c r="N65" s="62">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <v/>
+      </c>
+      <c r="O65" s="61" t="n"/>
+      <c r="P65" s="47">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <v/>
+      </c>
+      <c r="Q65" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <v/>
+      </c>
+      <c r="R65" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <v/>
+      </c>
+      <c r="S65" s="61" t="n"/>
+      <c r="T65" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*sum(H33:I33)), "")</f>
+        <v/>
+      </c>
+      <c r="U65" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <v/>
+      </c>
+      <c r="V65" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <v/>
+      </c>
+      <c r="W65" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="X65" s="50" t="n">
+        <v>45316</v>
+      </c>
+      <c r="Y65" s="46">
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
+        <v/>
+      </c>
+      <c r="Z65" s="54">
+        <f>(1-Index!$F$2*2)*((W33*D33)-(E33*D33))</f>
+        <v/>
+      </c>
+      <c r="AA65" s="54">
+        <f>((E33*D33)+Z33)</f>
+        <v/>
+      </c>
+      <c r="AB65" s="55">
+        <f>D33</f>
+        <v/>
+      </c>
+      <c r="AC65" s="44">
+        <f>if(B33="DIV", F33,"")</f>
+        <v/>
+      </c>
+      <c r="AD65" s="56" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="E66" s="63" t="n"/>
@@ -20948,6 +20988,7 @@
       <c r="J1041" s="63" t="n"/>
       <c r="K1041" s="63" t="n"/>
       <c r="L1041" s="63" t="n"/>
+      <c r="M1041" s="66" t="n"/>
       <c r="W1041" s="63" t="n"/>
       <c r="X1041" s="63" t="n"/>
       <c r="Y1041" s="63" t="n"/>
@@ -20963,6 +21004,7 @@
       <c r="J1042" s="63" t="n"/>
       <c r="K1042" s="63" t="n"/>
       <c r="L1042" s="63" t="n"/>
+      <c r="M1042" s="66" t="n"/>
       <c r="W1042" s="63" t="n"/>
       <c r="X1042" s="63" t="n"/>
       <c r="Y1042" s="63" t="n"/>
@@ -21195,6 +21237,36 @@
       <c r="AA1057" s="63" t="n"/>
       <c r="AB1057" s="63" t="n"/>
       <c r="AC1057" s="63" t="n"/>
+    </row>
+    <row r="1058">
+      <c r="E1058" s="63" t="n"/>
+      <c r="F1058" s="63" t="n"/>
+      <c r="G1058" s="64" t="n"/>
+      <c r="J1058" s="63" t="n"/>
+      <c r="K1058" s="63" t="n"/>
+      <c r="L1058" s="63" t="n"/>
+      <c r="W1058" s="63" t="n"/>
+      <c r="X1058" s="63" t="n"/>
+      <c r="Y1058" s="63" t="n"/>
+      <c r="Z1058" s="63" t="n"/>
+      <c r="AA1058" s="63" t="n"/>
+      <c r="AB1058" s="63" t="n"/>
+      <c r="AC1058" s="63" t="n"/>
+    </row>
+    <row r="1059">
+      <c r="E1059" s="63" t="n"/>
+      <c r="F1059" s="63" t="n"/>
+      <c r="G1059" s="64" t="n"/>
+      <c r="J1059" s="63" t="n"/>
+      <c r="K1059" s="63" t="n"/>
+      <c r="L1059" s="63" t="n"/>
+      <c r="W1059" s="63" t="n"/>
+      <c r="X1059" s="63" t="n"/>
+      <c r="Y1059" s="63" t="n"/>
+      <c r="Z1059" s="63" t="n"/>
+      <c r="AA1059" s="63" t="n"/>
+      <c r="AB1059" s="63" t="n"/>
+      <c r="AC1059" s="63" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$104"/>

--- a/dumps/Stocks/Rites Ltd.xlsx
+++ b/dumps/Stocks/Rites Ltd.xlsx
@@ -787,7 +787,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1059"/>
+  <dimension ref="A1:AP1062"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="5">
       <c r="A5" s="99" t="n">
-        <v>45981</v>
+        <v>46059</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1154,18 +1154,18 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>249.966</v>
+        <v>220.23</v>
       </c>
       <c r="F5" t="n">
-        <v>2512.16</v>
+        <v>2213.3</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252608441505</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="6">
       <c r="A6" s="99" t="n">
-        <v>45979</v>
+        <v>46002</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1187,21 +1187,21 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>249.69</v>
+        <v>224.975</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2509.4</v>
+        <v>4522</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252608322011</t>
+          <t>CN#252609267726</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>12.5</v>
+        <v>22.5</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="7">
       <c r="A7" s="99" t="n">
-        <v>45957</v>
+        <v>45996</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1223,21 +1223,21 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>245.88</v>
+        <v>228.2595</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2471.1</v>
+        <v>13763.97</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252607382790</t>
+          <t>CN#252609039305</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>12.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="8">
       <c r="A8" s="99" t="n">
-        <v>46062</v>
+        <v>45981</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1259,24 +1259,21 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>227.09</v>
+        <v>249.966</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>4574.07</v>
+        <v>2512.16</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252608441505</t>
         </is>
       </c>
-      <c r="H8" s="0" t="n">
-        <v>4.54</v>
-      </c>
       <c r="I8" s="0" t="n">
-        <v>27.73</v>
+        <v>12.5</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1284,12 +1281,12 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="98" t="n">
-        <v>46057</v>
+      <c r="A9" s="99" t="n">
+        <v>45979</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -1301,26 +1298,27 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>223.75</v>
+        <v>249.69</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2253.41</v>
+        <v>2509.4</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252608322011</t>
         </is>
       </c>
-      <c r="H9" s="0" t="n">
-        <v>2.25</v>
-      </c>
       <c r="I9" s="0" t="n">
-        <v>13.66</v>
+        <v>12.5</v>
+      </c>
+      <c r="J9" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="98" t="n">
-        <v>46049</v>
+      <c r="A10" s="99" t="n">
+        <v>45957</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1336,30 +1334,31 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>218.46</v>
+        <v>245.88</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2200.07</v>
+        <v>2471.1</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="H10" s="0" t="n">
-        <v>2.18</v>
-      </c>
       <c r="I10" s="0" t="n">
-        <v>13.29</v>
+        <v>12.3</v>
+      </c>
+      <c r="J10" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="98" t="n">
-        <v>46015</v>
+      <c r="A11" s="99" t="n">
+        <v>46062</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1368,29 +1367,33 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>243.55</v>
+        <v>227.09</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2452.82</v>
+        <v>4574.07</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>2.43</v>
+        <v>4.54</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>14.89</v>
+        <v>27.73</v>
+      </c>
+      <c r="J11" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="98" t="n">
-        <v>46008</v>
+        <v>46057</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1406,10 +1409,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>224.2</v>
+        <v>223.75</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2257.89</v>
+        <v>2253.41</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1420,16 +1423,16 @@
         <v>2.25</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>13.64</v>
+        <v>13.66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="98" t="n">
-        <v>46007</v>
+        <v>46049</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1441,10 +1444,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>226.9</v>
+        <v>218.46</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>2285.06</v>
+        <v>2200.07</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1452,19 +1455,19 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>13.8</v>
+        <v>13.29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="98" t="n">
-        <v>46002</v>
+        <v>46015</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1476,10 +1479,10 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>224.95</v>
+        <v>243.55</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>2265.39</v>
+        <v>2452.82</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1487,19 +1490,19 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>2.26</v>
+        <v>2.43</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>13.63</v>
+        <v>14.89</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="98" t="n">
-        <v>46002</v>
+        <v>46008</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -1511,10 +1514,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>225</v>
+        <v>224.2</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2266.03</v>
+        <v>2257.89</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1522,19 +1525,19 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>13.77</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="98" t="n">
-        <v>45996</v>
+        <v>46007</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -1543,13 +1546,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>228.26</v>
+        <v>226.9</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>13102.98</v>
+        <v>2285.06</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1557,15 +1560,15 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>12.97</v>
+        <v>2.26</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>79.19</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="98" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1578,13 +1581,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>228.25</v>
+        <v>224.95</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>689.6</v>
+        <v>2265.39</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1592,15 +1595,15 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.26</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>4.16</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="98" t="n">
-        <v>45982</v>
+        <v>46002</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1616,10 +1619,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>249.8</v>
+        <v>225</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>2515.74</v>
+        <v>2266.03</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1627,15 +1630,15 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>2.5</v>
+        <v>2.26</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>15.24</v>
+        <v>13.77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="98" t="n">
-        <v>45981</v>
+        <v>45996</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -1648,13 +1651,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>249.97</v>
+        <v>228.26</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>2265.67</v>
+        <v>13102.98</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1662,15 +1665,15 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>2.24</v>
+        <v>12.97</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>13.7</v>
+        <v>79.19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="98" t="n">
-        <v>45981</v>
+        <v>45996</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1683,13 +1686,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>249.93</v>
+        <v>228.25</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>251.7</v>
+        <v>689.6</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1697,15 +1700,15 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.25</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>1.52</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="98" t="n">
-        <v>45979</v>
+        <v>45982</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -1718,13 +1721,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>249.6</v>
+        <v>249.8</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>251.37</v>
+        <v>2515.74</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1732,19 +1735,19 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>1.52</v>
+        <v>15.24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="98" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1756,10 +1759,10 @@
         <v>9</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>249.7</v>
+        <v>249.97</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>2263.26</v>
+        <v>2265.67</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1767,7 +1770,7 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>13.7</v>
@@ -1775,7 +1778,7 @@
     </row>
     <row r="23">
       <c r="A23" s="98" t="n">
-        <v>45978</v>
+        <v>45981</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
@@ -1788,13 +1791,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>248.38</v>
+        <v>249.93</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>5002.78</v>
+        <v>251.7</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1802,15 +1805,15 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>4.99</v>
+        <v>0.25</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>30.19</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="98" t="n">
-        <v>45975</v>
+        <v>45979</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
@@ -1823,13 +1826,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>243.9</v>
+        <v>249.6</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>2456.31</v>
+        <v>251.37</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1837,19 +1840,19 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>2.44</v>
+        <v>0.25</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>14.87</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="98" t="n">
-        <v>45975</v>
+        <v>45979</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
@@ -1858,29 +1861,29 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>2</v>
+        <v>249.7</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>160</v>
+        <v>2263.26</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.2.0000/- per share on Ex-Date: 14-NOV-2025  Interim-Dividend of Rs.2.0000/- per share on Ex-Date: 14-NOV-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>0</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="98" t="n">
-        <v>45959</v>
+        <v>45978</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
@@ -1893,13 +1896,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>244.95</v>
+        <v>248.38</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>2466.81</v>
+        <v>5002.78</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1907,19 +1910,19 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>2.44</v>
+        <v>4.99</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>14.87</v>
+        <v>30.19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="98" t="n">
-        <v>45957</v>
+        <v>45975</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
@@ -1928,13 +1931,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>245.88</v>
+        <v>243.9</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>247.63</v>
+        <v>2456.31</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1942,19 +1945,19 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.25</v>
+        <v>2.44</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>1.5</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="98" t="n">
-        <v>45957</v>
+        <v>45975</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C28" s="0" t="inlineStr">
@@ -1963,29 +1966,29 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>245.88</v>
+        <v>2</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1981.01</v>
+        <v>160</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.2.0000/- per share on Ex-Date: 14-NOV-2025  Interim-Dividend of Rs.2.0000/- per share on Ex-Date: 14-NOV-2025</t>
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="98" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
@@ -1998,13 +2001,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>245.88</v>
+        <v>244.95</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>247.63</v>
+        <v>2466.81</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -2012,15 +2015,15 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.25</v>
+        <v>2.44</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>1.5</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="98" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
@@ -2033,13 +2036,13 @@
         </is>
       </c>
       <c r="D30" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>247.5</v>
+        <v>245.88</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>1744.82</v>
+        <v>247.63</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -2047,15 +2050,15 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>1.74</v>
+        <v>0.25</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>10.58</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="98" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
@@ -2068,13 +2071,13 @@
         </is>
       </c>
       <c r="D31" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>247.5</v>
+        <v>245.88</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>747.75</v>
+        <v>1981.01</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
@@ -2082,15 +2085,15 @@
         </is>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.74</v>
+        <v>1.97</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>4.51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="98" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
@@ -2103,13 +2106,13 @@
         </is>
       </c>
       <c r="D32" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>247.99</v>
+        <v>245.88</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>2247.71</v>
+        <v>247.63</v>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
@@ -2117,15 +2120,15 @@
         </is>
       </c>
       <c r="H32" s="0" t="n">
-        <v>2.22</v>
+        <v>0.25</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>13.58</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="98" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
@@ -2138,13 +2141,13 @@
         </is>
       </c>
       <c r="D33" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>247.99</v>
+        <v>247.5</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>249.75</v>
+        <v>1744.82</v>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
@@ -2152,19 +2155,19 @@
         </is>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.25</v>
+        <v>1.74</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>1.51</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="98" t="n">
-        <v>45950</v>
+        <v>45954</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C34" s="0" t="inlineStr">
@@ -2173,13 +2176,13 @@
         </is>
       </c>
       <c r="D34" s="0" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>247.05</v>
+        <v>247.5</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>4976.18</v>
+        <v>747.75</v>
       </c>
       <c r="G34" s="0" t="inlineStr">
         <is>
@@ -2187,19 +2190,19 @@
         </is>
       </c>
       <c r="H34" s="0" t="n">
-        <v>4.94</v>
+        <v>0.74</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>30.24</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="98" t="n">
-        <v>45917</v>
+        <v>45953</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C35" s="0" t="inlineStr">
@@ -2208,33 +2211,33 @@
         </is>
       </c>
       <c r="D35" s="0" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>2.65</v>
+        <v>247.99</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>53</v>
+        <v>2247.71</v>
       </c>
       <c r="G35" s="0" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.2.6500/- per share on Ex-Date: 17-SEP-2025  Final-Dividend of Rs.2.6500/- per share on Ex-Date: 17-SEP-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>0</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="98" t="n">
-        <v>45897</v>
+        <v>45953</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C36" s="0" t="inlineStr">
@@ -2243,13 +2246,13 @@
         </is>
       </c>
       <c r="D36" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>246.85</v>
+        <v>247.99</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>2486</v>
+        <v>249.75</v>
       </c>
       <c r="G36" s="0" t="inlineStr">
         <is>
@@ -2257,301 +2260,120 @@
         </is>
       </c>
       <c r="H36" s="0" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>15.03</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="38" t="n">
+      <c r="A37" s="98" t="n">
         <v>45950</v>
       </c>
-      <c r="B37" s="39" t="inlineStr">
+      <c r="B37" s="0" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C37" s="39" t="inlineStr">
+      <c r="C37" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D37" s="40" t="n">
+      <c r="D37" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E37" s="41" t="n">
-        <v>248.81</v>
-      </c>
-      <c r="F37" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G37" s="39" t="inlineStr">
+      <c r="E37" s="0" t="n">
+        <v>247.05</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>4976.18</v>
+      </c>
+      <c r="G37" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H37" s="40" t="n"/>
-      <c r="I37" s="40" t="n"/>
-      <c r="J37" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K37" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L37" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M37" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N37" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O37" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P37" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q37" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R37" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S37" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T37" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U37" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V37" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W37" s="47" t="n"/>
-      <c r="X37" s="47" t="n"/>
-      <c r="Y37" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z37" s="47" t="n"/>
-      <c r="AA37" s="47" t="n"/>
-      <c r="AB37" s="48" t="n"/>
-      <c r="AC37" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD37" s="49" t="n"/>
+      <c r="H37" s="0" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>30.24</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="38" t="n">
+      <c r="A38" s="98" t="n">
         <v>45917</v>
       </c>
-      <c r="B38" s="39" t="inlineStr">
+      <c r="B38" s="0" t="inlineStr">
         <is>
           <t>DIV</t>
         </is>
       </c>
-      <c r="C38" s="39" t="inlineStr">
+      <c r="C38" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D38" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E38" s="41" t="n">
+      <c r="D38" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E38" s="0" t="n">
         <v>2.65</v>
       </c>
-      <c r="F38" s="41">
-        <f>(D6*E6)</f>
-        <v/>
-      </c>
-      <c r="G38" s="39" t="n"/>
-      <c r="H38" s="40" t="n"/>
-      <c r="I38" s="40" t="n"/>
-      <c r="J38" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K38" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L38" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M38" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N38" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O38" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P38" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q38" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R38" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S38" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T38" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U38" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V38" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W38" s="47" t="n"/>
-      <c r="X38" s="47" t="n"/>
-      <c r="Y38" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z38" s="47" t="n"/>
-      <c r="AA38" s="47" t="n"/>
-      <c r="AB38" s="48" t="n"/>
-      <c r="AC38" s="44">
-        <f>if(B6="DIV", F6,"")</f>
-        <v/>
-      </c>
-      <c r="AD38" s="49" t="n"/>
+      <c r="F38" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="G38" s="0" t="inlineStr">
+        <is>
+          <t>Final-Dividend of Rs.2.6500/- per share on Ex-Date: 17-SEP-2025  Final-Dividend of Rs.2.6500/- per share on Ex-Date: 17-SEP-2025</t>
+        </is>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="38" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B39" s="39" t="inlineStr">
+      <c r="A39" s="98" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
-      <c r="C39" s="39" t="inlineStr">
+      <c r="C39" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D39" s="40" t="n">
+      <c r="D39" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E39" s="41" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F39" s="41">
-        <f>(D7*E7)</f>
-        <v/>
-      </c>
-      <c r="G39" s="39" t="n"/>
-      <c r="H39" s="40" t="n"/>
-      <c r="I39" s="40" t="n"/>
-      <c r="J39" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K39" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="L39" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="M39" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
-        <v/>
-      </c>
-      <c r="N39" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
-        <v/>
-      </c>
-      <c r="O39" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="P39" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="Q39" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
-        <v/>
-      </c>
-      <c r="R39" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="S39" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="T39" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="U39" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
-        <v/>
-      </c>
-      <c r="V39" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="W39" s="47" t="n"/>
-      <c r="X39" s="47" t="n"/>
-      <c r="Y39" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="Z39" s="47" t="n"/>
-      <c r="AA39" s="47" t="n"/>
-      <c r="AB39" s="48" t="n"/>
-      <c r="AC39" s="44">
-        <f>if(B7="DIV", F7,"")</f>
-        <v/>
-      </c>
-      <c r="AD39" s="49" t="n"/>
+      <c r="E39" s="0" t="n">
+        <v>246.85</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>2486</v>
+      </c>
+      <c r="G39" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>15.03</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="38" t="n">
-        <v>45897</v>
+        <v>45950</v>
       </c>
       <c r="B40" s="39" t="inlineStr">
         <is>
@@ -2564,95 +2386,92 @@
         </is>
       </c>
       <c r="D40" s="40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E40" s="41" t="n">
-        <v>248.6</v>
-      </c>
-      <c r="F40" s="41" t="n">
-        <v>2486</v>
+        <v>248.81</v>
+      </c>
+      <c r="F40" s="41">
+        <f>D5*E5</f>
+        <v/>
       </c>
       <c r="G40" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H40" s="40" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="I40" s="40" t="n">
-        <v>15.03</v>
-      </c>
+      <c r="H40" s="40" t="n"/>
+      <c r="I40" s="40" t="n"/>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L40" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M40" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N40" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O40" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P40" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R40" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S40" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T40" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U40" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V40" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W40" s="47" t="n"/>
       <c r="X40" s="47" t="n"/>
       <c r="Y40" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z40" s="47" t="n"/>
       <c r="AA40" s="47" t="n"/>
       <c r="AB40" s="48" t="n"/>
       <c r="AC40" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD40" s="49" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="38" t="n">
-        <v>45881</v>
+        <v>45917</v>
       </c>
       <c r="B41" s="39" t="inlineStr">
         <is>
@@ -2668,197 +2487,183 @@
         <v>10</v>
       </c>
       <c r="E41" s="41" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="F41" s="41" t="n">
-        <v>13</v>
-      </c>
-      <c r="G41" s="39" t="inlineStr">
-        <is>
-          <t>Interim-Dividend of Rs.1.3000/- per share on Ex-Date: 12-AUG-2025</t>
-        </is>
-      </c>
-      <c r="H41" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="40" t="n">
-        <v>0</v>
-      </c>
+        <v>2.65</v>
+      </c>
+      <c r="F41" s="41">
+        <f>(D6*E6)</f>
+        <v/>
+      </c>
+      <c r="G41" s="39" t="n"/>
+      <c r="H41" s="40" t="n"/>
+      <c r="I41" s="40" t="n"/>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L41" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M41" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N41" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O41" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P41" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R41" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S41" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T41" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U41" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V41" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W41" s="47" t="n"/>
       <c r="X41" s="47" t="n"/>
       <c r="Y41" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z41" s="47" t="n"/>
       <c r="AA41" s="47" t="n"/>
       <c r="AB41" s="48" t="n"/>
       <c r="AC41" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD41" s="49" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="38" t="n">
-        <v>45820</v>
+        <v>45917</v>
       </c>
       <c r="B42" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C42" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D42" s="40" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E42" s="41" t="n">
-        <v>301.79</v>
-      </c>
-      <c r="F42" s="41" t="n">
-        <v>30179.17</v>
-      </c>
-      <c r="G42" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H42" s="40" t="n">
-        <v>30.34</v>
-      </c>
-      <c r="I42" s="40" t="n">
-        <v>180.49</v>
-      </c>
+        <v>2.65</v>
+      </c>
+      <c r="F42" s="41">
+        <f>(D7*E7)</f>
+        <v/>
+      </c>
+      <c r="G42" s="39" t="n"/>
+      <c r="H42" s="40" t="n"/>
+      <c r="I42" s="40" t="n"/>
       <c r="J42" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L42" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M42" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N42" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O42" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P42" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R42" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S42" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T42" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U42" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V42" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W42" s="47" t="n"/>
       <c r="X42" s="47" t="n"/>
       <c r="Y42" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z42" s="47" t="n"/>
       <c r="AA42" s="47" t="n"/>
       <c r="AB42" s="48" t="n"/>
       <c r="AC42" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD42" s="49" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="38" t="n">
-        <v>45811</v>
+        <v>45897</v>
       </c>
       <c r="B43" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C43" s="39" t="inlineStr">
@@ -2870,10 +2675,10 @@
         <v>10</v>
       </c>
       <c r="E43" s="41" t="n">
-        <v>283.65</v>
+        <v>248.6</v>
       </c>
       <c r="F43" s="41" t="n">
-        <v>2836.5</v>
+        <v>2486</v>
       </c>
       <c r="G43" s="39" t="inlineStr">
         <is>
@@ -2881,435 +2686,384 @@
         </is>
       </c>
       <c r="H43" s="40" t="n">
-        <v>2.82</v>
+        <v>2.47</v>
       </c>
       <c r="I43" s="40" t="n">
-        <v>17.18</v>
+        <v>15.03</v>
       </c>
       <c r="J43" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L43" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M43" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N43" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O43" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P43" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R43" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S43" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T43" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U43" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V43" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W43" s="47" t="n"/>
       <c r="X43" s="47" t="n"/>
       <c r="Y43" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z43" s="47" t="n"/>
       <c r="AA43" s="47" t="n"/>
       <c r="AB43" s="48" t="n"/>
       <c r="AC43" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD43" s="49" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="50" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B44" s="51" t="inlineStr">
+      <c r="A44" s="38" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B44" s="39" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C44" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D44" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E44" s="41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F44" s="41" t="n">
+        <v>13</v>
+      </c>
+      <c r="G44" s="39" t="inlineStr">
+        <is>
+          <t>Interim-Dividend of Rs.1.3000/- per share on Ex-Date: 12-AUG-2025</t>
+        </is>
+      </c>
+      <c r="H44" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K44" s="43">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="L44" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <v/>
+      </c>
+      <c r="M44" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <v/>
+      </c>
+      <c r="N44" s="45">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <v/>
+      </c>
+      <c r="O44" s="43">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="P44" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <v/>
+      </c>
+      <c r="Q44" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <v/>
+      </c>
+      <c r="R44" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <v/>
+      </c>
+      <c r="S44" s="46">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="T44" s="47">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <v/>
+      </c>
+      <c r="U44" s="47">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <v/>
+      </c>
+      <c r="V44" s="47">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <v/>
+      </c>
+      <c r="W44" s="47" t="n"/>
+      <c r="X44" s="47" t="n"/>
+      <c r="Y44" s="46">
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="Z44" s="47" t="n"/>
+      <c r="AA44" s="47" t="n"/>
+      <c r="AB44" s="48" t="n"/>
+      <c r="AC44" s="44">
+        <f>if(B9="DIV", F9,"")</f>
+        <v/>
+      </c>
+      <c r="AD44" s="49" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="38" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B45" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C44" s="51" t="inlineStr">
+      <c r="C45" s="39" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D45" s="40" t="n">
+        <v>100</v>
+      </c>
+      <c r="E45" s="41" t="n">
+        <v>301.79</v>
+      </c>
+      <c r="F45" s="41" t="n">
+        <v>30179.17</v>
+      </c>
+      <c r="G45" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H45" s="40" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="I45" s="40" t="n">
+        <v>180.49</v>
+      </c>
+      <c r="J45" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K45" s="43">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="L45" s="44">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <v/>
+      </c>
+      <c r="M45" s="44">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <v/>
+      </c>
+      <c r="N45" s="45">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <v/>
+      </c>
+      <c r="O45" s="43">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="P45" s="44">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <v/>
+      </c>
+      <c r="Q45" s="44">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <v/>
+      </c>
+      <c r="R45" s="44">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <v/>
+      </c>
+      <c r="S45" s="46">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="T45" s="47">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <v/>
+      </c>
+      <c r="U45" s="47">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <v/>
+      </c>
+      <c r="V45" s="47">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <v/>
+      </c>
+      <c r="W45" s="47" t="n"/>
+      <c r="X45" s="47" t="n"/>
+      <c r="Y45" s="46">
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="Z45" s="47" t="n"/>
+      <c r="AA45" s="47" t="n"/>
+      <c r="AB45" s="48" t="n"/>
+      <c r="AC45" s="44">
+        <f>if(B10="DIV", F10,"")</f>
+        <v/>
+      </c>
+      <c r="AD45" s="49" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B46" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C46" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D44" s="52" t="n">
-        <v>23</v>
-      </c>
-      <c r="E44" s="53" t="n">
-        <v>214.56</v>
-      </c>
-      <c r="F44" s="53" t="n">
-        <v>4934.98</v>
-      </c>
-      <c r="G44" s="51" t="inlineStr">
+      <c r="D46" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" s="41" t="n">
+        <v>283.65</v>
+      </c>
+      <c r="F46" s="41" t="n">
+        <v>2836.5</v>
+      </c>
+      <c r="G46" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H44" s="52" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="I44" s="52" t="n">
-        <v>29.94</v>
-      </c>
-      <c r="J44" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K44" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="L44" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v/>
-      </c>
-      <c r="M44" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
-        <v/>
-      </c>
-      <c r="N44" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
-        <v/>
-      </c>
-      <c r="O44" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="P44" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v/>
-      </c>
-      <c r="Q44" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
-        <v/>
-      </c>
-      <c r="R44" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
-        <v/>
-      </c>
-      <c r="S44" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="T44" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v/>
-      </c>
-      <c r="U44" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
-        <v/>
-      </c>
-      <c r="V44" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
-        <v/>
-      </c>
-      <c r="W44" s="41" t="n">
-        <v>301.79</v>
-      </c>
-      <c r="X44" s="38" t="n">
-        <v>45820</v>
-      </c>
-      <c r="Y44" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="Z44" s="54">
-        <f>(1-Index!$F$2*2)*((W12*D12)-(E12*D12))</f>
-        <v/>
-      </c>
-      <c r="AA44" s="54">
-        <f>((E12*D12)+Z12)</f>
-        <v/>
-      </c>
-      <c r="AB44" s="55">
-        <f>D12</f>
-        <v/>
-      </c>
-      <c r="AC44" s="44">
-        <f>if(B12="DIV", F12,"")</f>
-        <v/>
-      </c>
-      <c r="AD44" s="56" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="50" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B45" s="51" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C45" s="51" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D45" s="52" t="n">
-        <v>7</v>
-      </c>
-      <c r="E45" s="53" t="n">
-        <v>214.56</v>
-      </c>
-      <c r="F45" s="53" t="n">
-        <v>1501.94</v>
-      </c>
-      <c r="G45" s="51" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H45" s="52" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="I45" s="52" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="J45" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K45" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
-        <v/>
-      </c>
-      <c r="L45" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
-        <v/>
-      </c>
-      <c r="M45" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
-        <v/>
-      </c>
-      <c r="N45" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
-        <v/>
-      </c>
-      <c r="O45" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
-        <v/>
-      </c>
-      <c r="P45" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
-        <v/>
-      </c>
-      <c r="Q45" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
-        <v/>
-      </c>
-      <c r="R45" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
-        <v/>
-      </c>
-      <c r="S45" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
-        <v/>
-      </c>
-      <c r="T45" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
-        <v/>
-      </c>
-      <c r="U45" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
-        <v/>
-      </c>
-      <c r="V45" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
-        <v/>
-      </c>
-      <c r="W45" s="41" t="n">
-        <v>301.79</v>
-      </c>
-      <c r="X45" s="38" t="n">
-        <v>45820</v>
-      </c>
-      <c r="Y45" s="46">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
-        <v/>
-      </c>
-      <c r="Z45" s="54">
-        <f>(1-Index!$F$2*2)*((W13*D13)-(E13*D13))</f>
-        <v/>
-      </c>
-      <c r="AA45" s="54">
-        <f>((E13*D13)+Z13)</f>
-        <v/>
-      </c>
-      <c r="AB45" s="55">
-        <f>D13</f>
-        <v/>
-      </c>
-      <c r="AC45" s="44">
-        <f>if(B13="DIV", F13,"")</f>
-        <v/>
-      </c>
-      <c r="AD45" s="56" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="50" t="n">
-        <v>45705</v>
-      </c>
-      <c r="B46" s="51" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C46" s="51" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D46" s="52" t="n">
-        <v>13</v>
-      </c>
-      <c r="E46" s="53" t="n">
-        <v>202.73</v>
-      </c>
-      <c r="F46" s="53" t="n">
-        <v>2635.5</v>
-      </c>
-      <c r="G46" s="51" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H46" s="52" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="I46" s="52" t="n">
-        <v>15.98</v>
+      <c r="H46" s="40" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I46" s="40" t="n">
+        <v>17.18</v>
       </c>
       <c r="J46" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L46" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M46" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N46" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O46" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P46" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R46" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S46" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T46" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U46" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V46" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
-        <v/>
-      </c>
-      <c r="W46" s="41" t="n">
-        <v>301.79</v>
-      </c>
-      <c r="X46" s="38" t="n">
-        <v>45820</v>
-      </c>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="W46" s="47" t="n"/>
+      <c r="X46" s="47" t="n"/>
       <c r="Y46" s="46">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
-        <v/>
-      </c>
-      <c r="Z46" s="54">
-        <f>(1-Index!$F$2*2)*((W14*D14)-(E14*D14))</f>
-        <v/>
-      </c>
-      <c r="AA46" s="54">
-        <f>((E14*D14)+Z14)</f>
-        <v/>
-      </c>
-      <c r="AB46" s="55">
-        <f>D14</f>
-        <v/>
-      </c>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="Z46" s="47" t="n"/>
+      <c r="AA46" s="47" t="n"/>
+      <c r="AB46" s="48" t="n"/>
       <c r="AC46" s="44">
-        <f>if(B14="DIV", F14,"")</f>
-        <v/>
-      </c>
-      <c r="AD46" s="56" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B11="DIV", F11,"")</f>
+        <v/>
+      </c>
+      <c r="AD46" s="49" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="50" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B47" s="51" t="inlineStr">
         <is>
@@ -3322,13 +3076,13 @@
         </is>
       </c>
       <c r="D47" s="52" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E47" s="53" t="n">
-        <v>202.73</v>
+        <v>214.56</v>
       </c>
       <c r="F47" s="53" t="n">
-        <v>2635.5</v>
+        <v>4934.98</v>
       </c>
       <c r="G47" s="51" t="inlineStr">
         <is>
@@ -3336,61 +3090,61 @@
         </is>
       </c>
       <c r="H47" s="52" t="n">
-        <v>2.62</v>
+        <v>4.89</v>
       </c>
       <c r="I47" s="52" t="n">
-        <v>15.98</v>
+        <v>29.94</v>
       </c>
       <c r="J47" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L47" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M47" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N47" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O47" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P47" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R47" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S47" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T47" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U47" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V47" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W47" s="41" t="n">
@@ -3400,23 +3154,23 @@
         <v>45820</v>
       </c>
       <c r="Y47" s="46">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z47" s="54">
-        <f>(1-Index!$F$2*2)*((W15*D15)-(E15*D15))</f>
+        <f>(1-Index!$F$2*2)*((W12*D12)-(E12*D12))</f>
         <v/>
       </c>
       <c r="AA47" s="54">
-        <f>((E15*D15)+Z15)</f>
+        <f>((E12*D12)+Z12)</f>
         <v/>
       </c>
       <c r="AB47" s="55">
-        <f>D15</f>
+        <f>D12</f>
         <v/>
       </c>
       <c r="AC47" s="44">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD47" s="56" t="inlineStr">
@@ -3427,7 +3181,7 @@
     </row>
     <row r="48">
       <c r="A48" s="50" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B48" s="51" t="inlineStr">
         <is>
@@ -3440,13 +3194,13 @@
         </is>
       </c>
       <c r="D48" s="52" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E48" s="53" t="n">
-        <v>202.73</v>
+        <v>214.56</v>
       </c>
       <c r="F48" s="53" t="n">
-        <v>608.1799999999999</v>
+        <v>1501.94</v>
       </c>
       <c r="G48" s="51" t="inlineStr">
         <is>
@@ -3454,61 +3208,61 @@
         </is>
       </c>
       <c r="H48" s="52" t="n">
-        <v>0.6</v>
+        <v>1.49</v>
       </c>
       <c r="I48" s="52" t="n">
-        <v>3.68</v>
+        <v>9.1</v>
       </c>
       <c r="J48" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L48" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M48" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N48" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O48" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P48" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R48" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S48" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T48" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U48" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V48" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W48" s="41" t="n">
@@ -3518,23 +3272,23 @@
         <v>45820</v>
       </c>
       <c r="Y48" s="46">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z48" s="54">
-        <f>(1-Index!$F$2*2)*((W16*D16)-(E16*D16))</f>
+        <f>(1-Index!$F$2*2)*((W13*D13)-(E13*D13))</f>
         <v/>
       </c>
       <c r="AA48" s="54">
-        <f>((E16*D16)+Z16)</f>
+        <f>((E13*D13)+Z13)</f>
         <v/>
       </c>
       <c r="AB48" s="55">
-        <f>D16</f>
+        <f>D13</f>
         <v/>
       </c>
       <c r="AC48" s="44">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD48" s="56" t="inlineStr">
@@ -3558,13 +3312,13 @@
         </is>
       </c>
       <c r="D49" s="52" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E49" s="53" t="n">
         <v>202.73</v>
       </c>
       <c r="F49" s="53" t="n">
-        <v>608.1799999999999</v>
+        <v>2635.5</v>
       </c>
       <c r="G49" s="51" t="inlineStr">
         <is>
@@ -3572,61 +3326,61 @@
         </is>
       </c>
       <c r="H49" s="52" t="n">
-        <v>0.6</v>
+        <v>2.62</v>
       </c>
       <c r="I49" s="52" t="n">
-        <v>3.68</v>
+        <v>15.98</v>
       </c>
       <c r="J49" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L49" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M49" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N49" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O49" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P49" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R49" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S49" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T49" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U49" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V49" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W49" s="41" t="n">
@@ -3636,23 +3390,23 @@
         <v>45820</v>
       </c>
       <c r="Y49" s="46">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z49" s="54">
-        <f>(1-Index!$F$2*2)*((W17*D17)-(E17*D17))</f>
+        <f>(1-Index!$F$2*2)*((W14*D14)-(E14*D14))</f>
         <v/>
       </c>
       <c r="AA49" s="54">
-        <f>((E17*D17)+Z17)</f>
+        <f>((E14*D14)+Z14)</f>
         <v/>
       </c>
       <c r="AB49" s="55">
-        <f>D17</f>
+        <f>D14</f>
         <v/>
       </c>
       <c r="AC49" s="44">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD49" s="56" t="inlineStr">
@@ -3700,51 +3454,51 @@
         <v/>
       </c>
       <c r="K50" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L50" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M50" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N50" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O50" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P50" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R50" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S50" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T50" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U50" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V50" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W50" s="41" t="n">
@@ -3754,23 +3508,23 @@
         <v>45820</v>
       </c>
       <c r="Y50" s="46">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z50" s="54">
-        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
+        <f>(1-Index!$F$2*2)*((W15*D15)-(E15*D15))</f>
         <v/>
       </c>
       <c r="AA50" s="54">
-        <f>((E18*D18)+Z18)</f>
+        <f>((E15*D15)+Z15)</f>
         <v/>
       </c>
       <c r="AB50" s="55">
-        <f>D18</f>
+        <f>D15</f>
         <v/>
       </c>
       <c r="AC50" s="44">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD50" s="56" t="inlineStr">
@@ -3781,7 +3535,7 @@
     </row>
     <row r="51">
       <c r="A51" s="50" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B51" s="51" t="inlineStr">
         <is>
@@ -3794,13 +3548,13 @@
         </is>
       </c>
       <c r="D51" s="52" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E51" s="53" t="n">
-        <v>223.07</v>
+        <v>202.73</v>
       </c>
       <c r="F51" s="53" t="n">
-        <v>4461.44</v>
+        <v>608.1799999999999</v>
       </c>
       <c r="G51" s="51" t="inlineStr">
         <is>
@@ -3808,61 +3562,61 @@
         </is>
       </c>
       <c r="H51" s="52" t="n">
-        <v>4.43</v>
+        <v>0.6</v>
       </c>
       <c r="I51" s="52" t="n">
-        <v>27.01</v>
+        <v>3.68</v>
       </c>
       <c r="J51" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L51" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M51" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N51" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O51" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P51" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R51" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S51" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T51" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U51" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V51" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W51" s="41" t="n">
@@ -3872,23 +3626,23 @@
         <v>45820</v>
       </c>
       <c r="Y51" s="46">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z51" s="54">
-        <f>(1-Index!$F$2*2)*((W19*D19)-(E19*D19))</f>
+        <f>(1-Index!$F$2*2)*((W16*D16)-(E16*D16))</f>
         <v/>
       </c>
       <c r="AA51" s="54">
-        <f>((E19*D19)+Z19)</f>
+        <f>((E16*D16)+Z16)</f>
         <v/>
       </c>
       <c r="AB51" s="55">
-        <f>D19</f>
+        <f>D16</f>
         <v/>
       </c>
       <c r="AC51" s="44">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD51" s="56" t="inlineStr">
@@ -3899,7 +3653,7 @@
     </row>
     <row r="52">
       <c r="A52" s="50" t="n">
-        <v>45694</v>
+        <v>45705</v>
       </c>
       <c r="B52" s="51" t="inlineStr">
         <is>
@@ -3912,13 +3666,13 @@
         </is>
       </c>
       <c r="D52" s="52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E52" s="53" t="n">
-        <v>237.07</v>
+        <v>202.73</v>
       </c>
       <c r="F52" s="53" t="n">
-        <v>1185.36</v>
+        <v>608.1799999999999</v>
       </c>
       <c r="G52" s="51" t="inlineStr">
         <is>
@@ -3926,61 +3680,61 @@
         </is>
       </c>
       <c r="H52" s="52" t="n">
-        <v>1.18</v>
+        <v>0.6</v>
       </c>
       <c r="I52" s="52" t="n">
-        <v>7.18</v>
+        <v>3.68</v>
       </c>
       <c r="J52" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L52" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M52" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N52" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O52" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P52" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R52" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S52" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T52" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U52" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V52" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W52" s="41" t="n">
@@ -3990,23 +3744,23 @@
         <v>45820</v>
       </c>
       <c r="Y52" s="46">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z52" s="54">
-        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
+        <f>(1-Index!$F$2*2)*((W17*D17)-(E17*D17))</f>
         <v/>
       </c>
       <c r="AA52" s="54">
-        <f>((E20*D20)+Z20)</f>
+        <f>((E17*D17)+Z17)</f>
         <v/>
       </c>
       <c r="AB52" s="55">
-        <f>D20</f>
+        <f>D17</f>
         <v/>
       </c>
       <c r="AC52" s="44">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD52" s="56" t="inlineStr">
@@ -4017,7 +3771,7 @@
     </row>
     <row r="53">
       <c r="A53" s="50" t="n">
-        <v>45316</v>
+        <v>45705</v>
       </c>
       <c r="B53" s="51" t="inlineStr">
         <is>
@@ -4026,17 +3780,17 @@
       </c>
       <c r="C53" s="51" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D53" s="52" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E53" s="53" t="n">
-        <v>640.52</v>
+        <v>202.73</v>
       </c>
       <c r="F53" s="53" t="n">
-        <v>32025.84</v>
+        <v>2635.5</v>
       </c>
       <c r="G53" s="51" t="inlineStr">
         <is>
@@ -4044,175 +3798,205 @@
         </is>
       </c>
       <c r="H53" s="52" t="n">
-        <v>32.26</v>
+        <v>2.62</v>
       </c>
       <c r="I53" s="52" t="n">
-        <v>191.9</v>
+        <v>15.98</v>
       </c>
       <c r="J53" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L53" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M53" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N53" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O53" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P53" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R53" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S53" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T53" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U53" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V53" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
-        <v/>
-      </c>
-      <c r="W53" s="47" t="n"/>
-      <c r="X53" s="47" t="n"/>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <v/>
+      </c>
+      <c r="W53" s="41" t="n">
+        <v>301.79</v>
+      </c>
+      <c r="X53" s="38" t="n">
+        <v>45820</v>
+      </c>
       <c r="Y53" s="46">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
-        <v/>
-      </c>
-      <c r="Z53" s="47" t="n"/>
-      <c r="AA53" s="47" t="n"/>
-      <c r="AB53" s="48" t="n"/>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="Z53" s="54">
+        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
+        <v/>
+      </c>
+      <c r="AA53" s="54">
+        <f>((E18*D18)+Z18)</f>
+        <v/>
+      </c>
+      <c r="AB53" s="55">
+        <f>D18</f>
+        <v/>
+      </c>
       <c r="AC53" s="44">
-        <f>if(B21="DIV", F21,"")</f>
-        <v/>
-      </c>
-      <c r="AD53" s="49" t="n"/>
+        <f>if(B18="DIV", F18,"")</f>
+        <v/>
+      </c>
+      <c r="AD53" s="56" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="57" t="n">
-        <v>45238</v>
-      </c>
-      <c r="B54" s="58" t="inlineStr">
+      <c r="A54" s="50" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B54" s="51" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
-      <c r="C54" s="58" t="inlineStr">
+      <c r="C54" s="51" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D54" s="60" t="n">
-        <v>50</v>
-      </c>
-      <c r="E54" s="42" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F54" s="42" t="n">
-        <v>225</v>
-      </c>
-      <c r="G54" s="60" t="inlineStr">
+      <c r="D54" s="52" t="n">
+        <v>20</v>
+      </c>
+      <c r="E54" s="53" t="n">
+        <v>223.07</v>
+      </c>
+      <c r="F54" s="53" t="n">
+        <v>4461.44</v>
+      </c>
+      <c r="G54" s="51" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.4.5000/- per share on Ex-Date: 08-NOV-2023</t>
+          <t>~</t>
         </is>
       </c>
-      <c r="H54" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" s="60" t="n">
-        <v>0</v>
+      <c r="H54" s="52" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="I54" s="52" t="n">
+        <v>27.01</v>
       </c>
       <c r="J54" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L54" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M54" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N54" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O54" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P54" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R54" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S54" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T54" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U54" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V54" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
-        <v/>
-      </c>
-      <c r="W54" s="47" t="n"/>
-      <c r="X54" s="47" t="n"/>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <v/>
+      </c>
+      <c r="W54" s="41" t="n">
+        <v>301.79</v>
+      </c>
+      <c r="X54" s="38" t="n">
+        <v>45820</v>
+      </c>
       <c r="Y54" s="46">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
-        <v/>
-      </c>
-      <c r="Z54" s="47" t="n"/>
-      <c r="AA54" s="47" t="n"/>
-      <c r="AB54" s="48" t="n"/>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="Z54" s="54">
+        <f>(1-Index!$F$2*2)*((W19*D19)-(E19*D19))</f>
+        <v/>
+      </c>
+      <c r="AA54" s="54">
+        <f>((E19*D19)+Z19)</f>
+        <v/>
+      </c>
+      <c r="AB54" s="55">
+        <f>D19</f>
+        <v/>
+      </c>
       <c r="AC54" s="44">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD54" s="56" t="inlineStr">
@@ -4222,106 +4006,115 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="57" t="n">
-        <v>45225</v>
-      </c>
-      <c r="B55" s="58" t="inlineStr">
+      <c r="A55" s="50" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B55" s="51" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C55" s="58" t="inlineStr">
+      <c r="C55" s="51" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D55" s="60" t="n">
+      <c r="D55" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="E55" s="42" t="n">
-        <v>434.402</v>
-      </c>
-      <c r="F55" s="42" t="n">
-        <v>2187.44</v>
-      </c>
-      <c r="G55" s="60" t="inlineStr">
+      <c r="E55" s="53" t="n">
+        <v>237.07</v>
+      </c>
+      <c r="F55" s="53" t="n">
+        <v>1185.36</v>
+      </c>
+      <c r="G55" s="51" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H55" s="60" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="I55" s="60" t="n">
-        <v>13.25</v>
+      <c r="H55" s="52" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I55" s="52" t="n">
+        <v>7.18</v>
       </c>
       <c r="J55" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K55" s="47" t="n"/>
-      <c r="L55" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
-        <v/>
-      </c>
-      <c r="M55" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
-        <v/>
-      </c>
-      <c r="N55" s="62">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
-        <v/>
-      </c>
-      <c r="O55" s="61" t="n"/>
-      <c r="P55" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
-        <v/>
-      </c>
-      <c r="Q55" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
-        <v/>
-      </c>
-      <c r="R55" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
-        <v/>
-      </c>
-      <c r="S55" s="61" t="n"/>
-      <c r="T55" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (J23*D23)-(E23*D23)-(2*sum(H23:I23)), "")</f>
-        <v/>
-      </c>
-      <c r="U55" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
-        <v/>
-      </c>
-      <c r="V55" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
-        <v/>
-      </c>
-      <c r="W55" s="53" t="n">
-        <v>640.52</v>
-      </c>
-      <c r="X55" s="50" t="n">
-        <v>45316</v>
+      <c r="K55" s="43">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <v/>
+      </c>
+      <c r="L55" s="44">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <v/>
+      </c>
+      <c r="M55" s="44">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <v/>
+      </c>
+      <c r="N55" s="45">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <v/>
+      </c>
+      <c r="O55" s="43">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <v/>
+      </c>
+      <c r="P55" s="44">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <v/>
+      </c>
+      <c r="Q55" s="44">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <v/>
+      </c>
+      <c r="R55" s="44">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <v/>
+      </c>
+      <c r="S55" s="46">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <v/>
+      </c>
+      <c r="T55" s="47">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <v/>
+      </c>
+      <c r="U55" s="47">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <v/>
+      </c>
+      <c r="V55" s="47">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <v/>
+      </c>
+      <c r="W55" s="41" t="n">
+        <v>301.79</v>
+      </c>
+      <c r="X55" s="38" t="n">
+        <v>45820</v>
       </c>
       <c r="Y55" s="46">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z55" s="54">
-        <f>(1-Index!$F$2*2)*((W23*D23)-(E23*D23))</f>
+        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
         <v/>
       </c>
       <c r="AA55" s="54">
-        <f>((E23*D23)+Z23)</f>
+        <f>((E20*D20)+Z20)</f>
         <v/>
       </c>
       <c r="AB55" s="55">
-        <f>D23</f>
+        <f>D20</f>
         <v/>
       </c>
       <c r="AC55" s="44">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD55" s="56" t="inlineStr">
@@ -4331,121 +4124,113 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="57" t="n">
-        <v>45191</v>
-      </c>
-      <c r="B56" s="58" t="inlineStr">
+      <c r="A56" s="50" t="n">
+        <v>45316</v>
+      </c>
+      <c r="B56" s="51" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C56" s="58" t="inlineStr">
+      <c r="C56" s="51" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
-      <c r="D56" s="60" t="n">
-        <v>10</v>
-      </c>
-      <c r="E56" s="42" t="n">
-        <v>485.448</v>
-      </c>
-      <c r="F56" s="42" t="n">
-        <v>4889.12</v>
-      </c>
-      <c r="G56" s="60" t="inlineStr">
+      <c r="D56" s="52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E56" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="F56" s="53" t="n">
+        <v>32025.84</v>
+      </c>
+      <c r="G56" s="51" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H56" s="60" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="I56" s="60" t="n">
-        <v>29.68</v>
+      <c r="H56" s="52" t="n">
+        <v>32.26</v>
+      </c>
+      <c r="I56" s="52" t="n">
+        <v>191.9</v>
       </c>
       <c r="J56" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K56" s="47" t="n"/>
-      <c r="L56" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
-        <v/>
-      </c>
-      <c r="M56" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
-        <v/>
-      </c>
-      <c r="N56" s="62">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
-        <v/>
-      </c>
-      <c r="O56" s="61" t="n"/>
-      <c r="P56" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
-        <v/>
-      </c>
-      <c r="Q56" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
-        <v/>
-      </c>
-      <c r="R56" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
-        <v/>
-      </c>
-      <c r="S56" s="61" t="n"/>
-      <c r="T56" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (J24*D24)-(E24*D24)-(2*sum(H24:I24)), "")</f>
-        <v/>
-      </c>
-      <c r="U56" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
-        <v/>
-      </c>
-      <c r="V56" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
-        <v/>
-      </c>
-      <c r="W56" s="53" t="n">
-        <v>640.52</v>
-      </c>
-      <c r="X56" s="50" t="n">
-        <v>45316</v>
-      </c>
+      <c r="K56" s="43">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="L56" s="44">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <v/>
+      </c>
+      <c r="M56" s="44">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <v/>
+      </c>
+      <c r="N56" s="45">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <v/>
+      </c>
+      <c r="O56" s="43">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="P56" s="44">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <v/>
+      </c>
+      <c r="Q56" s="44">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <v/>
+      </c>
+      <c r="R56" s="44">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <v/>
+      </c>
+      <c r="S56" s="46">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="T56" s="47">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <v/>
+      </c>
+      <c r="U56" s="47">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <v/>
+      </c>
+      <c r="V56" s="47">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <v/>
+      </c>
+      <c r="W56" s="47" t="n"/>
+      <c r="X56" s="47" t="n"/>
       <c r="Y56" s="46">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
-        <v/>
-      </c>
-      <c r="Z56" s="54">
-        <f>(1-Index!$F$2*2)*((W24*D24)-(E24*D24))</f>
-        <v/>
-      </c>
-      <c r="AA56" s="54">
-        <f>((E24*D24)+Z24)</f>
-        <v/>
-      </c>
-      <c r="AB56" s="55">
-        <f>D24</f>
-        <v/>
-      </c>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="Z56" s="47" t="n"/>
+      <c r="AA56" s="47" t="n"/>
+      <c r="AB56" s="48" t="n"/>
       <c r="AC56" s="44">
-        <f>if(B24="DIV", F24,"")</f>
-        <v/>
-      </c>
-      <c r="AD56" s="56" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B21="DIV", F21,"")</f>
+        <v/>
+      </c>
+      <c r="AD56" s="49" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="57" t="n">
-        <v>45181</v>
+        <v>45238</v>
       </c>
       <c r="B57" s="58" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C57" s="58" t="inlineStr">
@@ -4454,92 +4239,88 @@
         </is>
       </c>
       <c r="D57" s="60" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E57" s="42" t="n">
-        <v>528.498</v>
+        <v>4.5</v>
       </c>
       <c r="F57" s="42" t="n">
-        <v>2661.21</v>
+        <v>225</v>
       </c>
       <c r="G57" s="60" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.4.5000/- per share on Ex-Date: 08-NOV-2023</t>
         </is>
       </c>
       <c r="H57" s="60" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="I57" s="60" t="n">
-        <v>16.07</v>
+        <v>0</v>
       </c>
       <c r="J57" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K57" s="47" t="n"/>
-      <c r="L57" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
-        <v/>
-      </c>
-      <c r="M57" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
-        <v/>
-      </c>
-      <c r="N57" s="62">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
-        <v/>
-      </c>
-      <c r="O57" s="61" t="n"/>
-      <c r="P57" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
-        <v/>
-      </c>
-      <c r="Q57" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
-        <v/>
-      </c>
-      <c r="R57" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
-        <v/>
-      </c>
-      <c r="S57" s="61" t="n"/>
-      <c r="T57" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (J25*D25)-(E25*D25)-(2*sum(H25:I25)), "")</f>
-        <v/>
-      </c>
-      <c r="U57" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
-        <v/>
-      </c>
-      <c r="V57" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
-        <v/>
-      </c>
-      <c r="W57" s="53" t="n">
-        <v>640.52</v>
-      </c>
-      <c r="X57" s="50" t="n">
-        <v>45316</v>
-      </c>
+      <c r="K57" s="43">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="L57" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="M57" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <v/>
+      </c>
+      <c r="N57" s="45">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <v/>
+      </c>
+      <c r="O57" s="43">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="P57" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="Q57" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <v/>
+      </c>
+      <c r="R57" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="S57" s="46">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="T57" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="U57" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <v/>
+      </c>
+      <c r="V57" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="W57" s="47" t="n"/>
+      <c r="X57" s="47" t="n"/>
       <c r="Y57" s="46">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
-        <v/>
-      </c>
-      <c r="Z57" s="54">
-        <f>(1-Index!$F$2*2)*((W25*D25)-(E25*D25))</f>
-        <v/>
-      </c>
-      <c r="AA57" s="54">
-        <f>((E25*D25)+Z25)</f>
-        <v/>
-      </c>
-      <c r="AB57" s="55">
-        <f>D25</f>
-        <v/>
-      </c>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="Z57" s="47" t="n"/>
+      <c r="AA57" s="47" t="n"/>
+      <c r="AB57" s="48" t="n"/>
       <c r="AC57" s="44">
-        <f>if(B25="DIV", F25,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD57" s="56" t="inlineStr">
@@ -4550,11 +4331,11 @@
     </row>
     <row r="58">
       <c r="A58" s="57" t="n">
-        <v>45177</v>
+        <v>45225</v>
       </c>
       <c r="B58" s="58" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C58" s="58" t="inlineStr">
@@ -4563,24 +4344,24 @@
         </is>
       </c>
       <c r="D58" s="60" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E58" s="42" t="n">
-        <v>6</v>
+        <v>434.402</v>
       </c>
       <c r="F58" s="42" t="n">
-        <v>180</v>
+        <v>2187.44</v>
       </c>
       <c r="G58" s="60" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.6.0000/- per share on Ex-Date: 08-SEP-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H58" s="60" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="I58" s="60" t="n">
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="J58" s="42">
         <f>Index!$C$2</f>
@@ -4588,54 +4369,67 @@
       </c>
       <c r="K58" s="47" t="n"/>
       <c r="L58" s="47">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M58" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N58" s="62">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O58" s="61" t="n"/>
       <c r="P58" s="47">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q58" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R58" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S58" s="61" t="n"/>
       <c r="T58" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*sum(H26:I26)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (J23*D23)-(E23*D23)-(2*sum(H23:I23)), "")</f>
         <v/>
       </c>
       <c r="U58" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V58" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
-        <v/>
-      </c>
-      <c r="W58" s="47" t="n"/>
-      <c r="X58" s="47" t="n"/>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="W58" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="X58" s="50" t="n">
+        <v>45316</v>
+      </c>
       <c r="Y58" s="46">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
-        <v/>
-      </c>
-      <c r="Z58" s="47" t="n"/>
-      <c r="AA58" s="47" t="n"/>
-      <c r="AB58" s="48" t="n"/>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="Z58" s="54">
+        <f>(1-Index!$F$2*2)*((W23*D23)-(E23*D23))</f>
+        <v/>
+      </c>
+      <c r="AA58" s="54">
+        <f>((E23*D23)+Z23)</f>
+        <v/>
+      </c>
+      <c r="AB58" s="55">
+        <f>D23</f>
+        <v/>
+      </c>
       <c r="AC58" s="44">
-        <f>if(B26="DIV", F26,"")</f>
+        <f>if(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD58" s="56" t="inlineStr">
@@ -4646,7 +4440,7 @@
     </row>
     <row r="59">
       <c r="A59" s="57" t="n">
-        <v>45162</v>
+        <v>45191</v>
       </c>
       <c r="B59" s="58" t="inlineStr">
         <is>
@@ -4659,13 +4453,13 @@
         </is>
       </c>
       <c r="D59" s="60" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E59" s="42" t="n">
-        <v>474.2</v>
+        <v>485.448</v>
       </c>
       <c r="F59" s="42" t="n">
-        <v>477.55</v>
+        <v>4889.12</v>
       </c>
       <c r="G59" s="60" t="inlineStr">
         <is>
@@ -4673,10 +4467,10 @@
         </is>
       </c>
       <c r="H59" s="60" t="n">
-        <v>0.47</v>
+        <v>4.94</v>
       </c>
       <c r="I59" s="60" t="n">
-        <v>2.88</v>
+        <v>29.68</v>
       </c>
       <c r="J59" s="42">
         <f>Index!$C$2</f>
@@ -4684,41 +4478,41 @@
       </c>
       <c r="K59" s="47" t="n"/>
       <c r="L59" s="47">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M59" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N59" s="62">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O59" s="61" t="n"/>
       <c r="P59" s="47">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q59" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R59" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S59" s="61" t="n"/>
       <c r="T59" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*sum(H27:I27)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (J24*D24)-(E24*D24)-(2*sum(H24:I24)), "")</f>
         <v/>
       </c>
       <c r="U59" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V59" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W59" s="53" t="n">
@@ -4728,23 +4522,23 @@
         <v>45316</v>
       </c>
       <c r="Y59" s="46">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z59" s="54">
-        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
+        <f>(1-Index!$F$2*2)*((W24*D24)-(E24*D24))</f>
         <v/>
       </c>
       <c r="AA59" s="54">
-        <f>((E27*D27)+Z27)</f>
+        <f>((E24*D24)+Z24)</f>
         <v/>
       </c>
       <c r="AB59" s="55">
-        <f>D27</f>
+        <f>D24</f>
         <v/>
       </c>
       <c r="AC59" s="44">
-        <f>if(B27="DIV", F27,"")</f>
+        <f>if(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD59" s="56" t="inlineStr">
@@ -4755,7 +4549,7 @@
     </row>
     <row r="60">
       <c r="A60" s="57" t="n">
-        <v>45162</v>
+        <v>45181</v>
       </c>
       <c r="B60" s="58" t="inlineStr">
         <is>
@@ -4768,13 +4562,13 @@
         </is>
       </c>
       <c r="D60" s="60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E60" s="42" t="n">
-        <v>474</v>
+        <v>528.498</v>
       </c>
       <c r="F60" s="42" t="n">
-        <v>1909.44</v>
+        <v>2661.21</v>
       </c>
       <c r="G60" s="60" t="inlineStr">
         <is>
@@ -4782,10 +4576,10 @@
         </is>
       </c>
       <c r="H60" s="60" t="n">
-        <v>1.88</v>
+        <v>2.64</v>
       </c>
       <c r="I60" s="60" t="n">
-        <v>11.56</v>
+        <v>16.07</v>
       </c>
       <c r="J60" s="42">
         <f>Index!$C$2</f>
@@ -4793,41 +4587,41 @@
       </c>
       <c r="K60" s="47" t="n"/>
       <c r="L60" s="47">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M60" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N60" s="62">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O60" s="61" t="n"/>
       <c r="P60" s="47">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q60" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R60" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S60" s="61" t="n"/>
       <c r="T60" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*sum(H28:I28)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (J25*D25)-(E25*D25)-(2*sum(H25:I25)), "")</f>
         <v/>
       </c>
       <c r="U60" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V60" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="W60" s="53" t="n">
@@ -4837,23 +4631,23 @@
         <v>45316</v>
       </c>
       <c r="Y60" s="46">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="Z60" s="54">
-        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
+        <f>(1-Index!$F$2*2)*((W25*D25)-(E25*D25))</f>
         <v/>
       </c>
       <c r="AA60" s="54">
-        <f>((E28*D28)+Z28)</f>
+        <f>((E25*D25)+Z25)</f>
         <v/>
       </c>
       <c r="AB60" s="55">
-        <f>D28</f>
+        <f>D25</f>
         <v/>
       </c>
       <c r="AC60" s="44">
-        <f>if(B28="DIV", F28,"")</f>
+        <f>if(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD60" s="56" t="inlineStr">
@@ -4864,7 +4658,7 @@
     </row>
     <row r="61">
       <c r="A61" s="57" t="n">
-        <v>45145</v>
+        <v>45177</v>
       </c>
       <c r="B61" s="58" t="inlineStr">
         <is>
@@ -4877,17 +4671,17 @@
         </is>
       </c>
       <c r="D61" s="60" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E61" s="42" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="F61" s="42" t="n">
-        <v>93.75</v>
+        <v>180</v>
       </c>
       <c r="G61" s="60" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.3.7500/- per share on Ex-Date: 07-AUG-2023</t>
+          <t>Final-Dividend of Rs.6.0000/- per share on Ex-Date: 08-SEP-2023</t>
         </is>
       </c>
       <c r="H61" s="60" t="n">
@@ -4902,54 +4696,54 @@
       </c>
       <c r="K61" s="47" t="n"/>
       <c r="L61" s="47">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M61" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N61" s="62">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O61" s="61" t="n"/>
       <c r="P61" s="47">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q61" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R61" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S61" s="61" t="n"/>
       <c r="T61" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*sum(H29:I29)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*sum(H26:I26)), "")</f>
         <v/>
       </c>
       <c r="U61" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V61" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W61" s="47" t="n"/>
       <c r="X61" s="47" t="n"/>
       <c r="Y61" s="46">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z61" s="47" t="n"/>
       <c r="AA61" s="47" t="n"/>
       <c r="AB61" s="48" t="n"/>
       <c r="AC61" s="44">
-        <f>if(B29="DIV", F29,"")</f>
+        <f>if(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD61" s="56" t="inlineStr">
@@ -4960,7 +4754,7 @@
     </row>
     <row r="62">
       <c r="A62" s="57" t="n">
-        <v>45034</v>
+        <v>45162</v>
       </c>
       <c r="B62" s="58" t="inlineStr">
         <is>
@@ -4973,13 +4767,13 @@
         </is>
       </c>
       <c r="D62" s="60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E62" s="42" t="n">
-        <v>347.95</v>
+        <v>474.2</v>
       </c>
       <c r="F62" s="42" t="n">
-        <v>1752.1</v>
+        <v>477.55</v>
       </c>
       <c r="G62" s="60" t="inlineStr">
         <is>
@@ -4987,10 +4781,10 @@
         </is>
       </c>
       <c r="H62" s="60" t="n">
-        <v>1.74</v>
+        <v>0.47</v>
       </c>
       <c r="I62" s="60" t="n">
-        <v>10.61</v>
+        <v>2.88</v>
       </c>
       <c r="J62" s="42">
         <f>Index!$C$2</f>
@@ -4998,41 +4792,41 @@
       </c>
       <c r="K62" s="47" t="n"/>
       <c r="L62" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M62" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N62" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O62" s="61" t="n"/>
       <c r="P62" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q62" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R62" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S62" s="61" t="n"/>
       <c r="T62" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*sum(H27:I27)), "")</f>
         <v/>
       </c>
       <c r="U62" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V62" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W62" s="53" t="n">
@@ -5042,23 +4836,23 @@
         <v>45316</v>
       </c>
       <c r="Y62" s="46">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="Z62" s="54">
-        <f>(1-Index!$F$2*2)*((W30*D30)-(E30*D30))</f>
+        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
         <v/>
       </c>
       <c r="AA62" s="54">
-        <f>((E30*D30)+Z30)</f>
+        <f>((E27*D27)+Z27)</f>
         <v/>
       </c>
       <c r="AB62" s="55">
-        <f>D30</f>
+        <f>D27</f>
         <v/>
       </c>
       <c r="AC62" s="44">
-        <f>if(B30="DIV", F30,"")</f>
+        <f>if(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD62" s="56" t="inlineStr">
@@ -5069,7 +4863,7 @@
     </row>
     <row r="63">
       <c r="A63" s="57" t="n">
-        <v>44981</v>
+        <v>45162</v>
       </c>
       <c r="B63" s="58" t="inlineStr">
         <is>
@@ -5082,13 +4876,13 @@
         </is>
       </c>
       <c r="D63" s="60" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E63" s="42" t="n">
-        <v>333.751</v>
+        <v>474</v>
       </c>
       <c r="F63" s="42" t="n">
-        <v>3361.19</v>
+        <v>1909.44</v>
       </c>
       <c r="G63" s="60" t="inlineStr">
         <is>
@@ -5096,10 +4890,10 @@
         </is>
       </c>
       <c r="H63" s="60" t="n">
-        <v>3.34</v>
+        <v>1.88</v>
       </c>
       <c r="I63" s="60" t="n">
-        <v>20.35</v>
+        <v>11.56</v>
       </c>
       <c r="J63" s="42">
         <f>Index!$C$2</f>
@@ -5107,41 +4901,41 @@
       </c>
       <c r="K63" s="47" t="n"/>
       <c r="L63" s="47">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M63" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N63" s="62">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O63" s="61" t="n"/>
       <c r="P63" s="47">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q63" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R63" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S63" s="61" t="n"/>
       <c r="T63" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*sum(H31:I31)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*sum(H28:I28)), "")</f>
         <v/>
       </c>
       <c r="U63" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V63" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="W63" s="53" t="n">
@@ -5151,23 +4945,23 @@
         <v>45316</v>
       </c>
       <c r="Y63" s="46">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="Z63" s="54">
-        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
+        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
         <v/>
       </c>
       <c r="AA63" s="54">
-        <f>((E31*D31)+Z31)</f>
+        <f>((E28*D28)+Z28)</f>
         <v/>
       </c>
       <c r="AB63" s="55">
-        <f>D31</f>
+        <f>D28</f>
         <v/>
       </c>
       <c r="AC63" s="44">
-        <f>if(B31="DIV", F31,"")</f>
+        <f>if(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD63" s="56" t="inlineStr">
@@ -5178,7 +4972,7 @@
     </row>
     <row r="64">
       <c r="A64" s="57" t="n">
-        <v>44974</v>
+        <v>45145</v>
       </c>
       <c r="B64" s="58" t="inlineStr">
         <is>
@@ -5191,17 +4985,17 @@
         </is>
       </c>
       <c r="D64" s="60" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E64" s="42" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="F64" s="42" t="n">
-        <v>60</v>
+        <v>93.75</v>
       </c>
       <c r="G64" s="60" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.6.0000/- per share on Ex-Date: 17-FEB-2023</t>
+          <t>Interim-Dividend of Rs.3.7500/- per share on Ex-Date: 07-AUG-2023</t>
         </is>
       </c>
       <c r="H64" s="60" t="n">
@@ -5216,54 +5010,54 @@
       </c>
       <c r="K64" s="47" t="n"/>
       <c r="L64" s="47">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M64" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N64" s="62">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O64" s="61" t="n"/>
       <c r="P64" s="47">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q64" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R64" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S64" s="61" t="n"/>
       <c r="T64" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*sum(H32:I32)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*sum(H29:I29)), "")</f>
         <v/>
       </c>
       <c r="U64" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V64" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W64" s="47" t="n"/>
       <c r="X64" s="47" t="n"/>
       <c r="Y64" s="46">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="Z64" s="47" t="n"/>
       <c r="AA64" s="47" t="n"/>
       <c r="AB64" s="48" t="n"/>
       <c r="AC64" s="44">
-        <f>if(B32="DIV", F32,"")</f>
+        <f>if(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD64" s="56" t="inlineStr">
@@ -5274,7 +5068,7 @@
     </row>
     <row r="65">
       <c r="A65" s="57" t="n">
-        <v>44953</v>
+        <v>45034</v>
       </c>
       <c r="B65" s="58" t="inlineStr">
         <is>
@@ -5287,13 +5081,13 @@
         </is>
       </c>
       <c r="D65" s="60" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E65" s="42" t="n">
-        <v>332.597</v>
+        <v>347.95</v>
       </c>
       <c r="F65" s="42" t="n">
-        <v>3349.53</v>
+        <v>1752.1</v>
       </c>
       <c r="G65" s="60" t="inlineStr">
         <is>
@@ -5301,10 +5095,10 @@
         </is>
       </c>
       <c r="H65" s="60" t="n">
-        <v>3.29</v>
+        <v>1.74</v>
       </c>
       <c r="I65" s="60" t="n">
-        <v>20.24</v>
+        <v>10.61</v>
       </c>
       <c r="J65" s="42">
         <f>Index!$C$2</f>
@@ -5312,41 +5106,41 @@
       </c>
       <c r="K65" s="47" t="n"/>
       <c r="L65" s="47">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M65" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N65" s="62">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O65" s="61" t="n"/>
       <c r="P65" s="47">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q65" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R65" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S65" s="61" t="n"/>
       <c r="T65" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*sum(H33:I33)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
         <v/>
       </c>
       <c r="U65" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V65" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="W65" s="53" t="n">
@@ -5356,23 +5150,23 @@
         <v>45316</v>
       </c>
       <c r="Y65" s="46">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
         <v/>
       </c>
       <c r="Z65" s="54">
-        <f>(1-Index!$F$2*2)*((W33*D33)-(E33*D33))</f>
+        <f>(1-Index!$F$2*2)*((W30*D30)-(E30*D30))</f>
         <v/>
       </c>
       <c r="AA65" s="54">
-        <f>((E33*D33)+Z33)</f>
+        <f>((E30*D30)+Z30)</f>
         <v/>
       </c>
       <c r="AB65" s="55">
-        <f>D33</f>
+        <f>D30</f>
         <v/>
       </c>
       <c r="AC65" s="44">
-        <f>if(B33="DIV", F33,"")</f>
+        <f>if(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD65" s="56" t="inlineStr">
@@ -5382,52 +5176,318 @@
       </c>
     </row>
     <row r="66">
-      <c r="E66" s="63" t="n"/>
-      <c r="F66" s="63" t="n"/>
-      <c r="G66" s="64" t="n"/>
-      <c r="J66" s="63" t="n"/>
-      <c r="K66" s="63" t="n"/>
-      <c r="L66" s="63" t="n"/>
-      <c r="M66" s="66" t="n"/>
-      <c r="W66" s="63" t="n"/>
-      <c r="X66" s="63" t="n"/>
-      <c r="Y66" s="63" t="n"/>
-      <c r="Z66" s="63" t="n"/>
-      <c r="AA66" s="63" t="n"/>
-      <c r="AB66" s="63" t="n"/>
-      <c r="AC66" s="63" t="n"/>
+      <c r="A66" s="57" t="n">
+        <v>44981</v>
+      </c>
+      <c r="B66" s="58" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C66" s="58" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D66" s="60" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" s="42" t="n">
+        <v>333.751</v>
+      </c>
+      <c r="F66" s="42" t="n">
+        <v>3361.19</v>
+      </c>
+      <c r="G66" s="60" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H66" s="60" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="I66" s="60" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="J66" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K66" s="47" t="n"/>
+      <c r="L66" s="47">
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <v/>
+      </c>
+      <c r="M66" s="61">
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <v/>
+      </c>
+      <c r="N66" s="62">
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <v/>
+      </c>
+      <c r="O66" s="61" t="n"/>
+      <c r="P66" s="47">
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <v/>
+      </c>
+      <c r="Q66" s="61">
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <v/>
+      </c>
+      <c r="R66" s="61">
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <v/>
+      </c>
+      <c r="S66" s="61" t="n"/>
+      <c r="T66" s="61">
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*sum(H31:I31)), "")</f>
+        <v/>
+      </c>
+      <c r="U66" s="61">
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <v/>
+      </c>
+      <c r="V66" s="61">
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <v/>
+      </c>
+      <c r="W66" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="X66" s="50" t="n">
+        <v>45316</v>
+      </c>
+      <c r="Y66" s="46">
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
+        <v/>
+      </c>
+      <c r="Z66" s="54">
+        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
+        <v/>
+      </c>
+      <c r="AA66" s="54">
+        <f>((E31*D31)+Z31)</f>
+        <v/>
+      </c>
+      <c r="AB66" s="55">
+        <f>D31</f>
+        <v/>
+      </c>
+      <c r="AC66" s="44">
+        <f>if(B31="DIV", F31,"")</f>
+        <v/>
+      </c>
+      <c r="AD66" s="56" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="E67" s="63" t="n"/>
-      <c r="F67" s="63" t="n"/>
-      <c r="G67" s="64" t="n"/>
-      <c r="J67" s="63" t="n"/>
-      <c r="K67" s="63" t="n"/>
-      <c r="L67" s="63" t="n"/>
-      <c r="M67" s="66" t="n"/>
-      <c r="W67" s="63" t="n"/>
-      <c r="X67" s="63" t="n"/>
-      <c r="Y67" s="63" t="n"/>
-      <c r="Z67" s="63" t="n"/>
-      <c r="AA67" s="63" t="n"/>
-      <c r="AB67" s="63" t="n"/>
-      <c r="AC67" s="63" t="n"/>
+      <c r="A67" s="57" t="n">
+        <v>44974</v>
+      </c>
+      <c r="B67" s="58" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C67" s="58" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D67" s="60" t="n">
+        <v>10</v>
+      </c>
+      <c r="E67" s="42" t="n">
+        <v>6</v>
+      </c>
+      <c r="F67" s="42" t="n">
+        <v>60</v>
+      </c>
+      <c r="G67" s="60" t="inlineStr">
+        <is>
+          <t>Interim-Dividend of Rs.6.0000/- per share on Ex-Date: 17-FEB-2023</t>
+        </is>
+      </c>
+      <c r="H67" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K67" s="47" t="n"/>
+      <c r="L67" s="47">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <v/>
+      </c>
+      <c r="M67" s="61">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <v/>
+      </c>
+      <c r="N67" s="62">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <v/>
+      </c>
+      <c r="O67" s="61" t="n"/>
+      <c r="P67" s="47">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <v/>
+      </c>
+      <c r="Q67" s="61">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <v/>
+      </c>
+      <c r="R67" s="61">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <v/>
+      </c>
+      <c r="S67" s="61" t="n"/>
+      <c r="T67" s="61">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*sum(H32:I32)), "")</f>
+        <v/>
+      </c>
+      <c r="U67" s="61">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <v/>
+      </c>
+      <c r="V67" s="61">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <v/>
+      </c>
+      <c r="W67" s="47" t="n"/>
+      <c r="X67" s="47" t="n"/>
+      <c r="Y67" s="46">
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
+        <v/>
+      </c>
+      <c r="Z67" s="47" t="n"/>
+      <c r="AA67" s="47" t="n"/>
+      <c r="AB67" s="48" t="n"/>
+      <c r="AC67" s="44">
+        <f>if(B32="DIV", F32,"")</f>
+        <v/>
+      </c>
+      <c r="AD67" s="56" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="E68" s="63" t="n"/>
-      <c r="F68" s="63" t="n"/>
-      <c r="G68" s="64" t="n"/>
-      <c r="J68" s="63" t="n"/>
-      <c r="K68" s="63" t="n"/>
-      <c r="L68" s="63" t="n"/>
-      <c r="M68" s="66" t="n"/>
-      <c r="W68" s="63" t="n"/>
-      <c r="X68" s="63" t="n"/>
-      <c r="Y68" s="63" t="n"/>
-      <c r="Z68" s="63" t="n"/>
-      <c r="AA68" s="63" t="n"/>
-      <c r="AB68" s="63" t="n"/>
-      <c r="AC68" s="63" t="n"/>
+      <c r="A68" s="57" t="n">
+        <v>44953</v>
+      </c>
+      <c r="B68" s="58" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C68" s="58" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D68" s="60" t="n">
+        <v>10</v>
+      </c>
+      <c r="E68" s="42" t="n">
+        <v>332.597</v>
+      </c>
+      <c r="F68" s="42" t="n">
+        <v>3349.53</v>
+      </c>
+      <c r="G68" s="60" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H68" s="60" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="I68" s="60" t="n">
+        <v>20.24</v>
+      </c>
+      <c r="J68" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K68" s="47" t="n"/>
+      <c r="L68" s="47">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <v/>
+      </c>
+      <c r="M68" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <v/>
+      </c>
+      <c r="N68" s="62">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <v/>
+      </c>
+      <c r="O68" s="61" t="n"/>
+      <c r="P68" s="47">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <v/>
+      </c>
+      <c r="Q68" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <v/>
+      </c>
+      <c r="R68" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <v/>
+      </c>
+      <c r="S68" s="61" t="n"/>
+      <c r="T68" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*sum(H33:I33)), "")</f>
+        <v/>
+      </c>
+      <c r="U68" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <v/>
+      </c>
+      <c r="V68" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <v/>
+      </c>
+      <c r="W68" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="X68" s="50" t="n">
+        <v>45316</v>
+      </c>
+      <c r="Y68" s="46">
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
+        <v/>
+      </c>
+      <c r="Z68" s="54">
+        <f>(1-Index!$F$2*2)*((W33*D33)-(E33*D33))</f>
+        <v/>
+      </c>
+      <c r="AA68" s="54">
+        <f>((E33*D33)+Z33)</f>
+        <v/>
+      </c>
+      <c r="AB68" s="55">
+        <f>D33</f>
+        <v/>
+      </c>
+      <c r="AC68" s="44">
+        <f>if(B33="DIV", F33,"")</f>
+        <v/>
+      </c>
+      <c r="AD68" s="56" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="E69" s="63" t="n"/>
@@ -21020,6 +21080,7 @@
       <c r="J1043" s="63" t="n"/>
       <c r="K1043" s="63" t="n"/>
       <c r="L1043" s="63" t="n"/>
+      <c r="M1043" s="66" t="n"/>
       <c r="W1043" s="63" t="n"/>
       <c r="X1043" s="63" t="n"/>
       <c r="Y1043" s="63" t="n"/>
@@ -21035,6 +21096,7 @@
       <c r="J1044" s="63" t="n"/>
       <c r="K1044" s="63" t="n"/>
       <c r="L1044" s="63" t="n"/>
+      <c r="M1044" s="66" t="n"/>
       <c r="W1044" s="63" t="n"/>
       <c r="X1044" s="63" t="n"/>
       <c r="Y1044" s="63" t="n"/>
@@ -21050,6 +21112,7 @@
       <c r="J1045" s="63" t="n"/>
       <c r="K1045" s="63" t="n"/>
       <c r="L1045" s="63" t="n"/>
+      <c r="M1045" s="66" t="n"/>
       <c r="W1045" s="63" t="n"/>
       <c r="X1045" s="63" t="n"/>
       <c r="Y1045" s="63" t="n"/>
@@ -21267,6 +21330,51 @@
       <c r="AA1059" s="63" t="n"/>
       <c r="AB1059" s="63" t="n"/>
       <c r="AC1059" s="63" t="n"/>
+    </row>
+    <row r="1060">
+      <c r="E1060" s="63" t="n"/>
+      <c r="F1060" s="63" t="n"/>
+      <c r="G1060" s="64" t="n"/>
+      <c r="J1060" s="63" t="n"/>
+      <c r="K1060" s="63" t="n"/>
+      <c r="L1060" s="63" t="n"/>
+      <c r="W1060" s="63" t="n"/>
+      <c r="X1060" s="63" t="n"/>
+      <c r="Y1060" s="63" t="n"/>
+      <c r="Z1060" s="63" t="n"/>
+      <c r="AA1060" s="63" t="n"/>
+      <c r="AB1060" s="63" t="n"/>
+      <c r="AC1060" s="63" t="n"/>
+    </row>
+    <row r="1061">
+      <c r="E1061" s="63" t="n"/>
+      <c r="F1061" s="63" t="n"/>
+      <c r="G1061" s="64" t="n"/>
+      <c r="J1061" s="63" t="n"/>
+      <c r="K1061" s="63" t="n"/>
+      <c r="L1061" s="63" t="n"/>
+      <c r="W1061" s="63" t="n"/>
+      <c r="X1061" s="63" t="n"/>
+      <c r="Y1061" s="63" t="n"/>
+      <c r="Z1061" s="63" t="n"/>
+      <c r="AA1061" s="63" t="n"/>
+      <c r="AB1061" s="63" t="n"/>
+      <c r="AC1061" s="63" t="n"/>
+    </row>
+    <row r="1062">
+      <c r="E1062" s="63" t="n"/>
+      <c r="F1062" s="63" t="n"/>
+      <c r="G1062" s="64" t="n"/>
+      <c r="J1062" s="63" t="n"/>
+      <c r="K1062" s="63" t="n"/>
+      <c r="L1062" s="63" t="n"/>
+      <c r="W1062" s="63" t="n"/>
+      <c r="X1062" s="63" t="n"/>
+      <c r="Y1062" s="63" t="n"/>
+      <c r="Z1062" s="63" t="n"/>
+      <c r="AA1062" s="63" t="n"/>
+      <c r="AB1062" s="63" t="n"/>
+      <c r="AC1062" s="63" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$104"/>

--- a/dumps/Stocks/Rites Ltd.xlsx
+++ b/dumps/Stocks/Rites Ltd.xlsx
@@ -784,7 +784,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1042"/>
+  <dimension ref="A1:AP1043"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="5">
       <c r="A5" s="97" t="n">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1148,21 +1148,21 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>220.23</v>
+        <v>227.09</v>
       </c>
       <c r="F5" t="n">
-        <v>2213.3</v>
+        <v>4564.6</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>22.8</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="6">
       <c r="A6" s="97" t="n">
-        <v>46057</v>
+        <v>46059</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1187,18 +1187,18 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>223.75</v>
+        <v>220.23</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2248.7</v>
+        <v>2213.3</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611485581</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="7">
       <c r="A7" s="97" t="n">
-        <v>46049</v>
+        <v>46057</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1223,18 +1223,18 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>218.46</v>
+        <v>223.75</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2195.5</v>
+        <v>2248.7</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611485581</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1243,11 +1243,11 @@
     </row>
     <row r="8">
       <c r="A8" s="97" t="n">
-        <v>46015</v>
+        <v>46049</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
@@ -1259,18 +1259,18 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>243.55</v>
+        <v>218.46</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2447.7</v>
+        <v>2195.5</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252609755521</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>12.2</v>
+        <v>10.9</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1279,11 +1279,11 @@
     </row>
     <row r="9">
       <c r="A9" s="97" t="n">
-        <v>46008</v>
+        <v>46015</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -1295,18 +1295,18 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>224.2</v>
+        <v>243.55</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2253.2</v>
+        <v>2447.7</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252609476500</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>11.2</v>
+        <v>12.2</v>
       </c>
       <c r="J9" s="0">
         <f>Index!$C$2</f>
@@ -1315,11 +1315,11 @@
     </row>
     <row r="10">
       <c r="A10" s="97" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1331,18 +1331,18 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>226.9</v>
+        <v>224.2</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2280.3</v>
+        <v>2253.2</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609476500</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="J10" s="0">
         <f>Index!$C$2</f>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="11">
       <c r="A11" s="97" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1364,21 +1364,21 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>224.975</v>
+        <v>226.9</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>4522</v>
+        <v>2280.3</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252609267726</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>22.5</v>
+        <v>11.3</v>
       </c>
       <c r="J11" s="0">
         <f>Index!$C$2</f>
@@ -1387,11 +1387,11 @@
     </row>
     <row r="12">
       <c r="A12" s="97" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1400,21 +1400,21 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>228.2595</v>
+        <v>224.975</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>13763.97</v>
+        <v>4522</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252609039305</t>
+          <t>CN#252609267726</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>68.40000000000001</v>
+        <v>22.5</v>
       </c>
       <c r="J12" s="0">
         <f>Index!$C$2</f>
@@ -1423,11 +1423,11 @@
     </row>
     <row r="13">
       <c r="A13" s="97" t="n">
-        <v>45982</v>
+        <v>45996</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1436,21 +1436,21 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>249.8</v>
+        <v>228.2595</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>2510.5</v>
+        <v>13763.97</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>CN#252608495287</t>
+          <t>CN#252609039305</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>12.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="J13" s="0">
         <f>Index!$C$2</f>
@@ -1459,11 +1459,11 @@
     </row>
     <row r="14">
       <c r="A14" s="97" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1475,14 +1475,14 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>249.966</v>
+        <v>249.8</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>2512.16</v>
+        <v>2510.5</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>CN#252608441505</t>
+          <t>CN#252608495287</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
@@ -1495,11 +1495,11 @@
     </row>
     <row r="15">
       <c r="A15" s="97" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -1511,14 +1511,14 @@
         <v>10</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>249.69</v>
+        <v>249.966</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2509.4</v>
+        <v>2512.16</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>CN#252608322011</t>
+          <t>CN#252608441505</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
@@ -1531,11 +1531,11 @@
     </row>
     <row r="16">
       <c r="A16" s="97" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -1544,21 +1544,21 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>248.38</v>
+        <v>249.69</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>4992.4</v>
+        <v>2509.4</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252608322011</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>24.8</v>
+        <v>12.5</v>
       </c>
       <c r="J16" s="0">
         <f>Index!$C$2</f>
@@ -1567,11 +1567,11 @@
     </row>
     <row r="17">
       <c r="A17" s="97" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -1580,21 +1580,21 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>243.9</v>
+        <v>248.38</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>2451.2</v>
+        <v>4992.4</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>CN#252608199734</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>12.2</v>
+        <v>24.8</v>
       </c>
       <c r="J17" s="0">
         <f>Index!$C$2</f>
@@ -1603,11 +1603,11 @@
     </row>
     <row r="18">
       <c r="A18" s="97" t="n">
-        <v>45959</v>
+        <v>45975</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -1619,14 +1619,14 @@
         <v>10</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>244.95</v>
+        <v>243.9</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>2461.7</v>
+        <v>2451.2</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252608199734</t>
         </is>
       </c>
       <c r="I18" s="0" t="n">
@@ -1639,7 +1639,7 @@
     </row>
     <row r="19">
       <c r="A19" s="97" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -1655,129 +1655,67 @@
         <v>10</v>
       </c>
       <c r="E19" s="0" t="n">
+        <v>244.95</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2461.7</v>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607497001</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J19" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="97" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" s="0" t="n">
         <v>245.88</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>2471.1</v>
       </c>
-      <c r="G19" s="0" t="inlineStr">
+      <c r="G20" s="0" t="inlineStr">
         <is>
           <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <v>12.3</v>
       </c>
-      <c r="J19" s="0">
+      <c r="J20" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="38" t="n">
+    <row r="21">
+      <c r="A21" s="38" t="n">
         <v>45950</v>
       </c>
-      <c r="B20" s="39" t="inlineStr">
+      <c r="B21" s="39" t="inlineStr">
         <is>
           <t>BSE</t>
-        </is>
-      </c>
-      <c r="C20" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D20" s="40" t="n">
-        <v>20</v>
-      </c>
-      <c r="E20" s="41" t="n">
-        <v>248.81</v>
-      </c>
-      <c r="F20" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G20" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H20" s="40" t="n"/>
-      <c r="I20" s="40" t="n"/>
-      <c r="J20" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K20" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L20" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M20" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N20" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O20" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P20" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q20" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R20" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S20" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T20" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U20" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V20" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W20" s="47" t="n"/>
-      <c r="X20" s="47" t="n"/>
-      <c r="Y20" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z20" s="47" t="n"/>
-      <c r="AA20" s="47" t="n"/>
-      <c r="AB20" s="48" t="n"/>
-      <c r="AC20" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD20" s="49" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="38" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B21" s="39" t="inlineStr">
-        <is>
-          <t>DIV</t>
         </is>
       </c>
       <c r="C21" s="39" t="inlineStr">
@@ -1786,16 +1724,20 @@
         </is>
       </c>
       <c r="D21" s="40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E21" s="41" t="n">
-        <v>2.65</v>
+        <v>248.81</v>
       </c>
       <c r="F21" s="41">
-        <f>(D6*E6)</f>
-        <v/>
-      </c>
-      <c r="G21" s="39" t="n"/>
+        <f>D5*E5</f>
+        <v/>
+      </c>
+      <c r="G21" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
       <c r="H21" s="40" t="n"/>
       <c r="I21" s="40" t="n"/>
       <c r="J21" s="42">
@@ -1803,64 +1745,64 @@
         <v/>
       </c>
       <c r="K21" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L21" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M21" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N21" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O21" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P21" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q21" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R21" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S21" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T21" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U21" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V21" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W21" s="47" t="n"/>
       <c r="X21" s="47" t="n"/>
       <c r="Y21" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z21" s="47" t="n"/>
       <c r="AA21" s="47" t="n"/>
       <c r="AB21" s="48" t="n"/>
       <c r="AC21" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD21" s="49" t="n"/>
@@ -1886,7 +1828,7 @@
         <v>2.65</v>
       </c>
       <c r="F22" s="41">
-        <f>(D7*E7)</f>
+        <f>(D6*E6)</f>
         <v/>
       </c>
       <c r="G22" s="39" t="n"/>
@@ -1897,75 +1839,75 @@
         <v/>
       </c>
       <c r="K22" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L22" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M22" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N22" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O22" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P22" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q22" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R22" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S22" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T22" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U22" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V22" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W22" s="47" t="n"/>
       <c r="X22" s="47" t="n"/>
       <c r="Y22" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z22" s="47" t="n"/>
       <c r="AA22" s="47" t="n"/>
       <c r="AB22" s="48" t="n"/>
       <c r="AC22" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD22" s="49" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="38" t="n">
-        <v>45897</v>
+        <v>45917</v>
       </c>
       <c r="B23" s="39" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C23" s="39" t="inlineStr">
@@ -1977,96 +1919,89 @@
         <v>10</v>
       </c>
       <c r="E23" s="41" t="n">
-        <v>248.6</v>
-      </c>
-      <c r="F23" s="41" t="n">
-        <v>2486</v>
-      </c>
-      <c r="G23" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H23" s="40" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="I23" s="40" t="n">
-        <v>15.03</v>
-      </c>
+        <v>2.65</v>
+      </c>
+      <c r="F23" s="41">
+        <f>(D7*E7)</f>
+        <v/>
+      </c>
+      <c r="G23" s="39" t="n"/>
+      <c r="H23" s="40" t="n"/>
+      <c r="I23" s="40" t="n"/>
       <c r="J23" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K23" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L23" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M23" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N23" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O23" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P23" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q23" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R23" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S23" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T23" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U23" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V23" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W23" s="47" t="n"/>
       <c r="X23" s="47" t="n"/>
       <c r="Y23" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z23" s="47" t="n"/>
       <c r="AA23" s="47" t="n"/>
       <c r="AB23" s="48" t="n"/>
       <c r="AC23" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD23" s="49" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="38" t="n">
-        <v>45881</v>
+        <v>45897</v>
       </c>
       <c r="B24" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C24" s="39" t="inlineStr">
@@ -2078,193 +2013,193 @@
         <v>10</v>
       </c>
       <c r="E24" s="41" t="n">
-        <v>1.3</v>
+        <v>248.6</v>
       </c>
       <c r="F24" s="41" t="n">
-        <v>13</v>
+        <v>2486</v>
       </c>
       <c r="G24" s="39" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.1.3000/- per share on Ex-Date: 12-AUG-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H24" s="40" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="I24" s="40" t="n">
-        <v>0</v>
+        <v>15.03</v>
       </c>
       <c r="J24" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K24" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L24" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M24" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N24" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O24" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P24" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q24" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R24" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S24" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T24" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U24" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V24" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W24" s="47" t="n"/>
       <c r="X24" s="47" t="n"/>
       <c r="Y24" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z24" s="47" t="n"/>
       <c r="AA24" s="47" t="n"/>
       <c r="AB24" s="48" t="n"/>
       <c r="AC24" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD24" s="49" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="38" t="n">
-        <v>45820</v>
+        <v>45881</v>
       </c>
       <c r="B25" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C25" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D25" s="40" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E25" s="41" t="n">
-        <v>301.79</v>
+        <v>1.3</v>
       </c>
       <c r="F25" s="41" t="n">
-        <v>30179.17</v>
+        <v>13</v>
       </c>
       <c r="G25" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.3000/- per share on Ex-Date: 12-AUG-2025</t>
         </is>
       </c>
       <c r="H25" s="40" t="n">
-        <v>30.34</v>
+        <v>0</v>
       </c>
       <c r="I25" s="40" t="n">
-        <v>180.49</v>
+        <v>0</v>
       </c>
       <c r="J25" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K25" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L25" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M25" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N25" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O25" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P25" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q25" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R25" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S25" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T25" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U25" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V25" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W25" s="47" t="n"/>
       <c r="X25" s="47" t="n"/>
       <c r="Y25" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z25" s="47" t="n"/>
       <c r="AA25" s="47" t="n"/>
       <c r="AB25" s="48" t="n"/>
       <c r="AC25" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD25" s="49" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="38" t="n">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="B26" s="39" t="inlineStr">
         <is>
@@ -2273,17 +2208,17 @@
       </c>
       <c r="C26" s="39" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D26" s="40" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E26" s="41" t="n">
-        <v>283.65</v>
+        <v>301.79</v>
       </c>
       <c r="F26" s="41" t="n">
-        <v>2836.5</v>
+        <v>30179.17</v>
       </c>
       <c r="G26" s="39" t="inlineStr">
         <is>
@@ -2291,191 +2226,178 @@
         </is>
       </c>
       <c r="H26" s="40" t="n">
-        <v>2.82</v>
+        <v>30.34</v>
       </c>
       <c r="I26" s="40" t="n">
-        <v>17.18</v>
+        <v>180.49</v>
       </c>
       <c r="J26" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K26" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L26" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M26" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N26" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O26" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P26" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q26" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R26" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S26" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T26" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U26" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V26" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W26" s="47" t="n"/>
       <c r="X26" s="47" t="n"/>
       <c r="Y26" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z26" s="47" t="n"/>
       <c r="AA26" s="47" t="n"/>
       <c r="AB26" s="48" t="n"/>
       <c r="AC26" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD26" s="49" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="50" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B27" s="51" t="inlineStr">
+      <c r="A27" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B27" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C27" s="51" t="inlineStr">
+      <c r="C27" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D27" s="52" t="n">
-        <v>23</v>
-      </c>
-      <c r="E27" s="53" t="n">
-        <v>214.56</v>
-      </c>
-      <c r="F27" s="53" t="n">
-        <v>4934.98</v>
-      </c>
-      <c r="G27" s="51" t="inlineStr">
+      <c r="D27" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" s="41" t="n">
+        <v>283.65</v>
+      </c>
+      <c r="F27" s="41" t="n">
+        <v>2836.5</v>
+      </c>
+      <c r="G27" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H27" s="52" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="I27" s="52" t="n">
-        <v>29.94</v>
+      <c r="H27" s="40" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I27" s="40" t="n">
+        <v>17.18</v>
       </c>
       <c r="J27" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K27" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L27" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M27" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N27" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O27" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P27" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R27" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S27" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T27" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U27" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V27" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
-        <v/>
-      </c>
-      <c r="W27" s="41" t="n">
-        <v>301.79</v>
-      </c>
-      <c r="X27" s="38" t="n">
-        <v>45820</v>
-      </c>
-      <c r="Y27" s="46" t="n">
-        <v>0.3980437763</v>
-      </c>
-      <c r="Z27" s="54" t="n">
-        <v>1978.20194</v>
-      </c>
-      <c r="AA27" s="54" t="n">
-        <v>6913.08194</v>
-      </c>
-      <c r="AB27" s="55" t="n">
-        <v>23</v>
-      </c>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="W27" s="47" t="n"/>
+      <c r="X27" s="47" t="n"/>
+      <c r="Y27" s="46">
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="Z27" s="47" t="n"/>
+      <c r="AA27" s="47" t="n"/>
+      <c r="AB27" s="48" t="n"/>
       <c r="AC27" s="44">
-        <f>if(B12="DIV", F12,"")</f>
-        <v/>
-      </c>
-      <c r="AD27" s="56" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B11="DIV", F11,"")</f>
+        <v/>
+      </c>
+      <c r="AD27" s="49" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="50" t="n">
@@ -2492,13 +2414,13 @@
         </is>
       </c>
       <c r="D28" s="52" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E28" s="53" t="n">
         <v>214.56</v>
       </c>
       <c r="F28" s="53" t="n">
-        <v>1501.94</v>
+        <v>4934.98</v>
       </c>
       <c r="G28" s="51" t="inlineStr">
         <is>
@@ -2506,61 +2428,61 @@
         </is>
       </c>
       <c r="H28" s="52" t="n">
-        <v>1.49</v>
+        <v>4.89</v>
       </c>
       <c r="I28" s="52" t="n">
-        <v>9.1</v>
+        <v>29.94</v>
       </c>
       <c r="J28" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K28" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L28" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M28" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N28" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O28" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P28" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R28" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S28" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T28" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U28" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V28" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W28" s="41" t="n">
@@ -2570,19 +2492,19 @@
         <v>45820</v>
       </c>
       <c r="Y28" s="46" t="n">
-        <v>0.3980492684</v>
+        <v>0.3980437763</v>
       </c>
       <c r="Z28" s="54" t="n">
-        <v>602.06146</v>
+        <v>1978.20194</v>
       </c>
       <c r="AA28" s="54" t="n">
-        <v>2103.98146</v>
+        <v>6913.08194</v>
       </c>
       <c r="AB28" s="55" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AC28" s="44">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD28" s="56" t="inlineStr">
@@ -2593,7 +2515,7 @@
     </row>
     <row r="29">
       <c r="A29" s="50" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B29" s="51" t="inlineStr">
         <is>
@@ -2606,13 +2528,13 @@
         </is>
       </c>
       <c r="D29" s="52" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E29" s="53" t="n">
-        <v>202.73</v>
+        <v>214.56</v>
       </c>
       <c r="F29" s="53" t="n">
-        <v>2635.5</v>
+        <v>1501.94</v>
       </c>
       <c r="G29" s="51" t="inlineStr">
         <is>
@@ -2620,61 +2542,61 @@
         </is>
       </c>
       <c r="H29" s="52" t="n">
-        <v>2.62</v>
+        <v>1.49</v>
       </c>
       <c r="I29" s="52" t="n">
-        <v>15.98</v>
+        <v>9.1</v>
       </c>
       <c r="J29" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K29" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L29" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M29" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N29" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O29" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P29" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R29" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S29" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T29" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U29" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V29" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W29" s="41" t="n">
@@ -2684,19 +2606,19 @@
         <v>45820</v>
       </c>
       <c r="Y29" s="46" t="n">
-        <v>0.4784111676</v>
+        <v>0.3980492684</v>
       </c>
       <c r="Z29" s="54" t="n">
-        <v>1269.75108</v>
+        <v>602.06146</v>
       </c>
       <c r="AA29" s="54" t="n">
-        <v>3905.24108</v>
+        <v>2103.98146</v>
       </c>
       <c r="AB29" s="55" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AC29" s="44">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD29" s="56" t="inlineStr">
@@ -2744,51 +2666,51 @@
         <v/>
       </c>
       <c r="K30" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L30" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M30" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N30" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O30" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P30" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R30" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S30" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T30" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U30" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V30" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W30" s="41" t="n">
@@ -2810,7 +2732,7 @@
         <v>13</v>
       </c>
       <c r="AC30" s="44">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD30" s="56" t="inlineStr">
@@ -2834,13 +2756,13 @@
         </is>
       </c>
       <c r="D31" s="52" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E31" s="53" t="n">
         <v>202.73</v>
       </c>
       <c r="F31" s="53" t="n">
-        <v>608.1799999999999</v>
+        <v>2635.5</v>
       </c>
       <c r="G31" s="51" t="inlineStr">
         <is>
@@ -2848,61 +2770,61 @@
         </is>
       </c>
       <c r="H31" s="52" t="n">
-        <v>0.6</v>
+        <v>2.62</v>
       </c>
       <c r="I31" s="52" t="n">
-        <v>3.68</v>
+        <v>15.98</v>
       </c>
       <c r="J31" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K31" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L31" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M31" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N31" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O31" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P31" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R31" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S31" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T31" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U31" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V31" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W31" s="41" t="n">
@@ -2912,19 +2834,19 @@
         <v>45820</v>
       </c>
       <c r="Y31" s="46" t="n">
-        <v>0.4784303955</v>
+        <v>0.4784111676</v>
       </c>
       <c r="Z31" s="54" t="n">
-        <v>293.01948</v>
+        <v>1269.75108</v>
       </c>
       <c r="AA31" s="54" t="n">
-        <v>901.20948</v>
+        <v>3905.24108</v>
       </c>
       <c r="AB31" s="55" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AC31" s="44">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD31" s="56" t="inlineStr">
@@ -2972,51 +2894,51 @@
         <v/>
       </c>
       <c r="K32" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L32" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M32" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N32" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O32" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P32" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q32" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R32" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S32" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T32" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U32" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V32" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W32" s="41" t="n">
@@ -3038,7 +2960,7 @@
         <v>3</v>
       </c>
       <c r="AC32" s="44">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD32" s="56" t="inlineStr">
@@ -3062,13 +2984,13 @@
         </is>
       </c>
       <c r="D33" s="52" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E33" s="53" t="n">
         <v>202.73</v>
       </c>
       <c r="F33" s="53" t="n">
-        <v>2635.5</v>
+        <v>608.1799999999999</v>
       </c>
       <c r="G33" s="51" t="inlineStr">
         <is>
@@ -3076,61 +2998,61 @@
         </is>
       </c>
       <c r="H33" s="52" t="n">
-        <v>2.62</v>
+        <v>0.6</v>
       </c>
       <c r="I33" s="52" t="n">
-        <v>15.98</v>
+        <v>3.68</v>
       </c>
       <c r="J33" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K33" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L33" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M33" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N33" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O33" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P33" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q33" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R33" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S33" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T33" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U33" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V33" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W33" s="41" t="n">
@@ -3140,19 +3062,19 @@
         <v>45820</v>
       </c>
       <c r="Y33" s="46" t="n">
-        <v>0.4784111676</v>
+        <v>0.4784303955</v>
       </c>
       <c r="Z33" s="54" t="n">
-        <v>1269.75108</v>
+        <v>293.01948</v>
       </c>
       <c r="AA33" s="54" t="n">
-        <v>3905.24108</v>
+        <v>901.20948</v>
       </c>
       <c r="AB33" s="55" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC33" s="44">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD33" s="56" t="inlineStr">
@@ -3163,7 +3085,7 @@
     </row>
     <row r="34">
       <c r="A34" s="50" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B34" s="51" t="inlineStr">
         <is>
@@ -3176,13 +3098,13 @@
         </is>
       </c>
       <c r="D34" s="52" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E34" s="53" t="n">
-        <v>223.07</v>
+        <v>202.73</v>
       </c>
       <c r="F34" s="53" t="n">
-        <v>4461.44</v>
+        <v>2635.5</v>
       </c>
       <c r="G34" s="51" t="inlineStr">
         <is>
@@ -3190,61 +3112,61 @@
         </is>
       </c>
       <c r="H34" s="52" t="n">
-        <v>4.43</v>
+        <v>2.62</v>
       </c>
       <c r="I34" s="52" t="n">
-        <v>27.01</v>
+        <v>15.98</v>
       </c>
       <c r="J34" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K34" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L34" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M34" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N34" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O34" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P34" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q34" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R34" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S34" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T34" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U34" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V34" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W34" s="41" t="n">
@@ -3254,19 +3176,19 @@
         <v>45820</v>
       </c>
       <c r="Y34" s="46" t="n">
-        <v>0.3455152152</v>
+        <v>0.4784111676</v>
       </c>
       <c r="Z34" s="54" t="n">
-        <v>1552.3584</v>
+        <v>1269.75108</v>
       </c>
       <c r="AA34" s="54" t="n">
-        <v>6013.7584</v>
+        <v>3905.24108</v>
       </c>
       <c r="AB34" s="55" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AC34" s="44">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD34" s="56" t="inlineStr">
@@ -3277,7 +3199,7 @@
     </row>
     <row r="35">
       <c r="A35" s="50" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B35" s="51" t="inlineStr">
         <is>
@@ -3290,13 +3212,13 @@
         </is>
       </c>
       <c r="D35" s="52" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E35" s="53" t="n">
-        <v>237.07</v>
+        <v>223.07</v>
       </c>
       <c r="F35" s="53" t="n">
-        <v>1185.36</v>
+        <v>4461.44</v>
       </c>
       <c r="G35" s="51" t="inlineStr">
         <is>
@@ -3304,61 +3226,61 @@
         </is>
       </c>
       <c r="H35" s="52" t="n">
-        <v>1.18</v>
+        <v>4.43</v>
       </c>
       <c r="I35" s="52" t="n">
-        <v>7.18</v>
+        <v>27.01</v>
       </c>
       <c r="J35" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K35" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L35" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M35" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N35" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O35" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P35" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q35" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R35" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S35" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T35" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U35" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V35" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W35" s="41" t="n">
@@ -3368,19 +3290,19 @@
         <v>45820</v>
       </c>
       <c r="Y35" s="46" t="n">
-        <v>0.2672901518</v>
+        <v>0.3455152152</v>
       </c>
       <c r="Z35" s="54" t="n">
-        <v>319.0696</v>
+        <v>1552.3584</v>
       </c>
       <c r="AA35" s="54" t="n">
-        <v>1504.4196</v>
+        <v>6013.7584</v>
       </c>
       <c r="AB35" s="55" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AC35" s="44">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD35" s="56" t="inlineStr">
@@ -3391,7 +3313,7 @@
     </row>
     <row r="36">
       <c r="A36" s="50" t="n">
-        <v>45316</v>
+        <v>45694</v>
       </c>
       <c r="B36" s="51" t="inlineStr">
         <is>
@@ -3400,17 +3322,17 @@
       </c>
       <c r="C36" s="51" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D36" s="52" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E36" s="53" t="n">
-        <v>640.52</v>
+        <v>237.07</v>
       </c>
       <c r="F36" s="53" t="n">
-        <v>32025.84</v>
+        <v>1185.36</v>
       </c>
       <c r="G36" s="51" t="inlineStr">
         <is>
@@ -3418,190 +3340,199 @@
         </is>
       </c>
       <c r="H36" s="52" t="n">
-        <v>32.26</v>
+        <v>1.18</v>
       </c>
       <c r="I36" s="52" t="n">
-        <v>191.9</v>
+        <v>7.18</v>
       </c>
       <c r="J36" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K36" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L36" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M36" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N36" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O36" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P36" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R36" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S36" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T36" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U36" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V36" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
-        <v/>
-      </c>
-      <c r="W36" s="47" t="n"/>
-      <c r="X36" s="47" t="n"/>
-      <c r="Y36" s="46">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
-        <v/>
-      </c>
-      <c r="Z36" s="47" t="n"/>
-      <c r="AA36" s="47" t="n"/>
-      <c r="AB36" s="48" t="n"/>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <v/>
+      </c>
+      <c r="W36" s="41" t="n">
+        <v>301.79</v>
+      </c>
+      <c r="X36" s="38" t="n">
+        <v>45820</v>
+      </c>
+      <c r="Y36" s="46" t="n">
+        <v>0.2672901518</v>
+      </c>
+      <c r="Z36" s="54" t="n">
+        <v>319.0696</v>
+      </c>
+      <c r="AA36" s="54" t="n">
+        <v>1504.4196</v>
+      </c>
+      <c r="AB36" s="55" t="n">
+        <v>5</v>
+      </c>
       <c r="AC36" s="44">
-        <f>if(B21="DIV", F21,"")</f>
-        <v/>
-      </c>
-      <c r="AD36" s="49" t="n"/>
+        <f>if(B20="DIV", F20,"")</f>
+        <v/>
+      </c>
+      <c r="AD36" s="56" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="57" t="n">
-        <v>45238</v>
-      </c>
-      <c r="B37" s="58" t="inlineStr">
+      <c r="A37" s="50" t="n">
+        <v>45316</v>
+      </c>
+      <c r="B37" s="51" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
-      <c r="C37" s="58" t="inlineStr">
+      <c r="C37" s="51" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
-      <c r="D37" s="60" t="n">
+      <c r="D37" s="52" t="n">
         <v>50</v>
       </c>
-      <c r="E37" s="42" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F37" s="42" t="n">
-        <v>225</v>
-      </c>
-      <c r="G37" s="60" t="inlineStr">
+      <c r="E37" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="F37" s="53" t="n">
+        <v>32025.84</v>
+      </c>
+      <c r="G37" s="51" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.4.5000/- per share on Ex-Date: 08-NOV-2023</t>
+          <t>~</t>
         </is>
       </c>
-      <c r="H37" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="60" t="n">
-        <v>0</v>
+      <c r="H37" s="52" t="n">
+        <v>32.26</v>
+      </c>
+      <c r="I37" s="52" t="n">
+        <v>191.9</v>
       </c>
       <c r="J37" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L37" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M37" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N37" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O37" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P37" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R37" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S37" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T37" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U37" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V37" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W37" s="47" t="n"/>
       <c r="X37" s="47" t="n"/>
       <c r="Y37" s="46">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z37" s="47" t="n"/>
       <c r="AA37" s="47" t="n"/>
       <c r="AB37" s="48" t="n"/>
       <c r="AC37" s="44">
-        <f>if(B22="DIV", F22,"")</f>
-        <v/>
-      </c>
-      <c r="AD37" s="56" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B21="DIV", F21,"")</f>
+        <v/>
+      </c>
+      <c r="AD37" s="49" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="57" t="n">
-        <v>45225</v>
+        <v>45238</v>
       </c>
       <c r="B38" s="58" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C38" s="58" t="inlineStr">
@@ -3610,88 +3541,88 @@
         </is>
       </c>
       <c r="D38" s="60" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E38" s="42" t="n">
-        <v>434.402</v>
+        <v>4.5</v>
       </c>
       <c r="F38" s="42" t="n">
-        <v>2187.44</v>
+        <v>225</v>
       </c>
       <c r="G38" s="60" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.4.5000/- per share on Ex-Date: 08-NOV-2023</t>
         </is>
       </c>
       <c r="H38" s="60" t="n">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="I38" s="60" t="n">
-        <v>13.25</v>
+        <v>0</v>
       </c>
       <c r="J38" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K38" s="47" t="n"/>
-      <c r="L38" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
-        <v/>
-      </c>
-      <c r="M38" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
-        <v/>
-      </c>
-      <c r="N38" s="62">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
-        <v/>
-      </c>
-      <c r="O38" s="61" t="n"/>
-      <c r="P38" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
-        <v/>
-      </c>
-      <c r="Q38" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
-        <v/>
-      </c>
-      <c r="R38" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
-        <v/>
-      </c>
-      <c r="S38" s="61" t="n"/>
-      <c r="T38" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (J23*D23)-(E23*D23)-(2*sum(H23:I23)), "")</f>
-        <v/>
-      </c>
-      <c r="U38" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
-        <v/>
-      </c>
-      <c r="V38" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
-        <v/>
-      </c>
-      <c r="W38" s="53" t="n">
-        <v>640.52</v>
-      </c>
-      <c r="X38" s="50" t="n">
-        <v>45316</v>
-      </c>
-      <c r="Y38" s="46" t="n">
-        <v>0.4612878323</v>
-      </c>
-      <c r="Z38" s="54" t="n">
-        <v>1016.16174</v>
-      </c>
-      <c r="AA38" s="54" t="n">
-        <v>3188.17174</v>
-      </c>
-      <c r="AB38" s="55" t="n">
-        <v>5</v>
-      </c>
+      <c r="K38" s="43">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="L38" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="M38" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <v/>
+      </c>
+      <c r="N38" s="45">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <v/>
+      </c>
+      <c r="O38" s="43">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="P38" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="Q38" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <v/>
+      </c>
+      <c r="R38" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="S38" s="46">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="T38" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="U38" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <v/>
+      </c>
+      <c r="V38" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="W38" s="47" t="n"/>
+      <c r="X38" s="47" t="n"/>
+      <c r="Y38" s="46">
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="Z38" s="47" t="n"/>
+      <c r="AA38" s="47" t="n"/>
+      <c r="AB38" s="48" t="n"/>
       <c r="AC38" s="44">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD38" s="56" t="inlineStr">
@@ -3702,7 +3633,7 @@
     </row>
     <row r="39">
       <c r="A39" s="57" t="n">
-        <v>45191</v>
+        <v>45225</v>
       </c>
       <c r="B39" s="58" t="inlineStr">
         <is>
@@ -3715,13 +3646,13 @@
         </is>
       </c>
       <c r="D39" s="60" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E39" s="42" t="n">
-        <v>485.448</v>
+        <v>434.402</v>
       </c>
       <c r="F39" s="42" t="n">
-        <v>4889.12</v>
+        <v>2187.44</v>
       </c>
       <c r="G39" s="60" t="inlineStr">
         <is>
@@ -3729,10 +3660,10 @@
         </is>
       </c>
       <c r="H39" s="60" t="n">
-        <v>4.94</v>
+        <v>2.19</v>
       </c>
       <c r="I39" s="60" t="n">
-        <v>29.68</v>
+        <v>13.25</v>
       </c>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
@@ -3740,41 +3671,41 @@
       </c>
       <c r="K39" s="47" t="n"/>
       <c r="L39" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M39" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N39" s="62">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O39" s="61" t="n"/>
       <c r="P39" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R39" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S39" s="61" t="n"/>
       <c r="T39" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (J24*D24)-(E24*D24)-(2*sum(H24:I24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (J23*D23)-(E23*D23)-(2*sum(H23:I23)), "")</f>
         <v/>
       </c>
       <c r="U39" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V39" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W39" s="53" t="n">
@@ -3784,19 +3715,19 @@
         <v>45316</v>
       </c>
       <c r="Y39" s="46" t="n">
-        <v>0.3105383144</v>
+        <v>0.4612878323</v>
       </c>
       <c r="Z39" s="54" t="n">
-        <v>1529.00992</v>
+        <v>1016.16174</v>
       </c>
       <c r="AA39" s="54" t="n">
-        <v>6383.48992</v>
+        <v>3188.17174</v>
       </c>
       <c r="AB39" s="55" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AC39" s="44">
-        <f>if(B24="DIV", F24,"")</f>
+        <f>if(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD39" s="56" t="inlineStr">
@@ -3807,7 +3738,7 @@
     </row>
     <row r="40">
       <c r="A40" s="57" t="n">
-        <v>45181</v>
+        <v>45191</v>
       </c>
       <c r="B40" s="58" t="inlineStr">
         <is>
@@ -3820,13 +3751,13 @@
         </is>
       </c>
       <c r="D40" s="60" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E40" s="42" t="n">
-        <v>528.498</v>
+        <v>485.448</v>
       </c>
       <c r="F40" s="42" t="n">
-        <v>2661.21</v>
+        <v>4889.12</v>
       </c>
       <c r="G40" s="60" t="inlineStr">
         <is>
@@ -3834,10 +3765,10 @@
         </is>
       </c>
       <c r="H40" s="60" t="n">
-        <v>2.64</v>
+        <v>4.94</v>
       </c>
       <c r="I40" s="60" t="n">
-        <v>16.07</v>
+        <v>29.68</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
@@ -3845,41 +3776,41 @@
       </c>
       <c r="K40" s="47" t="n"/>
       <c r="L40" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M40" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N40" s="62">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O40" s="61" t="n"/>
       <c r="P40" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R40" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S40" s="61" t="n"/>
       <c r="T40" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (J25*D25)-(E25*D25)-(2*sum(H25:I25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (J24*D24)-(E24*D24)-(2*sum(H24:I24)), "")</f>
         <v/>
       </c>
       <c r="U40" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V40" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W40" s="53" t="n">
@@ -3889,19 +3820,19 @@
         <v>45316</v>
       </c>
       <c r="Y40" s="46" t="n">
-        <v>0.2060764724</v>
+        <v>0.3105383144</v>
       </c>
       <c r="Z40" s="54" t="n">
-        <v>552.26846</v>
+        <v>1529.00992</v>
       </c>
       <c r="AA40" s="54" t="n">
-        <v>3194.75846</v>
+        <v>6383.48992</v>
       </c>
       <c r="AB40" s="55" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC40" s="44">
-        <f>if(B25="DIV", F25,"")</f>
+        <f>if(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD40" s="56" t="inlineStr">
@@ -3912,11 +3843,11 @@
     </row>
     <row r="41">
       <c r="A41" s="57" t="n">
-        <v>45177</v>
+        <v>45181</v>
       </c>
       <c r="B41" s="58" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C41" s="58" t="inlineStr">
@@ -3925,24 +3856,24 @@
         </is>
       </c>
       <c r="D41" s="60" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E41" s="42" t="n">
-        <v>6</v>
+        <v>528.498</v>
       </c>
       <c r="F41" s="42" t="n">
-        <v>180</v>
+        <v>2661.21</v>
       </c>
       <c r="G41" s="60" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.6.0000/- per share on Ex-Date: 08-SEP-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H41" s="60" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="I41" s="60" t="n">
-        <v>0</v>
+        <v>16.07</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
@@ -3950,54 +3881,63 @@
       </c>
       <c r="K41" s="47" t="n"/>
       <c r="L41" s="47">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M41" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N41" s="62">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O41" s="61" t="n"/>
       <c r="P41" s="47">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R41" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S41" s="61" t="n"/>
       <c r="T41" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*sum(H26:I26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (J25*D25)-(E25*D25)-(2*sum(H25:I25)), "")</f>
         <v/>
       </c>
       <c r="U41" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V41" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
-        <v/>
-      </c>
-      <c r="W41" s="47" t="n"/>
-      <c r="X41" s="47" t="n"/>
-      <c r="Y41" s="46">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
-        <v/>
-      </c>
-      <c r="Z41" s="47" t="n"/>
-      <c r="AA41" s="47" t="n"/>
-      <c r="AB41" s="48" t="n"/>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="W41" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="X41" s="50" t="n">
+        <v>45316</v>
+      </c>
+      <c r="Y41" s="46" t="n">
+        <v>0.2060764724</v>
+      </c>
+      <c r="Z41" s="54" t="n">
+        <v>552.26846</v>
+      </c>
+      <c r="AA41" s="54" t="n">
+        <v>3194.75846</v>
+      </c>
+      <c r="AB41" s="55" t="n">
+        <v>5</v>
+      </c>
       <c r="AC41" s="44">
-        <f>if(B26="DIV", F26,"")</f>
+        <f>if(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD41" s="56" t="inlineStr">
@@ -4008,11 +3948,11 @@
     </row>
     <row r="42">
       <c r="A42" s="57" t="n">
-        <v>45162</v>
+        <v>45177</v>
       </c>
       <c r="B42" s="58" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C42" s="58" t="inlineStr">
@@ -4021,24 +3961,24 @@
         </is>
       </c>
       <c r="D42" s="60" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E42" s="42" t="n">
-        <v>474.2</v>
+        <v>6</v>
       </c>
       <c r="F42" s="42" t="n">
-        <v>477.55</v>
+        <v>180</v>
       </c>
       <c r="G42" s="60" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.6.0000/- per share on Ex-Date: 08-SEP-2023</t>
         </is>
       </c>
       <c r="H42" s="60" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="I42" s="60" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="J42" s="42">
         <f>Index!$C$2</f>
@@ -4046,63 +3986,54 @@
       </c>
       <c r="K42" s="47" t="n"/>
       <c r="L42" s="47">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M42" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N42" s="62">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O42" s="61" t="n"/>
       <c r="P42" s="47">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R42" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S42" s="61" t="n"/>
       <c r="T42" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*sum(H27:I27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*sum(H26:I26)), "")</f>
         <v/>
       </c>
       <c r="U42" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V42" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
-        <v/>
-      </c>
-      <c r="W42" s="53" t="n">
-        <v>640.52</v>
-      </c>
-      <c r="X42" s="50" t="n">
-        <v>45316</v>
-      </c>
-      <c r="Y42" s="46" t="n">
-        <v>0.341009607</v>
-      </c>
-      <c r="Z42" s="54" t="n">
-        <v>163.99152</v>
-      </c>
-      <c r="AA42" s="54" t="n">
-        <v>638.19152</v>
-      </c>
-      <c r="AB42" s="55" t="n">
-        <v>1</v>
-      </c>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
+        <v/>
+      </c>
+      <c r="W42" s="47" t="n"/>
+      <c r="X42" s="47" t="n"/>
+      <c r="Y42" s="46">
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
+        <v/>
+      </c>
+      <c r="Z42" s="47" t="n"/>
+      <c r="AA42" s="47" t="n"/>
+      <c r="AB42" s="48" t="n"/>
       <c r="AC42" s="44">
-        <f>if(B27="DIV", F27,"")</f>
+        <f>if(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD42" s="56" t="inlineStr">
@@ -4126,13 +4057,13 @@
         </is>
       </c>
       <c r="D43" s="60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E43" s="42" t="n">
-        <v>474</v>
+        <v>474.2</v>
       </c>
       <c r="F43" s="42" t="n">
-        <v>1909.44</v>
+        <v>477.55</v>
       </c>
       <c r="G43" s="60" t="inlineStr">
         <is>
@@ -4140,10 +4071,10 @@
         </is>
       </c>
       <c r="H43" s="60" t="n">
-        <v>1.88</v>
+        <v>0.47</v>
       </c>
       <c r="I43" s="60" t="n">
-        <v>11.56</v>
+        <v>2.88</v>
       </c>
       <c r="J43" s="42">
         <f>Index!$C$2</f>
@@ -4151,41 +4082,41 @@
       </c>
       <c r="K43" s="47" t="n"/>
       <c r="L43" s="47">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M43" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N43" s="62">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O43" s="61" t="n"/>
       <c r="P43" s="47">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R43" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S43" s="61" t="n"/>
       <c r="T43" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*sum(H28:I28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*sum(H27:I27)), "")</f>
         <v/>
       </c>
       <c r="U43" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V43" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W43" s="53" t="n">
@@ -4195,19 +4126,19 @@
         <v>45316</v>
       </c>
       <c r="Y43" s="46" t="n">
-        <v>0.3415475121</v>
+        <v>0.341009607</v>
       </c>
       <c r="Z43" s="54" t="n">
-        <v>656.75488</v>
+        <v>163.99152</v>
       </c>
       <c r="AA43" s="54" t="n">
-        <v>2552.75488</v>
+        <v>638.19152</v>
       </c>
       <c r="AB43" s="55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC43" s="44">
-        <f>if(B28="DIV", F28,"")</f>
+        <f>if(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD43" s="56" t="inlineStr">
@@ -4218,11 +4149,11 @@
     </row>
     <row r="44">
       <c r="A44" s="57" t="n">
-        <v>45145</v>
+        <v>45162</v>
       </c>
       <c r="B44" s="58" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C44" s="58" t="inlineStr">
@@ -4231,24 +4162,24 @@
         </is>
       </c>
       <c r="D44" s="60" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E44" s="42" t="n">
-        <v>3.75</v>
+        <v>474</v>
       </c>
       <c r="F44" s="42" t="n">
-        <v>93.75</v>
+        <v>1909.44</v>
       </c>
       <c r="G44" s="60" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.3.7500/- per share on Ex-Date: 07-AUG-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H44" s="60" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="I44" s="60" t="n">
-        <v>0</v>
+        <v>11.56</v>
       </c>
       <c r="J44" s="42">
         <f>Index!$C$2</f>
@@ -4256,54 +4187,63 @@
       </c>
       <c r="K44" s="47" t="n"/>
       <c r="L44" s="47">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M44" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N44" s="62">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O44" s="61" t="n"/>
       <c r="P44" s="47">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R44" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S44" s="61" t="n"/>
       <c r="T44" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*sum(H29:I29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*sum(H28:I28)), "")</f>
         <v/>
       </c>
       <c r="U44" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V44" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
-        <v/>
-      </c>
-      <c r="W44" s="47" t="n"/>
-      <c r="X44" s="47" t="n"/>
-      <c r="Y44" s="46">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
-        <v/>
-      </c>
-      <c r="Z44" s="47" t="n"/>
-      <c r="AA44" s="47" t="n"/>
-      <c r="AB44" s="48" t="n"/>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <v/>
+      </c>
+      <c r="W44" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="X44" s="50" t="n">
+        <v>45316</v>
+      </c>
+      <c r="Y44" s="46" t="n">
+        <v>0.3415475121</v>
+      </c>
+      <c r="Z44" s="54" t="n">
+        <v>656.75488</v>
+      </c>
+      <c r="AA44" s="54" t="n">
+        <v>2552.75488</v>
+      </c>
+      <c r="AB44" s="55" t="n">
+        <v>4</v>
+      </c>
       <c r="AC44" s="44">
-        <f>if(B29="DIV", F29,"")</f>
+        <f>if(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD44" s="56" t="inlineStr">
@@ -4314,11 +4254,11 @@
     </row>
     <row r="45">
       <c r="A45" s="57" t="n">
-        <v>45034</v>
+        <v>45145</v>
       </c>
       <c r="B45" s="58" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C45" s="58" t="inlineStr">
@@ -4327,24 +4267,24 @@
         </is>
       </c>
       <c r="D45" s="60" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E45" s="42" t="n">
-        <v>347.95</v>
+        <v>3.75</v>
       </c>
       <c r="F45" s="42" t="n">
-        <v>1752.1</v>
+        <v>93.75</v>
       </c>
       <c r="G45" s="60" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.3.7500/- per share on Ex-Date: 07-AUG-2023</t>
         </is>
       </c>
       <c r="H45" s="60" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="I45" s="60" t="n">
-        <v>10.61</v>
+        <v>0</v>
       </c>
       <c r="J45" s="42">
         <f>Index!$C$2</f>
@@ -4352,63 +4292,54 @@
       </c>
       <c r="K45" s="47" t="n"/>
       <c r="L45" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M45" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N45" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O45" s="61" t="n"/>
       <c r="P45" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R45" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S45" s="61" t="n"/>
       <c r="T45" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*sum(H29:I29)), "")</f>
         <v/>
       </c>
       <c r="U45" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V45" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
-        <v/>
-      </c>
-      <c r="W45" s="53" t="n">
-        <v>640.52</v>
-      </c>
-      <c r="X45" s="50" t="n">
-        <v>45316</v>
-      </c>
-      <c r="Y45" s="46" t="n">
-        <v>0.8174615886</v>
-      </c>
-      <c r="Z45" s="54" t="n">
-        <v>1442.3701</v>
-      </c>
-      <c r="AA45" s="54" t="n">
-        <v>3182.1201</v>
-      </c>
-      <c r="AB45" s="55" t="n">
-        <v>5</v>
-      </c>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <v/>
+      </c>
+      <c r="W45" s="47" t="n"/>
+      <c r="X45" s="47" t="n"/>
+      <c r="Y45" s="46">
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <v/>
+      </c>
+      <c r="Z45" s="47" t="n"/>
+      <c r="AA45" s="47" t="n"/>
+      <c r="AB45" s="48" t="n"/>
       <c r="AC45" s="44">
-        <f>if(B30="DIV", F30,"")</f>
+        <f>if(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD45" s="56" t="inlineStr">
@@ -4419,7 +4350,7 @@
     </row>
     <row r="46">
       <c r="A46" s="57" t="n">
-        <v>44981</v>
+        <v>45034</v>
       </c>
       <c r="B46" s="58" t="inlineStr">
         <is>
@@ -4432,13 +4363,13 @@
         </is>
       </c>
       <c r="D46" s="60" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E46" s="42" t="n">
-        <v>333.751</v>
+        <v>347.95</v>
       </c>
       <c r="F46" s="42" t="n">
-        <v>3361.19</v>
+        <v>1752.1</v>
       </c>
       <c r="G46" s="60" t="inlineStr">
         <is>
@@ -4446,10 +4377,10 @@
         </is>
       </c>
       <c r="H46" s="60" t="n">
-        <v>3.34</v>
+        <v>1.74</v>
       </c>
       <c r="I46" s="60" t="n">
-        <v>20.35</v>
+        <v>10.61</v>
       </c>
       <c r="J46" s="42">
         <f>Index!$C$2</f>
@@ -4457,41 +4388,41 @@
       </c>
       <c r="K46" s="47" t="n"/>
       <c r="L46" s="47">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M46" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N46" s="62">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O46" s="61" t="n"/>
       <c r="P46" s="47">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R46" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S46" s="61" t="n"/>
       <c r="T46" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*sum(H31:I31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
         <v/>
       </c>
       <c r="U46" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V46" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="W46" s="53" t="n">
@@ -4501,19 +4432,19 @@
         <v>45316</v>
       </c>
       <c r="Y46" s="46" t="n">
-        <v>0.8936040096</v>
+        <v>0.8174615886</v>
       </c>
       <c r="Z46" s="54" t="n">
-        <v>3024.74234</v>
+        <v>1442.3701</v>
       </c>
       <c r="AA46" s="54" t="n">
-        <v>6362.25234</v>
+        <v>3182.1201</v>
       </c>
       <c r="AB46" s="55" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AC46" s="44">
-        <f>if(B31="DIV", F31,"")</f>
+        <f>if(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD46" s="56" t="inlineStr">
@@ -4524,11 +4455,11 @@
     </row>
     <row r="47">
       <c r="A47" s="57" t="n">
-        <v>44974</v>
+        <v>44981</v>
       </c>
       <c r="B47" s="58" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C47" s="58" t="inlineStr">
@@ -4540,21 +4471,21 @@
         <v>10</v>
       </c>
       <c r="E47" s="42" t="n">
-        <v>6</v>
+        <v>333.751</v>
       </c>
       <c r="F47" s="42" t="n">
-        <v>60</v>
+        <v>3361.19</v>
       </c>
       <c r="G47" s="60" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.6.0000/- per share on Ex-Date: 17-FEB-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H47" s="60" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="I47" s="60" t="n">
-        <v>0</v>
+        <v>20.35</v>
       </c>
       <c r="J47" s="42">
         <f>Index!$C$2</f>
@@ -4562,54 +4493,63 @@
       </c>
       <c r="K47" s="47" t="n"/>
       <c r="L47" s="47">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M47" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N47" s="62">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O47" s="61" t="n"/>
       <c r="P47" s="47">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R47" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S47" s="61" t="n"/>
       <c r="T47" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*sum(H32:I32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*sum(H31:I31)), "")</f>
         <v/>
       </c>
       <c r="U47" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V47" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
-        <v/>
-      </c>
-      <c r="W47" s="47" t="n"/>
-      <c r="X47" s="47" t="n"/>
-      <c r="Y47" s="46">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
-        <v/>
-      </c>
-      <c r="Z47" s="47" t="n"/>
-      <c r="AA47" s="47" t="n"/>
-      <c r="AB47" s="48" t="n"/>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <v/>
+      </c>
+      <c r="W47" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="X47" s="50" t="n">
+        <v>45316</v>
+      </c>
+      <c r="Y47" s="46" t="n">
+        <v>0.8936040096</v>
+      </c>
+      <c r="Z47" s="54" t="n">
+        <v>3024.74234</v>
+      </c>
+      <c r="AA47" s="54" t="n">
+        <v>6362.25234</v>
+      </c>
+      <c r="AB47" s="55" t="n">
+        <v>10</v>
+      </c>
       <c r="AC47" s="44">
-        <f>if(B32="DIV", F32,"")</f>
+        <f>if(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD47" s="56" t="inlineStr">
@@ -4620,11 +4560,11 @@
     </row>
     <row r="48">
       <c r="A48" s="57" t="n">
-        <v>44953</v>
+        <v>44974</v>
       </c>
       <c r="B48" s="58" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C48" s="58" t="inlineStr">
@@ -4636,21 +4576,21 @@
         <v>10</v>
       </c>
       <c r="E48" s="42" t="n">
-        <v>332.597</v>
+        <v>6</v>
       </c>
       <c r="F48" s="42" t="n">
-        <v>3349.53</v>
+        <v>60</v>
       </c>
       <c r="G48" s="60" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.6.0000/- per share on Ex-Date: 17-FEB-2023</t>
         </is>
       </c>
       <c r="H48" s="60" t="n">
-        <v>3.29</v>
+        <v>0</v>
       </c>
       <c r="I48" s="60" t="n">
-        <v>20.24</v>
+        <v>0</v>
       </c>
       <c r="J48" s="42">
         <f>Index!$C$2</f>
@@ -4658,63 +4598,54 @@
       </c>
       <c r="K48" s="47" t="n"/>
       <c r="L48" s="47">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M48" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N48" s="62">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O48" s="61" t="n"/>
       <c r="P48" s="47">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R48" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S48" s="61" t="n"/>
       <c r="T48" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*sum(H33:I33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*sum(H32:I32)), "")</f>
         <v/>
       </c>
       <c r="U48" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V48" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
-        <v/>
-      </c>
-      <c r="W48" s="53" t="n">
-        <v>640.52</v>
-      </c>
-      <c r="X48" s="50" t="n">
-        <v>45316</v>
-      </c>
-      <c r="Y48" s="46" t="n">
-        <v>0.9001087381</v>
-      </c>
-      <c r="Z48" s="54" t="n">
-        <v>3036.12078</v>
-      </c>
-      <c r="AA48" s="54" t="n">
-        <v>6362.09078</v>
-      </c>
-      <c r="AB48" s="55" t="n">
-        <v>10</v>
-      </c>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <v/>
+      </c>
+      <c r="W48" s="47" t="n"/>
+      <c r="X48" s="47" t="n"/>
+      <c r="Y48" s="46">
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
+        <v/>
+      </c>
+      <c r="Z48" s="47" t="n"/>
+      <c r="AA48" s="47" t="n"/>
+      <c r="AB48" s="48" t="n"/>
       <c r="AC48" s="44">
-        <f>if(B33="DIV", F33,"")</f>
+        <f>if(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD48" s="56" t="inlineStr">
@@ -4724,20 +4655,109 @@
       </c>
     </row>
     <row r="49">
-      <c r="E49" s="63" t="n"/>
-      <c r="F49" s="63" t="n"/>
-      <c r="G49" s="64" t="n"/>
-      <c r="J49" s="63" t="n"/>
-      <c r="K49" s="63" t="n"/>
-      <c r="L49" s="63" t="n"/>
-      <c r="M49" s="66" t="n"/>
-      <c r="W49" s="63" t="n"/>
-      <c r="X49" s="63" t="n"/>
-      <c r="Y49" s="63" t="n"/>
-      <c r="Z49" s="63" t="n"/>
-      <c r="AA49" s="63" t="n"/>
-      <c r="AB49" s="63" t="n"/>
-      <c r="AC49" s="63" t="n"/>
+      <c r="A49" s="57" t="n">
+        <v>44953</v>
+      </c>
+      <c r="B49" s="58" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C49" s="58" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D49" s="60" t="n">
+        <v>10</v>
+      </c>
+      <c r="E49" s="42" t="n">
+        <v>332.597</v>
+      </c>
+      <c r="F49" s="42" t="n">
+        <v>3349.53</v>
+      </c>
+      <c r="G49" s="60" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H49" s="60" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="I49" s="60" t="n">
+        <v>20.24</v>
+      </c>
+      <c r="J49" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K49" s="47" t="n"/>
+      <c r="L49" s="47">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <v/>
+      </c>
+      <c r="M49" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <v/>
+      </c>
+      <c r="N49" s="62">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <v/>
+      </c>
+      <c r="O49" s="61" t="n"/>
+      <c r="P49" s="47">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <v/>
+      </c>
+      <c r="Q49" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <v/>
+      </c>
+      <c r="R49" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <v/>
+      </c>
+      <c r="S49" s="61" t="n"/>
+      <c r="T49" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*sum(H33:I33)), "")</f>
+        <v/>
+      </c>
+      <c r="U49" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <v/>
+      </c>
+      <c r="V49" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <v/>
+      </c>
+      <c r="W49" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="X49" s="50" t="n">
+        <v>45316</v>
+      </c>
+      <c r="Y49" s="46" t="n">
+        <v>0.9001087381</v>
+      </c>
+      <c r="Z49" s="54" t="n">
+        <v>3036.12078</v>
+      </c>
+      <c r="AA49" s="54" t="n">
+        <v>6362.09078</v>
+      </c>
+      <c r="AB49" s="55" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC49" s="44">
+        <f>if(B33="DIV", F33,"")</f>
+        <v/>
+      </c>
+      <c r="AD49" s="56" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="E50" s="63" t="n"/>
@@ -20362,6 +20382,7 @@
       <c r="J1026" s="63" t="n"/>
       <c r="K1026" s="63" t="n"/>
       <c r="L1026" s="63" t="n"/>
+      <c r="M1026" s="66" t="n"/>
       <c r="W1026" s="63" t="n"/>
       <c r="X1026" s="63" t="n"/>
       <c r="Y1026" s="63" t="n"/>
@@ -20609,6 +20630,21 @@
       <c r="AA1042" s="63" t="n"/>
       <c r="AB1042" s="63" t="n"/>
       <c r="AC1042" s="63" t="n"/>
+    </row>
+    <row r="1043">
+      <c r="E1043" s="63" t="n"/>
+      <c r="F1043" s="63" t="n"/>
+      <c r="G1043" s="64" t="n"/>
+      <c r="J1043" s="63" t="n"/>
+      <c r="K1043" s="63" t="n"/>
+      <c r="L1043" s="63" t="n"/>
+      <c r="W1043" s="63" t="n"/>
+      <c r="X1043" s="63" t="n"/>
+      <c r="Y1043" s="63" t="n"/>
+      <c r="Z1043" s="63" t="n"/>
+      <c r="AA1043" s="63" t="n"/>
+      <c r="AB1043" s="63" t="n"/>
+      <c r="AC1043" s="63" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$104"/>

--- a/dumps/Stocks/Rites Ltd.xlsx
+++ b/dumps/Stocks/Rites Ltd.xlsx
@@ -784,7 +784,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1043"/>
+  <dimension ref="A1:AP1045"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="5">
       <c r="A5" s="97" t="n">
-        <v>46062</v>
+        <v>45954</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1148,21 +1148,18 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>227.09</v>
+        <v>249.45</v>
       </c>
       <c r="F5" t="n">
-        <v>4564.6</v>
+        <v>2494.5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>~</t>
         </is>
-      </c>
-      <c r="I5" t="n">
-        <v>22.8</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1171,7 +1168,7 @@
     </row>
     <row r="6">
       <c r="A6" s="97" t="n">
-        <v>46059</v>
+        <v>45953</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1187,18 +1184,15 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>220.23</v>
+        <v>249.75</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2213.3</v>
+        <v>2497.5</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>~</t>
         </is>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>11</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1207,7 +1201,7 @@
     </row>
     <row r="7">
       <c r="A7" s="97" t="n">
-        <v>46057</v>
+        <v>46062</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1220,21 +1214,21 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>223.75</v>
+        <v>227.09</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2248.7</v>
+        <v>4564.6</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252611485581</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>11.2</v>
+        <v>22.8</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1243,7 +1237,7 @@
     </row>
     <row r="8">
       <c r="A8" s="97" t="n">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1259,18 +1253,18 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>218.46</v>
+        <v>220.23</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2195.5</v>
+        <v>2213.3</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1279,11 +1273,11 @@
     </row>
     <row r="9">
       <c r="A9" s="97" t="n">
-        <v>46015</v>
+        <v>46057</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -1295,18 +1289,18 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>243.55</v>
+        <v>223.75</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2447.7</v>
+        <v>2248.7</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252609755521</t>
+          <t>CN#252611485581</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>12.2</v>
+        <v>11.2</v>
       </c>
       <c r="J9" s="0">
         <f>Index!$C$2</f>
@@ -1315,7 +1309,7 @@
     </row>
     <row r="10">
       <c r="A10" s="97" t="n">
-        <v>46008</v>
+        <v>46049</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1331,18 +1325,18 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>224.2</v>
+        <v>218.46</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2253.2</v>
+        <v>2195.5</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252609476500</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="J10" s="0">
         <f>Index!$C$2</f>
@@ -1351,7 +1345,7 @@
     </row>
     <row r="11">
       <c r="A11" s="97" t="n">
-        <v>46007</v>
+        <v>46015</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1367,18 +1361,18 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>226.9</v>
+        <v>243.55</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2280.3</v>
+        <v>2447.7</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>11.3</v>
+        <v>12.2</v>
       </c>
       <c r="J11" s="0">
         <f>Index!$C$2</f>
@@ -1387,11 +1381,11 @@
     </row>
     <row r="12">
       <c r="A12" s="97" t="n">
-        <v>46002</v>
+        <v>46008</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1400,21 +1394,21 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>224.975</v>
+        <v>224.2</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>4522</v>
+        <v>2253.2</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252609267726</t>
+          <t>CN#252609476500</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>22.5</v>
+        <v>11.2</v>
       </c>
       <c r="J12" s="0">
         <f>Index!$C$2</f>
@@ -1423,11 +1417,11 @@
     </row>
     <row r="13">
       <c r="A13" s="97" t="n">
-        <v>45996</v>
+        <v>46007</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1436,21 +1430,21 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>228.2595</v>
+        <v>226.9</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>13763.97</v>
+        <v>2280.3</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>CN#252609039305</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>68.40000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="J13" s="0">
         <f>Index!$C$2</f>
@@ -1459,7 +1453,7 @@
     </row>
     <row r="14">
       <c r="A14" s="97" t="n">
-        <v>45982</v>
+        <v>46002</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1472,21 +1466,21 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>249.8</v>
+        <v>224.975</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>2510.5</v>
+        <v>4522</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>CN#252608495287</t>
+          <t>CN#252609267726</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>12.5</v>
+        <v>22.5</v>
       </c>
       <c r="J14" s="0">
         <f>Index!$C$2</f>
@@ -1495,7 +1489,7 @@
     </row>
     <row r="15">
       <c r="A15" s="97" t="n">
-        <v>45981</v>
+        <v>45996</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1508,21 +1502,21 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>249.966</v>
+        <v>228.2595</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2512.16</v>
+        <v>13763.97</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>CN#252608441505</t>
+          <t>CN#252609039305</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
-        <v>12.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="J15" s="0">
         <f>Index!$C$2</f>
@@ -1531,7 +1525,7 @@
     </row>
     <row r="16">
       <c r="A16" s="97" t="n">
-        <v>45979</v>
+        <v>45982</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1547,14 +1541,14 @@
         <v>10</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>249.69</v>
+        <v>249.8</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>2509.4</v>
+        <v>2510.5</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>CN#252608322011</t>
+          <t>CN#252608495287</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
@@ -1567,7 +1561,7 @@
     </row>
     <row r="17">
       <c r="A17" s="97" t="n">
-        <v>45978</v>
+        <v>45981</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1580,21 +1574,21 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>248.38</v>
+        <v>249.966</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>4992.4</v>
+        <v>2512.16</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252608441505</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>24.8</v>
+        <v>12.5</v>
       </c>
       <c r="J17" s="0">
         <f>Index!$C$2</f>
@@ -1603,7 +1597,7 @@
     </row>
     <row r="18">
       <c r="A18" s="97" t="n">
-        <v>45975</v>
+        <v>45979</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1619,18 +1613,18 @@
         <v>10</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>243.9</v>
+        <v>249.69</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>2451.2</v>
+        <v>2509.4</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>CN#252608199734</t>
+          <t>CN#252608322011</t>
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="J18" s="0">
         <f>Index!$C$2</f>
@@ -1639,7 +1633,7 @@
     </row>
     <row r="19">
       <c r="A19" s="97" t="n">
-        <v>45959</v>
+        <v>45978</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -1652,21 +1646,21 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>244.95</v>
+        <v>248.38</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>2461.7</v>
+        <v>4992.4</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I19" s="0" t="n">
-        <v>12.2</v>
+        <v>24.8</v>
       </c>
       <c r="J19" s="0">
         <f>Index!$C$2</f>
@@ -1675,11 +1669,11 @@
     </row>
     <row r="20">
       <c r="A20" s="97" t="n">
-        <v>45957</v>
+        <v>45975</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -1691,223 +1685,103 @@
         <v>10</v>
       </c>
       <c r="E20" s="0" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>2451.2</v>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>CN#252608199734</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J20" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="97" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>244.95</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>2461.7</v>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607497001</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J21" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="97" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" s="0" t="n">
         <v>245.88</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F22" s="0" t="n">
         <v>2471.1</v>
       </c>
-      <c r="G20" s="0" t="inlineStr">
+      <c r="G22" s="0" t="inlineStr">
         <is>
           <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <v>12.3</v>
       </c>
-      <c r="J20" s="0">
+      <c r="J22" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="38" t="n">
+    <row r="23">
+      <c r="A23" s="38" t="n">
         <v>45950</v>
       </c>
-      <c r="B21" s="39" t="inlineStr">
+      <c r="B23" s="39" t="inlineStr">
         <is>
           <t>BSE</t>
-        </is>
-      </c>
-      <c r="C21" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D21" s="40" t="n">
-        <v>20</v>
-      </c>
-      <c r="E21" s="41" t="n">
-        <v>248.81</v>
-      </c>
-      <c r="F21" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G21" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H21" s="40" t="n"/>
-      <c r="I21" s="40" t="n"/>
-      <c r="J21" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K21" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L21" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M21" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N21" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O21" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P21" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q21" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R21" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S21" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T21" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U21" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V21" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W21" s="47" t="n"/>
-      <c r="X21" s="47" t="n"/>
-      <c r="Y21" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z21" s="47" t="n"/>
-      <c r="AA21" s="47" t="n"/>
-      <c r="AB21" s="48" t="n"/>
-      <c r="AC21" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD21" s="49" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="38" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B22" s="39" t="inlineStr">
-        <is>
-          <t>DIV</t>
-        </is>
-      </c>
-      <c r="C22" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D22" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E22" s="41" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F22" s="41">
-        <f>(D6*E6)</f>
-        <v/>
-      </c>
-      <c r="G22" s="39" t="n"/>
-      <c r="H22" s="40" t="n"/>
-      <c r="I22" s="40" t="n"/>
-      <c r="J22" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K22" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L22" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M22" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N22" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O22" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P22" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q22" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R22" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S22" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T22" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U22" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V22" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W22" s="47" t="n"/>
-      <c r="X22" s="47" t="n"/>
-      <c r="Y22" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z22" s="47" t="n"/>
-      <c r="AA22" s="47" t="n"/>
-      <c r="AB22" s="48" t="n"/>
-      <c r="AC22" s="44">
-        <f>if(B6="DIV", F6,"")</f>
-        <v/>
-      </c>
-      <c r="AD22" s="49" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="38" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B23" s="39" t="inlineStr">
-        <is>
-          <t>DIV</t>
         </is>
       </c>
       <c r="C23" s="39" t="inlineStr">
@@ -1916,16 +1790,20 @@
         </is>
       </c>
       <c r="D23" s="40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E23" s="41" t="n">
-        <v>2.65</v>
+        <v>248.81</v>
       </c>
       <c r="F23" s="41">
-        <f>(D7*E7)</f>
-        <v/>
-      </c>
-      <c r="G23" s="39" t="n"/>
+        <f>D5*E5</f>
+        <v/>
+      </c>
+      <c r="G23" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
       <c r="H23" s="40" t="n"/>
       <c r="I23" s="40" t="n"/>
       <c r="J23" s="42">
@@ -1933,75 +1811,75 @@
         <v/>
       </c>
       <c r="K23" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L23" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M23" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N23" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O23" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P23" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q23" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R23" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S23" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T23" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U23" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V23" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W23" s="47" t="n"/>
       <c r="X23" s="47" t="n"/>
       <c r="Y23" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z23" s="47" t="n"/>
       <c r="AA23" s="47" t="n"/>
       <c r="AB23" s="48" t="n"/>
       <c r="AC23" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD23" s="49" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="38" t="n">
-        <v>45897</v>
+        <v>45917</v>
       </c>
       <c r="B24" s="39" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C24" s="39" t="inlineStr">
@@ -2013,92 +1891,85 @@
         <v>10</v>
       </c>
       <c r="E24" s="41" t="n">
-        <v>248.6</v>
-      </c>
-      <c r="F24" s="41" t="n">
-        <v>2486</v>
-      </c>
-      <c r="G24" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H24" s="40" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="I24" s="40" t="n">
-        <v>15.03</v>
-      </c>
+        <v>2.65</v>
+      </c>
+      <c r="F24" s="41">
+        <f>(D6*E6)</f>
+        <v/>
+      </c>
+      <c r="G24" s="39" t="n"/>
+      <c r="H24" s="40" t="n"/>
+      <c r="I24" s="40" t="n"/>
       <c r="J24" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K24" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L24" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M24" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N24" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O24" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P24" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q24" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R24" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S24" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T24" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U24" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V24" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W24" s="47" t="n"/>
       <c r="X24" s="47" t="n"/>
       <c r="Y24" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z24" s="47" t="n"/>
       <c r="AA24" s="47" t="n"/>
       <c r="AB24" s="48" t="n"/>
       <c r="AC24" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD24" s="49" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="38" t="n">
-        <v>45881</v>
+        <v>45917</v>
       </c>
       <c r="B25" s="39" t="inlineStr">
         <is>
@@ -2114,111 +1985,104 @@
         <v>10</v>
       </c>
       <c r="E25" s="41" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="F25" s="41" t="n">
-        <v>13</v>
-      </c>
-      <c r="G25" s="39" t="inlineStr">
-        <is>
-          <t>Interim-Dividend of Rs.1.3000/- per share on Ex-Date: 12-AUG-2025</t>
-        </is>
-      </c>
-      <c r="H25" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="40" t="n">
-        <v>0</v>
-      </c>
+        <v>2.65</v>
+      </c>
+      <c r="F25" s="41">
+        <f>(D7*E7)</f>
+        <v/>
+      </c>
+      <c r="G25" s="39" t="n"/>
+      <c r="H25" s="40" t="n"/>
+      <c r="I25" s="40" t="n"/>
       <c r="J25" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K25" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L25" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M25" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N25" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O25" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P25" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q25" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R25" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S25" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T25" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U25" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V25" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W25" s="47" t="n"/>
       <c r="X25" s="47" t="n"/>
       <c r="Y25" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z25" s="47" t="n"/>
       <c r="AA25" s="47" t="n"/>
       <c r="AB25" s="48" t="n"/>
       <c r="AC25" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD25" s="49" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="38" t="n">
-        <v>45820</v>
+        <v>45897</v>
       </c>
       <c r="B26" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C26" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D26" s="40" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E26" s="41" t="n">
-        <v>301.79</v>
+        <v>248.6</v>
       </c>
       <c r="F26" s="41" t="n">
-        <v>30179.17</v>
+        <v>2486</v>
       </c>
       <c r="G26" s="39" t="inlineStr">
         <is>
@@ -2226,85 +2090,85 @@
         </is>
       </c>
       <c r="H26" s="40" t="n">
-        <v>30.34</v>
+        <v>2.47</v>
       </c>
       <c r="I26" s="40" t="n">
-        <v>180.49</v>
+        <v>15.03</v>
       </c>
       <c r="J26" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K26" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L26" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M26" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N26" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O26" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P26" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q26" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R26" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S26" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T26" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U26" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V26" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W26" s="47" t="n"/>
       <c r="X26" s="47" t="n"/>
       <c r="Y26" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z26" s="47" t="n"/>
       <c r="AA26" s="47" t="n"/>
       <c r="AB26" s="48" t="n"/>
       <c r="AC26" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD26" s="49" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="38" t="n">
-        <v>45811</v>
+        <v>45881</v>
       </c>
       <c r="B27" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C27" s="39" t="inlineStr">
@@ -2316,320 +2180,294 @@
         <v>10</v>
       </c>
       <c r="E27" s="41" t="n">
-        <v>283.65</v>
+        <v>1.3</v>
       </c>
       <c r="F27" s="41" t="n">
-        <v>2836.5</v>
+        <v>13</v>
       </c>
       <c r="G27" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.3000/- per share on Ex-Date: 12-AUG-2025</t>
         </is>
       </c>
       <c r="H27" s="40" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="I27" s="40" t="n">
-        <v>17.18</v>
+        <v>0</v>
       </c>
       <c r="J27" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K27" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L27" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M27" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N27" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O27" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P27" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R27" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S27" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T27" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U27" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V27" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W27" s="47" t="n"/>
       <c r="X27" s="47" t="n"/>
       <c r="Y27" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z27" s="47" t="n"/>
       <c r="AA27" s="47" t="n"/>
       <c r="AB27" s="48" t="n"/>
       <c r="AC27" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD27" s="49" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="50" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B28" s="51" t="inlineStr">
+      <c r="A28" s="38" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B28" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C28" s="51" t="inlineStr">
+      <c r="C28" s="39" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D28" s="40" t="n">
+        <v>100</v>
+      </c>
+      <c r="E28" s="41" t="n">
+        <v>301.79</v>
+      </c>
+      <c r="F28" s="41" t="n">
+        <v>30179.17</v>
+      </c>
+      <c r="G28" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H28" s="40" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="I28" s="40" t="n">
+        <v>180.49</v>
+      </c>
+      <c r="J28" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K28" s="43">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="L28" s="44">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <v/>
+      </c>
+      <c r="M28" s="44">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <v/>
+      </c>
+      <c r="N28" s="45">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <v/>
+      </c>
+      <c r="O28" s="43">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="P28" s="44">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <v/>
+      </c>
+      <c r="Q28" s="44">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <v/>
+      </c>
+      <c r="R28" s="44">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <v/>
+      </c>
+      <c r="S28" s="46">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="T28" s="47">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <v/>
+      </c>
+      <c r="U28" s="47">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <v/>
+      </c>
+      <c r="V28" s="47">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <v/>
+      </c>
+      <c r="W28" s="47" t="n"/>
+      <c r="X28" s="47" t="n"/>
+      <c r="Y28" s="46">
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="Z28" s="47" t="n"/>
+      <c r="AA28" s="47" t="n"/>
+      <c r="AB28" s="48" t="n"/>
+      <c r="AC28" s="44">
+        <f>if(B10="DIV", F10,"")</f>
+        <v/>
+      </c>
+      <c r="AD28" s="49" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B29" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C29" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D28" s="52" t="n">
-        <v>23</v>
-      </c>
-      <c r="E28" s="53" t="n">
-        <v>214.56</v>
-      </c>
-      <c r="F28" s="53" t="n">
-        <v>4934.98</v>
-      </c>
-      <c r="G28" s="51" t="inlineStr">
+      <c r="D29" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" s="41" t="n">
+        <v>283.65</v>
+      </c>
+      <c r="F29" s="41" t="n">
+        <v>2836.5</v>
+      </c>
+      <c r="G29" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H28" s="52" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="I28" s="52" t="n">
-        <v>29.94</v>
-      </c>
-      <c r="J28" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K28" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="L28" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v/>
-      </c>
-      <c r="M28" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
-        <v/>
-      </c>
-      <c r="N28" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
-        <v/>
-      </c>
-      <c r="O28" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="P28" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v/>
-      </c>
-      <c r="Q28" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
-        <v/>
-      </c>
-      <c r="R28" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
-        <v/>
-      </c>
-      <c r="S28" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="T28" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v/>
-      </c>
-      <c r="U28" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
-        <v/>
-      </c>
-      <c r="V28" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
-        <v/>
-      </c>
-      <c r="W28" s="41" t="n">
-        <v>301.79</v>
-      </c>
-      <c r="X28" s="38" t="n">
-        <v>45820</v>
-      </c>
-      <c r="Y28" s="46" t="n">
-        <v>0.3980437763</v>
-      </c>
-      <c r="Z28" s="54" t="n">
-        <v>1978.20194</v>
-      </c>
-      <c r="AA28" s="54" t="n">
-        <v>6913.08194</v>
-      </c>
-      <c r="AB28" s="55" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC28" s="44">
-        <f>if(B12="DIV", F12,"")</f>
-        <v/>
-      </c>
-      <c r="AD28" s="56" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="50" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B29" s="51" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C29" s="51" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D29" s="52" t="n">
-        <v>7</v>
-      </c>
-      <c r="E29" s="53" t="n">
-        <v>214.56</v>
-      </c>
-      <c r="F29" s="53" t="n">
-        <v>1501.94</v>
-      </c>
-      <c r="G29" s="51" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H29" s="52" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="I29" s="52" t="n">
-        <v>9.1</v>
+      <c r="H29" s="40" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I29" s="40" t="n">
+        <v>17.18</v>
       </c>
       <c r="J29" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K29" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L29" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M29" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N29" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O29" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P29" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R29" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S29" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T29" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U29" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V29" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
-        <v/>
-      </c>
-      <c r="W29" s="41" t="n">
-        <v>301.79</v>
-      </c>
-      <c r="X29" s="38" t="n">
-        <v>45820</v>
-      </c>
-      <c r="Y29" s="46" t="n">
-        <v>0.3980492684</v>
-      </c>
-      <c r="Z29" s="54" t="n">
-        <v>602.06146</v>
-      </c>
-      <c r="AA29" s="54" t="n">
-        <v>2103.98146</v>
-      </c>
-      <c r="AB29" s="55" t="n">
-        <v>7</v>
-      </c>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="W29" s="47" t="n"/>
+      <c r="X29" s="47" t="n"/>
+      <c r="Y29" s="46">
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="Z29" s="47" t="n"/>
+      <c r="AA29" s="47" t="n"/>
+      <c r="AB29" s="48" t="n"/>
       <c r="AC29" s="44">
-        <f>if(B13="DIV", F13,"")</f>
-        <v/>
-      </c>
-      <c r="AD29" s="56" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B11="DIV", F11,"")</f>
+        <v/>
+      </c>
+      <c r="AD29" s="49" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="50" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B30" s="51" t="inlineStr">
         <is>
@@ -2642,13 +2480,13 @@
         </is>
       </c>
       <c r="D30" s="52" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E30" s="53" t="n">
-        <v>202.73</v>
+        <v>214.56</v>
       </c>
       <c r="F30" s="53" t="n">
-        <v>2635.5</v>
+        <v>4934.98</v>
       </c>
       <c r="G30" s="51" t="inlineStr">
         <is>
@@ -2656,61 +2494,61 @@
         </is>
       </c>
       <c r="H30" s="52" t="n">
-        <v>2.62</v>
+        <v>4.89</v>
       </c>
       <c r="I30" s="52" t="n">
-        <v>15.98</v>
+        <v>29.94</v>
       </c>
       <c r="J30" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K30" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L30" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M30" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N30" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O30" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P30" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R30" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S30" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T30" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U30" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V30" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W30" s="41" t="n">
@@ -2720,19 +2558,19 @@
         <v>45820</v>
       </c>
       <c r="Y30" s="46" t="n">
-        <v>0.4784111676</v>
+        <v>0.3980437763</v>
       </c>
       <c r="Z30" s="54" t="n">
-        <v>1269.75108</v>
+        <v>1978.20194</v>
       </c>
       <c r="AA30" s="54" t="n">
-        <v>3905.24108</v>
+        <v>6913.08194</v>
       </c>
       <c r="AB30" s="55" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AC30" s="44">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD30" s="56" t="inlineStr">
@@ -2743,7 +2581,7 @@
     </row>
     <row r="31">
       <c r="A31" s="50" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B31" s="51" t="inlineStr">
         <is>
@@ -2756,13 +2594,13 @@
         </is>
       </c>
       <c r="D31" s="52" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E31" s="53" t="n">
-        <v>202.73</v>
+        <v>214.56</v>
       </c>
       <c r="F31" s="53" t="n">
-        <v>2635.5</v>
+        <v>1501.94</v>
       </c>
       <c r="G31" s="51" t="inlineStr">
         <is>
@@ -2770,61 +2608,61 @@
         </is>
       </c>
       <c r="H31" s="52" t="n">
-        <v>2.62</v>
+        <v>1.49</v>
       </c>
       <c r="I31" s="52" t="n">
-        <v>15.98</v>
+        <v>9.1</v>
       </c>
       <c r="J31" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K31" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L31" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M31" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N31" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O31" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P31" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R31" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S31" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T31" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U31" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V31" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W31" s="41" t="n">
@@ -2834,19 +2672,19 @@
         <v>45820</v>
       </c>
       <c r="Y31" s="46" t="n">
-        <v>0.4784111676</v>
+        <v>0.3980492684</v>
       </c>
       <c r="Z31" s="54" t="n">
-        <v>1269.75108</v>
+        <v>602.06146</v>
       </c>
       <c r="AA31" s="54" t="n">
-        <v>3905.24108</v>
+        <v>2103.98146</v>
       </c>
       <c r="AB31" s="55" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AC31" s="44">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD31" s="56" t="inlineStr">
@@ -2870,13 +2708,13 @@
         </is>
       </c>
       <c r="D32" s="52" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E32" s="53" t="n">
         <v>202.73</v>
       </c>
       <c r="F32" s="53" t="n">
-        <v>608.1799999999999</v>
+        <v>2635.5</v>
       </c>
       <c r="G32" s="51" t="inlineStr">
         <is>
@@ -2884,61 +2722,61 @@
         </is>
       </c>
       <c r="H32" s="52" t="n">
-        <v>0.6</v>
+        <v>2.62</v>
       </c>
       <c r="I32" s="52" t="n">
-        <v>3.68</v>
+        <v>15.98</v>
       </c>
       <c r="J32" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K32" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L32" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M32" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N32" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O32" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P32" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q32" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R32" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S32" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T32" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U32" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V32" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W32" s="41" t="n">
@@ -2948,19 +2786,19 @@
         <v>45820</v>
       </c>
       <c r="Y32" s="46" t="n">
-        <v>0.4784303955</v>
+        <v>0.4784111676</v>
       </c>
       <c r="Z32" s="54" t="n">
-        <v>293.01948</v>
+        <v>1269.75108</v>
       </c>
       <c r="AA32" s="54" t="n">
-        <v>901.20948</v>
+        <v>3905.24108</v>
       </c>
       <c r="AB32" s="55" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AC32" s="44">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD32" s="56" t="inlineStr">
@@ -2984,13 +2822,13 @@
         </is>
       </c>
       <c r="D33" s="52" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E33" s="53" t="n">
         <v>202.73</v>
       </c>
       <c r="F33" s="53" t="n">
-        <v>608.1799999999999</v>
+        <v>2635.5</v>
       </c>
       <c r="G33" s="51" t="inlineStr">
         <is>
@@ -2998,61 +2836,61 @@
         </is>
       </c>
       <c r="H33" s="52" t="n">
-        <v>0.6</v>
+        <v>2.62</v>
       </c>
       <c r="I33" s="52" t="n">
-        <v>3.68</v>
+        <v>15.98</v>
       </c>
       <c r="J33" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K33" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L33" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M33" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N33" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O33" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P33" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q33" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R33" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S33" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T33" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U33" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V33" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W33" s="41" t="n">
@@ -3062,19 +2900,19 @@
         <v>45820</v>
       </c>
       <c r="Y33" s="46" t="n">
-        <v>0.4784303955</v>
+        <v>0.4784111676</v>
       </c>
       <c r="Z33" s="54" t="n">
-        <v>293.01948</v>
+        <v>1269.75108</v>
       </c>
       <c r="AA33" s="54" t="n">
-        <v>901.20948</v>
+        <v>3905.24108</v>
       </c>
       <c r="AB33" s="55" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AC33" s="44">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD33" s="56" t="inlineStr">
@@ -3098,13 +2936,13 @@
         </is>
       </c>
       <c r="D34" s="52" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E34" s="53" t="n">
         <v>202.73</v>
       </c>
       <c r="F34" s="53" t="n">
-        <v>2635.5</v>
+        <v>608.1799999999999</v>
       </c>
       <c r="G34" s="51" t="inlineStr">
         <is>
@@ -3112,61 +2950,61 @@
         </is>
       </c>
       <c r="H34" s="52" t="n">
-        <v>2.62</v>
+        <v>0.6</v>
       </c>
       <c r="I34" s="52" t="n">
-        <v>15.98</v>
+        <v>3.68</v>
       </c>
       <c r="J34" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K34" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L34" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M34" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N34" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O34" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P34" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q34" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R34" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S34" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T34" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U34" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V34" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W34" s="41" t="n">
@@ -3176,19 +3014,19 @@
         <v>45820</v>
       </c>
       <c r="Y34" s="46" t="n">
-        <v>0.4784111676</v>
+        <v>0.4784303955</v>
       </c>
       <c r="Z34" s="54" t="n">
-        <v>1269.75108</v>
+        <v>293.01948</v>
       </c>
       <c r="AA34" s="54" t="n">
-        <v>3905.24108</v>
+        <v>901.20948</v>
       </c>
       <c r="AB34" s="55" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC34" s="44">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD34" s="56" t="inlineStr">
@@ -3199,7 +3037,7 @@
     </row>
     <row r="35">
       <c r="A35" s="50" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B35" s="51" t="inlineStr">
         <is>
@@ -3212,13 +3050,13 @@
         </is>
       </c>
       <c r="D35" s="52" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E35" s="53" t="n">
-        <v>223.07</v>
+        <v>202.73</v>
       </c>
       <c r="F35" s="53" t="n">
-        <v>4461.44</v>
+        <v>608.1799999999999</v>
       </c>
       <c r="G35" s="51" t="inlineStr">
         <is>
@@ -3226,61 +3064,61 @@
         </is>
       </c>
       <c r="H35" s="52" t="n">
-        <v>4.43</v>
+        <v>0.6</v>
       </c>
       <c r="I35" s="52" t="n">
-        <v>27.01</v>
+        <v>3.68</v>
       </c>
       <c r="J35" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K35" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L35" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M35" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N35" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O35" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P35" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q35" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R35" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S35" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T35" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U35" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V35" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W35" s="41" t="n">
@@ -3290,19 +3128,19 @@
         <v>45820</v>
       </c>
       <c r="Y35" s="46" t="n">
-        <v>0.3455152152</v>
+        <v>0.4784303955</v>
       </c>
       <c r="Z35" s="54" t="n">
-        <v>1552.3584</v>
+        <v>293.01948</v>
       </c>
       <c r="AA35" s="54" t="n">
-        <v>6013.7584</v>
+        <v>901.20948</v>
       </c>
       <c r="AB35" s="55" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AC35" s="44">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD35" s="56" t="inlineStr">
@@ -3313,7 +3151,7 @@
     </row>
     <row r="36">
       <c r="A36" s="50" t="n">
-        <v>45694</v>
+        <v>45705</v>
       </c>
       <c r="B36" s="51" t="inlineStr">
         <is>
@@ -3326,13 +3164,13 @@
         </is>
       </c>
       <c r="D36" s="52" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E36" s="53" t="n">
-        <v>237.07</v>
+        <v>202.73</v>
       </c>
       <c r="F36" s="53" t="n">
-        <v>1185.36</v>
+        <v>2635.5</v>
       </c>
       <c r="G36" s="51" t="inlineStr">
         <is>
@@ -3340,61 +3178,61 @@
         </is>
       </c>
       <c r="H36" s="52" t="n">
-        <v>1.18</v>
+        <v>2.62</v>
       </c>
       <c r="I36" s="52" t="n">
-        <v>7.18</v>
+        <v>15.98</v>
       </c>
       <c r="J36" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K36" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L36" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M36" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N36" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O36" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P36" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R36" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S36" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T36" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U36" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V36" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W36" s="41" t="n">
@@ -3404,19 +3242,19 @@
         <v>45820</v>
       </c>
       <c r="Y36" s="46" t="n">
-        <v>0.2672901518</v>
+        <v>0.4784111676</v>
       </c>
       <c r="Z36" s="54" t="n">
-        <v>319.0696</v>
+        <v>1269.75108</v>
       </c>
       <c r="AA36" s="54" t="n">
-        <v>1504.4196</v>
+        <v>3905.24108</v>
       </c>
       <c r="AB36" s="55" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AC36" s="44">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD36" s="56" t="inlineStr">
@@ -3427,7 +3265,7 @@
     </row>
     <row r="37">
       <c r="A37" s="50" t="n">
-        <v>45316</v>
+        <v>45699</v>
       </c>
       <c r="B37" s="51" t="inlineStr">
         <is>
@@ -3436,17 +3274,17 @@
       </c>
       <c r="C37" s="51" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D37" s="52" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E37" s="53" t="n">
-        <v>640.52</v>
+        <v>223.07</v>
       </c>
       <c r="F37" s="53" t="n">
-        <v>32025.84</v>
+        <v>4461.44</v>
       </c>
       <c r="G37" s="51" t="inlineStr">
         <is>
@@ -3454,175 +3292,197 @@
         </is>
       </c>
       <c r="H37" s="52" t="n">
-        <v>32.26</v>
+        <v>4.43</v>
       </c>
       <c r="I37" s="52" t="n">
-        <v>191.9</v>
+        <v>27.01</v>
       </c>
       <c r="J37" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L37" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M37" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N37" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O37" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P37" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R37" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S37" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T37" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U37" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V37" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
-        <v/>
-      </c>
-      <c r="W37" s="47" t="n"/>
-      <c r="X37" s="47" t="n"/>
-      <c r="Y37" s="46">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
-        <v/>
-      </c>
-      <c r="Z37" s="47" t="n"/>
-      <c r="AA37" s="47" t="n"/>
-      <c r="AB37" s="48" t="n"/>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <v/>
+      </c>
+      <c r="W37" s="41" t="n">
+        <v>301.79</v>
+      </c>
+      <c r="X37" s="38" t="n">
+        <v>45820</v>
+      </c>
+      <c r="Y37" s="46" t="n">
+        <v>0.3455152152</v>
+      </c>
+      <c r="Z37" s="54" t="n">
+        <v>1552.3584</v>
+      </c>
+      <c r="AA37" s="54" t="n">
+        <v>6013.7584</v>
+      </c>
+      <c r="AB37" s="55" t="n">
+        <v>20</v>
+      </c>
       <c r="AC37" s="44">
-        <f>if(B21="DIV", F21,"")</f>
-        <v/>
-      </c>
-      <c r="AD37" s="49" t="n"/>
+        <f>if(B19="DIV", F19,"")</f>
+        <v/>
+      </c>
+      <c r="AD37" s="56" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="57" t="n">
-        <v>45238</v>
-      </c>
-      <c r="B38" s="58" t="inlineStr">
+      <c r="A38" s="50" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B38" s="51" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
-      <c r="C38" s="58" t="inlineStr">
+      <c r="C38" s="51" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D38" s="60" t="n">
-        <v>50</v>
-      </c>
-      <c r="E38" s="42" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F38" s="42" t="n">
-        <v>225</v>
-      </c>
-      <c r="G38" s="60" t="inlineStr">
+      <c r="D38" s="52" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" s="53" t="n">
+        <v>237.07</v>
+      </c>
+      <c r="F38" s="53" t="n">
+        <v>1185.36</v>
+      </c>
+      <c r="G38" s="51" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.4.5000/- per share on Ex-Date: 08-NOV-2023</t>
+          <t>~</t>
         </is>
       </c>
-      <c r="H38" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="60" t="n">
-        <v>0</v>
+      <c r="H38" s="52" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I38" s="52" t="n">
+        <v>7.18</v>
       </c>
       <c r="J38" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L38" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M38" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N38" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O38" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P38" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R38" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S38" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T38" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U38" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V38" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
-        <v/>
-      </c>
-      <c r="W38" s="47" t="n"/>
-      <c r="X38" s="47" t="n"/>
-      <c r="Y38" s="46">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
-        <v/>
-      </c>
-      <c r="Z38" s="47" t="n"/>
-      <c r="AA38" s="47" t="n"/>
-      <c r="AB38" s="48" t="n"/>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <v/>
+      </c>
+      <c r="W38" s="41" t="n">
+        <v>301.79</v>
+      </c>
+      <c r="X38" s="38" t="n">
+        <v>45820</v>
+      </c>
+      <c r="Y38" s="46" t="n">
+        <v>0.2672901518</v>
+      </c>
+      <c r="Z38" s="54" t="n">
+        <v>319.0696</v>
+      </c>
+      <c r="AA38" s="54" t="n">
+        <v>1504.4196</v>
+      </c>
+      <c r="AB38" s="55" t="n">
+        <v>5</v>
+      </c>
       <c r="AC38" s="44">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD38" s="56" t="inlineStr">
@@ -3632,117 +3492,113 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="57" t="n">
-        <v>45225</v>
-      </c>
-      <c r="B39" s="58" t="inlineStr">
+      <c r="A39" s="50" t="n">
+        <v>45316</v>
+      </c>
+      <c r="B39" s="51" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C39" s="58" t="inlineStr">
+      <c r="C39" s="51" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
-      <c r="D39" s="60" t="n">
-        <v>5</v>
-      </c>
-      <c r="E39" s="42" t="n">
-        <v>434.402</v>
-      </c>
-      <c r="F39" s="42" t="n">
-        <v>2187.44</v>
-      </c>
-      <c r="G39" s="60" t="inlineStr">
+      <c r="D39" s="52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E39" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="F39" s="53" t="n">
+        <v>32025.84</v>
+      </c>
+      <c r="G39" s="51" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H39" s="60" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="I39" s="60" t="n">
-        <v>13.25</v>
+      <c r="H39" s="52" t="n">
+        <v>32.26</v>
+      </c>
+      <c r="I39" s="52" t="n">
+        <v>191.9</v>
       </c>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K39" s="47" t="n"/>
-      <c r="L39" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
-        <v/>
-      </c>
-      <c r="M39" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
-        <v/>
-      </c>
-      <c r="N39" s="62">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
-        <v/>
-      </c>
-      <c r="O39" s="61" t="n"/>
-      <c r="P39" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
-        <v/>
-      </c>
-      <c r="Q39" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
-        <v/>
-      </c>
-      <c r="R39" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
-        <v/>
-      </c>
-      <c r="S39" s="61" t="n"/>
-      <c r="T39" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (J23*D23)-(E23*D23)-(2*sum(H23:I23)), "")</f>
-        <v/>
-      </c>
-      <c r="U39" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
-        <v/>
-      </c>
-      <c r="V39" s="61">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
-        <v/>
-      </c>
-      <c r="W39" s="53" t="n">
-        <v>640.52</v>
-      </c>
-      <c r="X39" s="50" t="n">
-        <v>45316</v>
-      </c>
-      <c r="Y39" s="46" t="n">
-        <v>0.4612878323</v>
-      </c>
-      <c r="Z39" s="54" t="n">
-        <v>1016.16174</v>
-      </c>
-      <c r="AA39" s="54" t="n">
-        <v>3188.17174</v>
-      </c>
-      <c r="AB39" s="55" t="n">
-        <v>5</v>
-      </c>
+      <c r="K39" s="43">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="L39" s="44">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <v/>
+      </c>
+      <c r="M39" s="44">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <v/>
+      </c>
+      <c r="N39" s="45">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <v/>
+      </c>
+      <c r="O39" s="43">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="P39" s="44">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <v/>
+      </c>
+      <c r="Q39" s="44">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <v/>
+      </c>
+      <c r="R39" s="44">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <v/>
+      </c>
+      <c r="S39" s="46">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="T39" s="47">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <v/>
+      </c>
+      <c r="U39" s="47">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <v/>
+      </c>
+      <c r="V39" s="47">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <v/>
+      </c>
+      <c r="W39" s="47" t="n"/>
+      <c r="X39" s="47" t="n"/>
+      <c r="Y39" s="46">
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="Z39" s="47" t="n"/>
+      <c r="AA39" s="47" t="n"/>
+      <c r="AB39" s="48" t="n"/>
       <c r="AC39" s="44">
-        <f>if(B23="DIV", F23,"")</f>
-        <v/>
-      </c>
-      <c r="AD39" s="56" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B21="DIV", F21,"")</f>
+        <v/>
+      </c>
+      <c r="AD39" s="49" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="57" t="n">
-        <v>45191</v>
+        <v>45238</v>
       </c>
       <c r="B40" s="58" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C40" s="58" t="inlineStr">
@@ -3751,88 +3607,88 @@
         </is>
       </c>
       <c r="D40" s="60" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E40" s="42" t="n">
-        <v>485.448</v>
+        <v>4.5</v>
       </c>
       <c r="F40" s="42" t="n">
-        <v>4889.12</v>
+        <v>225</v>
       </c>
       <c r="G40" s="60" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.4.5000/- per share on Ex-Date: 08-NOV-2023</t>
         </is>
       </c>
       <c r="H40" s="60" t="n">
-        <v>4.94</v>
+        <v>0</v>
       </c>
       <c r="I40" s="60" t="n">
-        <v>29.68</v>
+        <v>0</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K40" s="47" t="n"/>
-      <c r="L40" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
-        <v/>
-      </c>
-      <c r="M40" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
-        <v/>
-      </c>
-      <c r="N40" s="62">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
-        <v/>
-      </c>
-      <c r="O40" s="61" t="n"/>
-      <c r="P40" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
-        <v/>
-      </c>
-      <c r="Q40" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
-        <v/>
-      </c>
-      <c r="R40" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
-        <v/>
-      </c>
-      <c r="S40" s="61" t="n"/>
-      <c r="T40" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (J24*D24)-(E24*D24)-(2*sum(H24:I24)), "")</f>
-        <v/>
-      </c>
-      <c r="U40" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
-        <v/>
-      </c>
-      <c r="V40" s="61">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
-        <v/>
-      </c>
-      <c r="W40" s="53" t="n">
-        <v>640.52</v>
-      </c>
-      <c r="X40" s="50" t="n">
-        <v>45316</v>
-      </c>
-      <c r="Y40" s="46" t="n">
-        <v>0.3105383144</v>
-      </c>
-      <c r="Z40" s="54" t="n">
-        <v>1529.00992</v>
-      </c>
-      <c r="AA40" s="54" t="n">
-        <v>6383.48992</v>
-      </c>
-      <c r="AB40" s="55" t="n">
-        <v>10</v>
-      </c>
+      <c r="K40" s="43">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="L40" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="M40" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <v/>
+      </c>
+      <c r="N40" s="45">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <v/>
+      </c>
+      <c r="O40" s="43">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="P40" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="Q40" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <v/>
+      </c>
+      <c r="R40" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="S40" s="46">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="T40" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="U40" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <v/>
+      </c>
+      <c r="V40" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="W40" s="47" t="n"/>
+      <c r="X40" s="47" t="n"/>
+      <c r="Y40" s="46">
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="Z40" s="47" t="n"/>
+      <c r="AA40" s="47" t="n"/>
+      <c r="AB40" s="48" t="n"/>
       <c r="AC40" s="44">
-        <f>if(B24="DIV", F24,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD40" s="56" t="inlineStr">
@@ -3843,7 +3699,7 @@
     </row>
     <row r="41">
       <c r="A41" s="57" t="n">
-        <v>45181</v>
+        <v>45225</v>
       </c>
       <c r="B41" s="58" t="inlineStr">
         <is>
@@ -3859,10 +3715,10 @@
         <v>5</v>
       </c>
       <c r="E41" s="42" t="n">
-        <v>528.498</v>
+        <v>434.402</v>
       </c>
       <c r="F41" s="42" t="n">
-        <v>2661.21</v>
+        <v>2187.44</v>
       </c>
       <c r="G41" s="60" t="inlineStr">
         <is>
@@ -3870,10 +3726,10 @@
         </is>
       </c>
       <c r="H41" s="60" t="n">
-        <v>2.64</v>
+        <v>2.19</v>
       </c>
       <c r="I41" s="60" t="n">
-        <v>16.07</v>
+        <v>13.25</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
@@ -3881,41 +3737,41 @@
       </c>
       <c r="K41" s="47" t="n"/>
       <c r="L41" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M41" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N41" s="62">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O41" s="61" t="n"/>
       <c r="P41" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R41" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S41" s="61" t="n"/>
       <c r="T41" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (J25*D25)-(E25*D25)-(2*sum(H25:I25)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (J23*D23)-(E23*D23)-(2*sum(H23:I23)), "")</f>
         <v/>
       </c>
       <c r="U41" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V41" s="61">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W41" s="53" t="n">
@@ -3925,19 +3781,19 @@
         <v>45316</v>
       </c>
       <c r="Y41" s="46" t="n">
-        <v>0.2060764724</v>
+        <v>0.4612878323</v>
       </c>
       <c r="Z41" s="54" t="n">
-        <v>552.26846</v>
+        <v>1016.16174</v>
       </c>
       <c r="AA41" s="54" t="n">
-        <v>3194.75846</v>
+        <v>3188.17174</v>
       </c>
       <c r="AB41" s="55" t="n">
         <v>5</v>
       </c>
       <c r="AC41" s="44">
-        <f>if(B25="DIV", F25,"")</f>
+        <f>if(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD41" s="56" t="inlineStr">
@@ -3948,11 +3804,11 @@
     </row>
     <row r="42">
       <c r="A42" s="57" t="n">
-        <v>45177</v>
+        <v>45191</v>
       </c>
       <c r="B42" s="58" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C42" s="58" t="inlineStr">
@@ -3961,24 +3817,24 @@
         </is>
       </c>
       <c r="D42" s="60" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E42" s="42" t="n">
-        <v>6</v>
+        <v>485.448</v>
       </c>
       <c r="F42" s="42" t="n">
-        <v>180</v>
+        <v>4889.12</v>
       </c>
       <c r="G42" s="60" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.6.0000/- per share on Ex-Date: 08-SEP-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H42" s="60" t="n">
-        <v>0</v>
+        <v>4.94</v>
       </c>
       <c r="I42" s="60" t="n">
-        <v>0</v>
+        <v>29.68</v>
       </c>
       <c r="J42" s="42">
         <f>Index!$C$2</f>
@@ -3986,54 +3842,63 @@
       </c>
       <c r="K42" s="47" t="n"/>
       <c r="L42" s="47">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M42" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N42" s="62">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O42" s="61" t="n"/>
       <c r="P42" s="47">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R42" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S42" s="61" t="n"/>
       <c r="T42" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*sum(H26:I26)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (J24*D24)-(E24*D24)-(2*sum(H24:I24)), "")</f>
         <v/>
       </c>
       <c r="U42" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V42" s="61">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
-        <v/>
-      </c>
-      <c r="W42" s="47" t="n"/>
-      <c r="X42" s="47" t="n"/>
-      <c r="Y42" s="46">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
-        <v/>
-      </c>
-      <c r="Z42" s="47" t="n"/>
-      <c r="AA42" s="47" t="n"/>
-      <c r="AB42" s="48" t="n"/>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="W42" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="X42" s="50" t="n">
+        <v>45316</v>
+      </c>
+      <c r="Y42" s="46" t="n">
+        <v>0.3105383144</v>
+      </c>
+      <c r="Z42" s="54" t="n">
+        <v>1529.00992</v>
+      </c>
+      <c r="AA42" s="54" t="n">
+        <v>6383.48992</v>
+      </c>
+      <c r="AB42" s="55" t="n">
+        <v>10</v>
+      </c>
       <c r="AC42" s="44">
-        <f>if(B26="DIV", F26,"")</f>
+        <f>if(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD42" s="56" t="inlineStr">
@@ -4044,7 +3909,7 @@
     </row>
     <row r="43">
       <c r="A43" s="57" t="n">
-        <v>45162</v>
+        <v>45181</v>
       </c>
       <c r="B43" s="58" t="inlineStr">
         <is>
@@ -4057,13 +3922,13 @@
         </is>
       </c>
       <c r="D43" s="60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E43" s="42" t="n">
-        <v>474.2</v>
+        <v>528.498</v>
       </c>
       <c r="F43" s="42" t="n">
-        <v>477.55</v>
+        <v>2661.21</v>
       </c>
       <c r="G43" s="60" t="inlineStr">
         <is>
@@ -4071,10 +3936,10 @@
         </is>
       </c>
       <c r="H43" s="60" t="n">
-        <v>0.47</v>
+        <v>2.64</v>
       </c>
       <c r="I43" s="60" t="n">
-        <v>2.88</v>
+        <v>16.07</v>
       </c>
       <c r="J43" s="42">
         <f>Index!$C$2</f>
@@ -4082,41 +3947,41 @@
       </c>
       <c r="K43" s="47" t="n"/>
       <c r="L43" s="47">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M43" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N43" s="62">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O43" s="61" t="n"/>
       <c r="P43" s="47">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R43" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S43" s="61" t="n"/>
       <c r="T43" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*sum(H27:I27)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (J25*D25)-(E25*D25)-(2*sum(H25:I25)), "")</f>
         <v/>
       </c>
       <c r="U43" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V43" s="61">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="W43" s="53" t="n">
@@ -4126,19 +3991,19 @@
         <v>45316</v>
       </c>
       <c r="Y43" s="46" t="n">
-        <v>0.341009607</v>
+        <v>0.2060764724</v>
       </c>
       <c r="Z43" s="54" t="n">
-        <v>163.99152</v>
+        <v>552.26846</v>
       </c>
       <c r="AA43" s="54" t="n">
-        <v>638.19152</v>
+        <v>3194.75846</v>
       </c>
       <c r="AB43" s="55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC43" s="44">
-        <f>if(B27="DIV", F27,"")</f>
+        <f>if(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD43" s="56" t="inlineStr">
@@ -4149,11 +4014,11 @@
     </row>
     <row r="44">
       <c r="A44" s="57" t="n">
-        <v>45162</v>
+        <v>45177</v>
       </c>
       <c r="B44" s="58" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C44" s="58" t="inlineStr">
@@ -4162,24 +4027,24 @@
         </is>
       </c>
       <c r="D44" s="60" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E44" s="42" t="n">
-        <v>474</v>
+        <v>6</v>
       </c>
       <c r="F44" s="42" t="n">
-        <v>1909.44</v>
+        <v>180</v>
       </c>
       <c r="G44" s="60" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.6.0000/- per share on Ex-Date: 08-SEP-2023</t>
         </is>
       </c>
       <c r="H44" s="60" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="I44" s="60" t="n">
-        <v>11.56</v>
+        <v>0</v>
       </c>
       <c r="J44" s="42">
         <f>Index!$C$2</f>
@@ -4187,63 +4052,54 @@
       </c>
       <c r="K44" s="47" t="n"/>
       <c r="L44" s="47">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M44" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N44" s="62">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O44" s="61" t="n"/>
       <c r="P44" s="47">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R44" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S44" s="61" t="n"/>
       <c r="T44" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*sum(H28:I28)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*sum(H26:I26)), "")</f>
         <v/>
       </c>
       <c r="U44" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V44" s="61">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
-        <v/>
-      </c>
-      <c r="W44" s="53" t="n">
-        <v>640.52</v>
-      </c>
-      <c r="X44" s="50" t="n">
-        <v>45316</v>
-      </c>
-      <c r="Y44" s="46" t="n">
-        <v>0.3415475121</v>
-      </c>
-      <c r="Z44" s="54" t="n">
-        <v>656.75488</v>
-      </c>
-      <c r="AA44" s="54" t="n">
-        <v>2552.75488</v>
-      </c>
-      <c r="AB44" s="55" t="n">
-        <v>4</v>
-      </c>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
+        <v/>
+      </c>
+      <c r="W44" s="47" t="n"/>
+      <c r="X44" s="47" t="n"/>
+      <c r="Y44" s="46">
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
+        <v/>
+      </c>
+      <c r="Z44" s="47" t="n"/>
+      <c r="AA44" s="47" t="n"/>
+      <c r="AB44" s="48" t="n"/>
       <c r="AC44" s="44">
-        <f>if(B28="DIV", F28,"")</f>
+        <f>if(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD44" s="56" t="inlineStr">
@@ -4254,11 +4110,11 @@
     </row>
     <row r="45">
       <c r="A45" s="57" t="n">
-        <v>45145</v>
+        <v>45162</v>
       </c>
       <c r="B45" s="58" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C45" s="58" t="inlineStr">
@@ -4267,24 +4123,24 @@
         </is>
       </c>
       <c r="D45" s="60" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E45" s="42" t="n">
-        <v>3.75</v>
+        <v>474.2</v>
       </c>
       <c r="F45" s="42" t="n">
-        <v>93.75</v>
+        <v>477.55</v>
       </c>
       <c r="G45" s="60" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.3.7500/- per share on Ex-Date: 07-AUG-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H45" s="60" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="I45" s="60" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="J45" s="42">
         <f>Index!$C$2</f>
@@ -4292,54 +4148,63 @@
       </c>
       <c r="K45" s="47" t="n"/>
       <c r="L45" s="47">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M45" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N45" s="62">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O45" s="61" t="n"/>
       <c r="P45" s="47">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R45" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S45" s="61" t="n"/>
       <c r="T45" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*sum(H29:I29)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*sum(H27:I27)), "")</f>
         <v/>
       </c>
       <c r="U45" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V45" s="61">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
-        <v/>
-      </c>
-      <c r="W45" s="47" t="n"/>
-      <c r="X45" s="47" t="n"/>
-      <c r="Y45" s="46">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
-        <v/>
-      </c>
-      <c r="Z45" s="47" t="n"/>
-      <c r="AA45" s="47" t="n"/>
-      <c r="AB45" s="48" t="n"/>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <v/>
+      </c>
+      <c r="W45" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="X45" s="50" t="n">
+        <v>45316</v>
+      </c>
+      <c r="Y45" s="46" t="n">
+        <v>0.341009607</v>
+      </c>
+      <c r="Z45" s="54" t="n">
+        <v>163.99152</v>
+      </c>
+      <c r="AA45" s="54" t="n">
+        <v>638.19152</v>
+      </c>
+      <c r="AB45" s="55" t="n">
+        <v>1</v>
+      </c>
       <c r="AC45" s="44">
-        <f>if(B29="DIV", F29,"")</f>
+        <f>if(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD45" s="56" t="inlineStr">
@@ -4350,7 +4215,7 @@
     </row>
     <row r="46">
       <c r="A46" s="57" t="n">
-        <v>45034</v>
+        <v>45162</v>
       </c>
       <c r="B46" s="58" t="inlineStr">
         <is>
@@ -4363,13 +4228,13 @@
         </is>
       </c>
       <c r="D46" s="60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E46" s="42" t="n">
-        <v>347.95</v>
+        <v>474</v>
       </c>
       <c r="F46" s="42" t="n">
-        <v>1752.1</v>
+        <v>1909.44</v>
       </c>
       <c r="G46" s="60" t="inlineStr">
         <is>
@@ -4377,10 +4242,10 @@
         </is>
       </c>
       <c r="H46" s="60" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="I46" s="60" t="n">
-        <v>10.61</v>
+        <v>11.56</v>
       </c>
       <c r="J46" s="42">
         <f>Index!$C$2</f>
@@ -4388,41 +4253,41 @@
       </c>
       <c r="K46" s="47" t="n"/>
       <c r="L46" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M46" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N46" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O46" s="61" t="n"/>
       <c r="P46" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R46" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S46" s="61" t="n"/>
       <c r="T46" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*sum(H28:I28)), "")</f>
         <v/>
       </c>
       <c r="U46" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V46" s="61">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="W46" s="53" t="n">
@@ -4432,19 +4297,19 @@
         <v>45316</v>
       </c>
       <c r="Y46" s="46" t="n">
-        <v>0.8174615886</v>
+        <v>0.3415475121</v>
       </c>
       <c r="Z46" s="54" t="n">
-        <v>1442.3701</v>
+        <v>656.75488</v>
       </c>
       <c r="AA46" s="54" t="n">
-        <v>3182.1201</v>
+        <v>2552.75488</v>
       </c>
       <c r="AB46" s="55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC46" s="44">
-        <f>if(B30="DIV", F30,"")</f>
+        <f>if(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD46" s="56" t="inlineStr">
@@ -4455,11 +4320,11 @@
     </row>
     <row r="47">
       <c r="A47" s="57" t="n">
-        <v>44981</v>
+        <v>45145</v>
       </c>
       <c r="B47" s="58" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C47" s="58" t="inlineStr">
@@ -4468,24 +4333,24 @@
         </is>
       </c>
       <c r="D47" s="60" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E47" s="42" t="n">
-        <v>333.751</v>
+        <v>3.75</v>
       </c>
       <c r="F47" s="42" t="n">
-        <v>3361.19</v>
+        <v>93.75</v>
       </c>
       <c r="G47" s="60" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.3.7500/- per share on Ex-Date: 07-AUG-2023</t>
         </is>
       </c>
       <c r="H47" s="60" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="I47" s="60" t="n">
-        <v>20.35</v>
+        <v>0</v>
       </c>
       <c r="J47" s="42">
         <f>Index!$C$2</f>
@@ -4493,63 +4358,54 @@
       </c>
       <c r="K47" s="47" t="n"/>
       <c r="L47" s="47">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M47" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N47" s="62">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O47" s="61" t="n"/>
       <c r="P47" s="47">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R47" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S47" s="61" t="n"/>
       <c r="T47" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*sum(H31:I31)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*sum(H29:I29)), "")</f>
         <v/>
       </c>
       <c r="U47" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V47" s="61">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
-        <v/>
-      </c>
-      <c r="W47" s="53" t="n">
-        <v>640.52</v>
-      </c>
-      <c r="X47" s="50" t="n">
-        <v>45316</v>
-      </c>
-      <c r="Y47" s="46" t="n">
-        <v>0.8936040096</v>
-      </c>
-      <c r="Z47" s="54" t="n">
-        <v>3024.74234</v>
-      </c>
-      <c r="AA47" s="54" t="n">
-        <v>6362.25234</v>
-      </c>
-      <c r="AB47" s="55" t="n">
-        <v>10</v>
-      </c>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <v/>
+      </c>
+      <c r="W47" s="47" t="n"/>
+      <c r="X47" s="47" t="n"/>
+      <c r="Y47" s="46">
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <v/>
+      </c>
+      <c r="Z47" s="47" t="n"/>
+      <c r="AA47" s="47" t="n"/>
+      <c r="AB47" s="48" t="n"/>
       <c r="AC47" s="44">
-        <f>if(B31="DIV", F31,"")</f>
+        <f>if(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD47" s="56" t="inlineStr">
@@ -4560,11 +4416,11 @@
     </row>
     <row r="48">
       <c r="A48" s="57" t="n">
-        <v>44974</v>
+        <v>45034</v>
       </c>
       <c r="B48" s="58" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C48" s="58" t="inlineStr">
@@ -4573,24 +4429,24 @@
         </is>
       </c>
       <c r="D48" s="60" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E48" s="42" t="n">
-        <v>6</v>
+        <v>347.95</v>
       </c>
       <c r="F48" s="42" t="n">
-        <v>60</v>
+        <v>1752.1</v>
       </c>
       <c r="G48" s="60" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.6.0000/- per share on Ex-Date: 17-FEB-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H48" s="60" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="I48" s="60" t="n">
-        <v>0</v>
+        <v>10.61</v>
       </c>
       <c r="J48" s="42">
         <f>Index!$C$2</f>
@@ -4598,54 +4454,63 @@
       </c>
       <c r="K48" s="47" t="n"/>
       <c r="L48" s="47">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M48" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N48" s="62">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O48" s="61" t="n"/>
       <c r="P48" s="47">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R48" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S48" s="61" t="n"/>
       <c r="T48" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*sum(H32:I32)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
         <v/>
       </c>
       <c r="U48" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V48" s="61">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
-        <v/>
-      </c>
-      <c r="W48" s="47" t="n"/>
-      <c r="X48" s="47" t="n"/>
-      <c r="Y48" s="46">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
-        <v/>
-      </c>
-      <c r="Z48" s="47" t="n"/>
-      <c r="AA48" s="47" t="n"/>
-      <c r="AB48" s="48" t="n"/>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="W48" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="X48" s="50" t="n">
+        <v>45316</v>
+      </c>
+      <c r="Y48" s="46" t="n">
+        <v>0.8174615886</v>
+      </c>
+      <c r="Z48" s="54" t="n">
+        <v>1442.3701</v>
+      </c>
+      <c r="AA48" s="54" t="n">
+        <v>3182.1201</v>
+      </c>
+      <c r="AB48" s="55" t="n">
+        <v>5</v>
+      </c>
       <c r="AC48" s="44">
-        <f>if(B32="DIV", F32,"")</f>
+        <f>if(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD48" s="56" t="inlineStr">
@@ -4656,7 +4521,7 @@
     </row>
     <row r="49">
       <c r="A49" s="57" t="n">
-        <v>44953</v>
+        <v>44981</v>
       </c>
       <c r="B49" s="58" t="inlineStr">
         <is>
@@ -4672,10 +4537,10 @@
         <v>10</v>
       </c>
       <c r="E49" s="42" t="n">
-        <v>332.597</v>
+        <v>333.751</v>
       </c>
       <c r="F49" s="42" t="n">
-        <v>3349.53</v>
+        <v>3361.19</v>
       </c>
       <c r="G49" s="60" t="inlineStr">
         <is>
@@ -4683,10 +4548,10 @@
         </is>
       </c>
       <c r="H49" s="60" t="n">
-        <v>3.29</v>
+        <v>3.34</v>
       </c>
       <c r="I49" s="60" t="n">
-        <v>20.24</v>
+        <v>20.35</v>
       </c>
       <c r="J49" s="42">
         <f>Index!$C$2</f>
@@ -4694,41 +4559,41 @@
       </c>
       <c r="K49" s="47" t="n"/>
       <c r="L49" s="47">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M49" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N49" s="62">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O49" s="61" t="n"/>
       <c r="P49" s="47">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R49" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S49" s="61" t="n"/>
       <c r="T49" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*sum(H33:I33)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*sum(H31:I31)), "")</f>
         <v/>
       </c>
       <c r="U49" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V49" s="61">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="W49" s="53" t="n">
@@ -4738,19 +4603,19 @@
         <v>45316</v>
       </c>
       <c r="Y49" s="46" t="n">
-        <v>0.9001087381</v>
+        <v>0.8936040096</v>
       </c>
       <c r="Z49" s="54" t="n">
-        <v>3036.12078</v>
+        <v>3024.74234</v>
       </c>
       <c r="AA49" s="54" t="n">
-        <v>6362.09078</v>
+        <v>6362.25234</v>
       </c>
       <c r="AB49" s="55" t="n">
         <v>10</v>
       </c>
       <c r="AC49" s="44">
-        <f>if(B33="DIV", F33,"")</f>
+        <f>if(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD49" s="56" t="inlineStr">
@@ -4760,36 +4625,205 @@
       </c>
     </row>
     <row r="50">
-      <c r="E50" s="63" t="n"/>
-      <c r="F50" s="63" t="n"/>
-      <c r="G50" s="64" t="n"/>
-      <c r="J50" s="63" t="n"/>
-      <c r="K50" s="63" t="n"/>
-      <c r="L50" s="63" t="n"/>
-      <c r="M50" s="66" t="n"/>
-      <c r="W50" s="63" t="n"/>
-      <c r="X50" s="63" t="n"/>
-      <c r="Y50" s="63" t="n"/>
-      <c r="Z50" s="63" t="n"/>
-      <c r="AA50" s="63" t="n"/>
-      <c r="AB50" s="63" t="n"/>
-      <c r="AC50" s="63" t="n"/>
+      <c r="A50" s="57" t="n">
+        <v>44974</v>
+      </c>
+      <c r="B50" s="58" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C50" s="58" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D50" s="60" t="n">
+        <v>10</v>
+      </c>
+      <c r="E50" s="42" t="n">
+        <v>6</v>
+      </c>
+      <c r="F50" s="42" t="n">
+        <v>60</v>
+      </c>
+      <c r="G50" s="60" t="inlineStr">
+        <is>
+          <t>Interim-Dividend of Rs.6.0000/- per share on Ex-Date: 17-FEB-2023</t>
+        </is>
+      </c>
+      <c r="H50" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K50" s="47" t="n"/>
+      <c r="L50" s="47">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <v/>
+      </c>
+      <c r="M50" s="61">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <v/>
+      </c>
+      <c r="N50" s="62">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <v/>
+      </c>
+      <c r="O50" s="61" t="n"/>
+      <c r="P50" s="47">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <v/>
+      </c>
+      <c r="Q50" s="61">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <v/>
+      </c>
+      <c r="R50" s="61">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <v/>
+      </c>
+      <c r="S50" s="61" t="n"/>
+      <c r="T50" s="61">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*sum(H32:I32)), "")</f>
+        <v/>
+      </c>
+      <c r="U50" s="61">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <v/>
+      </c>
+      <c r="V50" s="61">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <v/>
+      </c>
+      <c r="W50" s="47" t="n"/>
+      <c r="X50" s="47" t="n"/>
+      <c r="Y50" s="46">
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
+        <v/>
+      </c>
+      <c r="Z50" s="47" t="n"/>
+      <c r="AA50" s="47" t="n"/>
+      <c r="AB50" s="48" t="n"/>
+      <c r="AC50" s="44">
+        <f>if(B32="DIV", F32,"")</f>
+        <v/>
+      </c>
+      <c r="AD50" s="56" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="E51" s="63" t="n"/>
-      <c r="F51" s="63" t="n"/>
-      <c r="G51" s="64" t="n"/>
-      <c r="J51" s="63" t="n"/>
-      <c r="K51" s="63" t="n"/>
-      <c r="L51" s="63" t="n"/>
-      <c r="M51" s="66" t="n"/>
-      <c r="W51" s="63" t="n"/>
-      <c r="X51" s="63" t="n"/>
-      <c r="Y51" s="63" t="n"/>
-      <c r="Z51" s="63" t="n"/>
-      <c r="AA51" s="63" t="n"/>
-      <c r="AB51" s="63" t="n"/>
-      <c r="AC51" s="63" t="n"/>
+      <c r="A51" s="57" t="n">
+        <v>44953</v>
+      </c>
+      <c r="B51" s="58" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C51" s="58" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D51" s="60" t="n">
+        <v>10</v>
+      </c>
+      <c r="E51" s="42" t="n">
+        <v>332.597</v>
+      </c>
+      <c r="F51" s="42" t="n">
+        <v>3349.53</v>
+      </c>
+      <c r="G51" s="60" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H51" s="60" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="I51" s="60" t="n">
+        <v>20.24</v>
+      </c>
+      <c r="J51" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K51" s="47" t="n"/>
+      <c r="L51" s="47">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <v/>
+      </c>
+      <c r="M51" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <v/>
+      </c>
+      <c r="N51" s="62">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <v/>
+      </c>
+      <c r="O51" s="61" t="n"/>
+      <c r="P51" s="47">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <v/>
+      </c>
+      <c r="Q51" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <v/>
+      </c>
+      <c r="R51" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <v/>
+      </c>
+      <c r="S51" s="61" t="n"/>
+      <c r="T51" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*sum(H33:I33)), "")</f>
+        <v/>
+      </c>
+      <c r="U51" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <v/>
+      </c>
+      <c r="V51" s="61">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <v/>
+      </c>
+      <c r="W51" s="53" t="n">
+        <v>640.52</v>
+      </c>
+      <c r="X51" s="50" t="n">
+        <v>45316</v>
+      </c>
+      <c r="Y51" s="46" t="n">
+        <v>0.9001087381</v>
+      </c>
+      <c r="Z51" s="54" t="n">
+        <v>3036.12078</v>
+      </c>
+      <c r="AA51" s="54" t="n">
+        <v>6362.09078</v>
+      </c>
+      <c r="AB51" s="55" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC51" s="44">
+        <f>if(B33="DIV", F33,"")</f>
+        <v/>
+      </c>
+      <c r="AD51" s="56" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="E52" s="63" t="n"/>
@@ -20398,6 +20432,7 @@
       <c r="J1027" s="63" t="n"/>
       <c r="K1027" s="63" t="n"/>
       <c r="L1027" s="63" t="n"/>
+      <c r="M1027" s="66" t="n"/>
       <c r="W1027" s="63" t="n"/>
       <c r="X1027" s="63" t="n"/>
       <c r="Y1027" s="63" t="n"/>
@@ -20413,6 +20448,7 @@
       <c r="J1028" s="63" t="n"/>
       <c r="K1028" s="63" t="n"/>
       <c r="L1028" s="63" t="n"/>
+      <c r="M1028" s="66" t="n"/>
       <c r="W1028" s="63" t="n"/>
       <c r="X1028" s="63" t="n"/>
       <c r="Y1028" s="63" t="n"/>
@@ -20645,6 +20681,36 @@
       <c r="AA1043" s="63" t="n"/>
       <c r="AB1043" s="63" t="n"/>
       <c r="AC1043" s="63" t="n"/>
+    </row>
+    <row r="1044">
+      <c r="E1044" s="63" t="n"/>
+      <c r="F1044" s="63" t="n"/>
+      <c r="G1044" s="64" t="n"/>
+      <c r="J1044" s="63" t="n"/>
+      <c r="K1044" s="63" t="n"/>
+      <c r="L1044" s="63" t="n"/>
+      <c r="W1044" s="63" t="n"/>
+      <c r="X1044" s="63" t="n"/>
+      <c r="Y1044" s="63" t="n"/>
+      <c r="Z1044" s="63" t="n"/>
+      <c r="AA1044" s="63" t="n"/>
+      <c r="AB1044" s="63" t="n"/>
+      <c r="AC1044" s="63" t="n"/>
+    </row>
+    <row r="1045">
+      <c r="E1045" s="63" t="n"/>
+      <c r="F1045" s="63" t="n"/>
+      <c r="G1045" s="64" t="n"/>
+      <c r="J1045" s="63" t="n"/>
+      <c r="K1045" s="63" t="n"/>
+      <c r="L1045" s="63" t="n"/>
+      <c r="W1045" s="63" t="n"/>
+      <c r="X1045" s="63" t="n"/>
+      <c r="Y1045" s="63" t="n"/>
+      <c r="Z1045" s="63" t="n"/>
+      <c r="AA1045" s="63" t="n"/>
+      <c r="AB1045" s="63" t="n"/>
+      <c r="AC1045" s="63" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$104"/>
